--- a/app/code/data/excels/raw_copy_expenses.xlsx
+++ b/app/code/data/excels/raw_copy_expenses.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614374801" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614374801" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614374801" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614374801"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614466693" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614466693" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614466693" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614466693"/>
     </ext>
   </extLst>
 </workbook>
@@ -1273,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614374801" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1376,7 +1376,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801"/>
+          <pm:border xmlns:pm="smNativeData" id="1614466693"/>
         </ext>
       </extLst>
     </border>
@@ -1395,7 +1395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1416,7 +1416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1438,7 +1438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1459,7 +1459,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1480,7 +1480,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1502,7 +1502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1525,7 +1525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1547,7 +1547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614374801">
+          <pm:border xmlns:pm="smNativeData" id="1614466693">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1628,10 +1628,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614374801" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614466693" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614374801" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614466693" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G9"/>
+      <selection activeCell="B2" sqref="B2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -9886,7 +9886,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614374801" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9895,14 +9895,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614374801" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9924,7 +9924,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614374801" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9933,14 +9933,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614374801" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9962,7 +9962,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614374801" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9971,14 +9971,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614374801" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614374801" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/code/data/excels/raw_copy_expenses.xlsx
+++ b/app/code/data/excels/raw_copy_expenses.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614466693" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614466693" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614466693" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614466693"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614501811" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614501811" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614501811" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614501811"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
   <si>
     <t>ID</t>
   </si>
@@ -51,478 +51,448 @@
     <t>Trip</t>
   </si>
   <si>
-    <t>Campus Laval  : 1er loyer du CAMPUS LAVAL</t>
+    <t>bonbon reese (test carte bleue)</t>
+  </si>
+  <si>
+    <t>alimentary</t>
+  </si>
+  <si>
+    <t>adaptateur</t>
+  </si>
+  <si>
+    <t>equipement</t>
+  </si>
+  <si>
+    <t>Mcdo</t>
+  </si>
+  <si>
+    <t>Thé gingembre 1 boite</t>
+  </si>
+  <si>
+    <t>Levis : 2 jeans, un foncé et un couleur jean</t>
+  </si>
+  <si>
+    <t>Walmart : brosse à dents, crocks, rasoirs</t>
+  </si>
+  <si>
+    <t>equipement:other</t>
+  </si>
+  <si>
+    <t>shampoing Ives Rocher</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Walmart : tasse, bol, bouilloire, boule à thé, manger</t>
+  </si>
+  <si>
+    <t>jean et short sport</t>
+  </si>
+  <si>
+    <t>carte bus 1 jour</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>frappé starbuck</t>
+  </si>
+  <si>
+    <t>PFK : mauvais</t>
+  </si>
+  <si>
+    <t>Queue de castor : poutine</t>
+  </si>
+  <si>
+    <t>Thinkkitchen : fouet, passoire</t>
+  </si>
+  <si>
+    <t>Le creuset : gant et protège main cuisine</t>
+  </si>
+  <si>
+    <t>H&amp;M : 2 t-shirt</t>
+  </si>
+  <si>
+    <t>Bus vieux port, feu d'artifice</t>
+  </si>
+  <si>
+    <t>Tim Horton</t>
+  </si>
+  <si>
+    <t>Walmart : draps + oreiller</t>
+  </si>
+  <si>
+    <t>Murphy's : bar</t>
+  </si>
+  <si>
+    <t>retrait espèce</t>
+  </si>
+  <si>
+    <t>other:withdrawal</t>
+  </si>
+  <si>
+    <t>Metro : nourriture</t>
+  </si>
+  <si>
+    <t>Transport bus</t>
+  </si>
+  <si>
+    <t>Bar : mètre bière</t>
+  </si>
+  <si>
+    <t>Poutineville : grosse poutine</t>
+  </si>
+  <si>
+    <t>Poutineville : Tiphanie</t>
+  </si>
+  <si>
+    <t>Sport Experts : chaussures et maillot de bain</t>
+  </si>
+  <si>
+    <t>Metro : cuisine et barbecue</t>
+  </si>
+  <si>
+    <t>Lvlop</t>
+  </si>
+  <si>
+    <t>leasure</t>
+  </si>
+  <si>
+    <t>Epicerie européenne</t>
+  </si>
+  <si>
+    <t>Metro : courses cuisine et manger</t>
+  </si>
+  <si>
+    <t>Creuset : Casserole et poele</t>
+  </si>
+  <si>
+    <t>Walmart : équipement papier cuisson …</t>
+  </si>
+  <si>
+    <t>Linge</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>Coop Zone : feuilles cahier</t>
+  </si>
+  <si>
+    <t>Dollarama</t>
+  </si>
+  <si>
+    <t>Poste canada : enveloppes blanches</t>
+  </si>
+  <si>
+    <t>Lpu</t>
+  </si>
+  <si>
+    <t>Amazon : balance et mixeur</t>
+  </si>
+  <si>
+    <t>OVH : nom domaine</t>
+  </si>
+  <si>
+    <t>Bière magasin près lvlop</t>
+  </si>
+  <si>
+    <t>La place : thé et autre</t>
+  </si>
+  <si>
+    <t>Pub Universitaire</t>
+  </si>
+  <si>
+    <t>Pub Universitaire : soirée</t>
+  </si>
+  <si>
+    <t>leasure:pub</t>
+  </si>
+  <si>
+    <t>alimentary:food</t>
+  </si>
+  <si>
+    <t>Iga : nourriture</t>
+  </si>
+  <si>
+    <t>ThinkKitchen : équipement</t>
+  </si>
+  <si>
+    <t>equipement:cooking</t>
+  </si>
+  <si>
+    <t>Métro : alimentation</t>
+  </si>
+  <si>
+    <t>T-shirt laval x2</t>
+  </si>
+  <si>
+    <t>equipement:dress</t>
+  </si>
+  <si>
+    <t>Amazon : livres cours</t>
+  </si>
+  <si>
+    <t>Métro : Fruits légumes</t>
+  </si>
+  <si>
+    <t>Imprimante</t>
+  </si>
+  <si>
+    <t>other:printer</t>
+  </si>
+  <si>
+    <t>Ciné : Ça</t>
+  </si>
+  <si>
+    <t>leasure:movie_theater</t>
+  </si>
+  <si>
+    <t>alimentary:restaurant</t>
+  </si>
+  <si>
+    <t>Métro : légume</t>
+  </si>
+  <si>
+    <t>SAQ : vodka et kraken (rhum)</t>
+  </si>
+  <si>
+    <t>Coiffeur Cité</t>
+  </si>
+  <si>
+    <t>Pub U</t>
+  </si>
+  <si>
+    <t>Amazon : raquette ping pong</t>
+  </si>
+  <si>
+    <t>Metro : courses</t>
+  </si>
+  <si>
+    <t>Dollarama : plats en verre</t>
+  </si>
+  <si>
+    <t>IGA : cuisine</t>
+  </si>
+  <si>
+    <t>alimentary:pastry</t>
+  </si>
+  <si>
+    <t>Métro : cuisine</t>
+  </si>
+  <si>
+    <t>Escompte : bière</t>
+  </si>
+  <si>
+    <t>alimentary:alcohol</t>
+  </si>
+  <si>
+    <t>Épicerie européenne</t>
+  </si>
+  <si>
+    <t>alimentary:gluttony</t>
+  </si>
+  <si>
+    <t>Anniv bougies + autre</t>
+  </si>
+  <si>
+    <t>other:present</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Mcdo : rentrant de soirée</t>
+  </si>
+  <si>
+    <t>Shogun : Japonais à volonter</t>
+  </si>
+  <si>
+    <t>Campus Laval : Payement des loyers de oct., nov. et déc.</t>
   </si>
   <si>
     <t>housing:rent</t>
   </si>
   <si>
-    <t>Avion : billet France -&gt; Québec</t>
+    <t>Amazon : jeu d'échec</t>
+  </si>
+  <si>
+    <t>leasure:board_game</t>
+  </si>
+  <si>
+    <t>Pub U : ailes de poulet + bière</t>
+  </si>
+  <si>
+    <t>Metro : alimentaire</t>
+  </si>
+  <si>
+    <t>SAQ : alcool</t>
+  </si>
+  <si>
+    <t>Chez Alphonse : provision départ baleines</t>
+  </si>
+  <si>
+    <t>Walmart : provision départ baleines</t>
+  </si>
+  <si>
+    <t>Décathlon : thermos</t>
+  </si>
+  <si>
+    <t>equipement:sport</t>
+  </si>
+  <si>
+    <t>Mcdo :</t>
+  </si>
+  <si>
+    <t>Frisson : glace 2 boules</t>
+  </si>
+  <si>
+    <t>Epicerie tadusac</t>
+  </si>
+  <si>
+    <t>Métro : viande</t>
+  </si>
+  <si>
+    <t>Coiffeur cité : gomme</t>
+  </si>
+  <si>
+    <t>other:hairdresser</t>
+  </si>
+  <si>
+    <t>Yves Rocher : masques</t>
+  </si>
+  <si>
+    <t>health:cream</t>
+  </si>
+  <si>
+    <t>Walmart : crème, solaire, coussin, lampe</t>
+  </si>
+  <si>
+    <t>Dollarama : paniers</t>
+  </si>
+  <si>
+    <t>ENSEA : inscription</t>
+  </si>
+  <si>
+    <t>school:registration</t>
+  </si>
+  <si>
+    <t>CVEC : inscription ENSEA</t>
+  </si>
+  <si>
+    <t>Remboursement parents</t>
+  </si>
+  <si>
+    <t>reimbursement:119</t>
+  </si>
+  <si>
+    <t>reimbursement:120</t>
+  </si>
+  <si>
+    <t>Walmart : courses</t>
+  </si>
+  <si>
+    <t>Métro : courses</t>
+  </si>
+  <si>
+    <t>Livres + affaires</t>
+  </si>
+  <si>
+    <t>school:supplies</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t>other:post</t>
+  </si>
+  <si>
+    <t>H&amp;M : vêtements haut</t>
+  </si>
+  <si>
+    <t>Coinomatic : argent pour machine à laver</t>
+  </si>
+  <si>
+    <t>housing:laundry</t>
+  </si>
+  <si>
+    <t>Métro : courses cuisine</t>
+  </si>
+  <si>
+    <t>IGA : courses + pâtisserie</t>
+  </si>
+  <si>
+    <t>ESTA</t>
+  </si>
+  <si>
+    <t>transport:authorization</t>
+  </si>
+  <si>
+    <t>NY.19.10</t>
+  </si>
+  <si>
+    <t>Frisson : glace</t>
+  </si>
+  <si>
+    <t>Desjardins : marathon Québec</t>
+  </si>
+  <si>
+    <t>leasure:activity</t>
+  </si>
+  <si>
+    <t>Metro courses</t>
+  </si>
+  <si>
+    <t>Clap (cinéma, Joker)</t>
+  </si>
+  <si>
+    <t>lvlop</t>
+  </si>
+  <si>
+    <t>leasure:out</t>
+  </si>
+  <si>
+    <t>Mcdo : Uber eats</t>
+  </si>
+  <si>
+    <t>Amazon : brassard course</t>
+  </si>
+  <si>
+    <t>Remboursement : Aurélien logement New York; NY.19.10</t>
+  </si>
+  <si>
+    <t>housing:hotel</t>
+  </si>
+  <si>
+    <t>Busbud : bus aller retour NewYork; NY.19.10</t>
+  </si>
+  <si>
+    <t>transport:bus</t>
+  </si>
+  <si>
+    <t>Sport Experts : sac course</t>
+  </si>
+  <si>
+    <t>RAMQ</t>
+  </si>
+  <si>
+    <t>health:insurance</t>
+  </si>
+  <si>
+    <t>Sport Experts : gourde</t>
+  </si>
+  <si>
+    <t>Métro courses</t>
+  </si>
+  <si>
+    <t>Remboursement Aymeric Cuba vol + hotel inclus; cuba.19.10</t>
   </si>
   <si>
     <t>transport:plane</t>
-  </si>
-  <si>
-    <t>Equipement fnac, oreiller</t>
-  </si>
-  <si>
-    <t>equipement:other</t>
-  </si>
-  <si>
-    <t>Pharmacie crème visage + dermatologue</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>Mcdo</t>
-  </si>
-  <si>
-    <t>alimentary</t>
-  </si>
-  <si>
-    <t>Leclerc</t>
-  </si>
-  <si>
-    <t>Franprix</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>transport bus arrivée</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>chambre mois d'août</t>
-  </si>
-  <si>
-    <t>housing</t>
-  </si>
-  <si>
-    <t>bonbon reese (test carte bleue)</t>
-  </si>
-  <si>
-    <t>adaptateur</t>
-  </si>
-  <si>
-    <t>equipement</t>
-  </si>
-  <si>
-    <t>Thé gingembre 1 boite</t>
-  </si>
-  <si>
-    <t>Levis : 2 jeans, un foncé et un couleur jean</t>
-  </si>
-  <si>
-    <t>Walmart : brosse à dents, crocks, rasoirs</t>
-  </si>
-  <si>
-    <t>shampoing Ives Rocher</t>
-  </si>
-  <si>
-    <t>Walmart : tasse, bol, bouilloire, boule à thé, manger</t>
-  </si>
-  <si>
-    <t>jean et short sport</t>
-  </si>
-  <si>
-    <t>carte bus 1 jour</t>
-  </si>
-  <si>
-    <t>frappé starbuck</t>
-  </si>
-  <si>
-    <t>PFK : mauvais</t>
-  </si>
-  <si>
-    <t>Queue de castor : poutine</t>
-  </si>
-  <si>
-    <t>Thinkkitchen : fouet, passoire</t>
-  </si>
-  <si>
-    <t>Le creuset : gant et protège main cuisine</t>
-  </si>
-  <si>
-    <t>H&amp;M : 2 t-shirt</t>
-  </si>
-  <si>
-    <t>Bus vieux port, feu d'artifice</t>
-  </si>
-  <si>
-    <t>Tim Horton</t>
-  </si>
-  <si>
-    <t>Walmart : draps + oreiller</t>
-  </si>
-  <si>
-    <t>Murphy's : bar</t>
-  </si>
-  <si>
-    <t>retrait espèce</t>
-  </si>
-  <si>
-    <t>other:withdrawal</t>
-  </si>
-  <si>
-    <t>Metro : nourriture</t>
-  </si>
-  <si>
-    <t>Transport bus</t>
-  </si>
-  <si>
-    <t>Bar : mètre bière</t>
-  </si>
-  <si>
-    <t>Poutineville : grosse poutine</t>
-  </si>
-  <si>
-    <t>Poutineville : Tiphanie</t>
-  </si>
-  <si>
-    <t>Sport Experts : chaussures et maillot de bain</t>
-  </si>
-  <si>
-    <t>Metro : cuisine et barbecue</t>
-  </si>
-  <si>
-    <t>Lvlop</t>
-  </si>
-  <si>
-    <t>leasure</t>
-  </si>
-  <si>
-    <t>Epicerie européenne</t>
-  </si>
-  <si>
-    <t>Metro : courses cuisine et manger</t>
-  </si>
-  <si>
-    <t>Creuset : Casserole et poele</t>
-  </si>
-  <si>
-    <t>Walmart : équipement papier cuisson …</t>
-  </si>
-  <si>
-    <t>Linge</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Coop Zone : feuilles cahier</t>
-  </si>
-  <si>
-    <t>Dollarama</t>
-  </si>
-  <si>
-    <t>Poste canada : enveloppes blanches</t>
-  </si>
-  <si>
-    <t>Lpu</t>
-  </si>
-  <si>
-    <t>Amazon : balance et mixeur</t>
-  </si>
-  <si>
-    <t>OVH : nom domaine</t>
-  </si>
-  <si>
-    <t>Bière magasin près lvlop</t>
-  </si>
-  <si>
-    <t>La place : thé et autre</t>
-  </si>
-  <si>
-    <t>Pub Universitaire</t>
-  </si>
-  <si>
-    <t>Pub Universitaire : soirée</t>
-  </si>
-  <si>
-    <t>leasure:pub</t>
-  </si>
-  <si>
-    <t>alimentary:food</t>
-  </si>
-  <si>
-    <t>Iga : nourriture</t>
-  </si>
-  <si>
-    <t>ThinkKitchen : équipement</t>
-  </si>
-  <si>
-    <t>equipement:cooking</t>
-  </si>
-  <si>
-    <t>Métro : alimentation</t>
-  </si>
-  <si>
-    <t>T-shirt laval x2</t>
-  </si>
-  <si>
-    <t>equipement:dress</t>
-  </si>
-  <si>
-    <t>Amazon : livres cours</t>
-  </si>
-  <si>
-    <t>Métro : Fruits légumes</t>
-  </si>
-  <si>
-    <t>Imprimante</t>
-  </si>
-  <si>
-    <t>other:printer</t>
-  </si>
-  <si>
-    <t>Ciné : Ça</t>
-  </si>
-  <si>
-    <t>leasure:movie_theater</t>
-  </si>
-  <si>
-    <t>alimentary:restaurant</t>
-  </si>
-  <si>
-    <t>Métro : légume</t>
-  </si>
-  <si>
-    <t>SAQ : vodka et kraken (rhum)</t>
-  </si>
-  <si>
-    <t>Coiffeur Cité</t>
-  </si>
-  <si>
-    <t>Pub U</t>
-  </si>
-  <si>
-    <t>Amazon : raquette ping pong</t>
-  </si>
-  <si>
-    <t>Metro : courses</t>
-  </si>
-  <si>
-    <t>Dollarama : plats en verre</t>
-  </si>
-  <si>
-    <t>IGA : cuisine</t>
-  </si>
-  <si>
-    <t>alimentary:pastry</t>
-  </si>
-  <si>
-    <t>Métro : cuisine</t>
-  </si>
-  <si>
-    <t>Escompte : bière</t>
-  </si>
-  <si>
-    <t>alimentary:alcohol</t>
-  </si>
-  <si>
-    <t>Épicerie européenne</t>
-  </si>
-  <si>
-    <t>alimentary:gluttony</t>
-  </si>
-  <si>
-    <t>Anniv bougies + autre</t>
-  </si>
-  <si>
-    <t>other:present</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Mcdo : rentrant de soirée</t>
-  </si>
-  <si>
-    <t>Shogun : Japonais à volonter</t>
-  </si>
-  <si>
-    <t>Campus Laval : Payement des loyers de oct., nov. et déc.</t>
-  </si>
-  <si>
-    <t>Amazon : jeu d'échec</t>
-  </si>
-  <si>
-    <t>leasure:board_game</t>
-  </si>
-  <si>
-    <t>Pub U : ailes de poulet + bière</t>
-  </si>
-  <si>
-    <t>Metro : alimentaire</t>
-  </si>
-  <si>
-    <t>SAQ : alcool</t>
-  </si>
-  <si>
-    <t>Chez Alphonse : provision départ baleines</t>
-  </si>
-  <si>
-    <t>Walmart : provision départ baleines</t>
-  </si>
-  <si>
-    <t>Décathlon : thermos</t>
-  </si>
-  <si>
-    <t>equipement:sport</t>
-  </si>
-  <si>
-    <t>Mcdo :</t>
-  </si>
-  <si>
-    <t>Frisson : glace 2 boules</t>
-  </si>
-  <si>
-    <t>Epicerie tadusac</t>
-  </si>
-  <si>
-    <t>Métro : viande</t>
-  </si>
-  <si>
-    <t>Coiffeur cité : gomme</t>
-  </si>
-  <si>
-    <t>other:hairdresser</t>
-  </si>
-  <si>
-    <t>Yves Rocher : masques</t>
-  </si>
-  <si>
-    <t>health:cream</t>
-  </si>
-  <si>
-    <t>Walmart : crème, solaire, coussin, lampe</t>
-  </si>
-  <si>
-    <t>Dollarama : paniers</t>
-  </si>
-  <si>
-    <t>ENSEA : inscription</t>
-  </si>
-  <si>
-    <t>school:registration</t>
-  </si>
-  <si>
-    <t>CVEC : inscription ENSEA</t>
-  </si>
-  <si>
-    <t>Remboursement parents</t>
-  </si>
-  <si>
-    <t>reimbursement:119</t>
-  </si>
-  <si>
-    <t>reimbursement:120</t>
-  </si>
-  <si>
-    <t>Walmart : courses</t>
-  </si>
-  <si>
-    <t>Métro : courses</t>
-  </si>
-  <si>
-    <t>Livres + affaires</t>
-  </si>
-  <si>
-    <t>school:supplies</t>
-  </si>
-  <si>
-    <t>lettre</t>
-  </si>
-  <si>
-    <t>other:post</t>
-  </si>
-  <si>
-    <t>H&amp;M : vêtements haut</t>
-  </si>
-  <si>
-    <t>Coinomatic : argent pour machine à laver</t>
-  </si>
-  <si>
-    <t>housing:laundry</t>
-  </si>
-  <si>
-    <t>Métro : courses cuisine</t>
-  </si>
-  <si>
-    <t>IGA : courses + pâtisserie</t>
-  </si>
-  <si>
-    <t>ESTA</t>
-  </si>
-  <si>
-    <t>transport:authorization</t>
-  </si>
-  <si>
-    <t>NY.19.10</t>
-  </si>
-  <si>
-    <t>Frisson : glace</t>
-  </si>
-  <si>
-    <t>Desjardins : marathon Québec</t>
-  </si>
-  <si>
-    <t>leasure:activity</t>
-  </si>
-  <si>
-    <t>Metro courses</t>
-  </si>
-  <si>
-    <t>Clap (cinéma, Joker)</t>
-  </si>
-  <si>
-    <t>lvlop</t>
-  </si>
-  <si>
-    <t>leasure:out</t>
-  </si>
-  <si>
-    <t>Mcdo : Uber eats</t>
-  </si>
-  <si>
-    <t>Amazon : brassard course</t>
-  </si>
-  <si>
-    <t>Remboursement : Aurélien logement New York; NY.19.10</t>
-  </si>
-  <si>
-    <t>housing:hotel</t>
-  </si>
-  <si>
-    <t>Busbud : bus aller retour NewYork; NY.19.10</t>
-  </si>
-  <si>
-    <t>transport:bus</t>
-  </si>
-  <si>
-    <t>Sport Experts : sac course</t>
-  </si>
-  <si>
-    <t>RAMQ</t>
-  </si>
-  <si>
-    <t>health:insurance</t>
-  </si>
-  <si>
-    <t>Sport Experts : gourde</t>
-  </si>
-  <si>
-    <t>Métro courses</t>
-  </si>
-  <si>
-    <t>Remboursement Aymeric Cuba vol + hotel inclus; cuba.19.10</t>
   </si>
   <si>
     <t>CUBA.19.10</t>
@@ -1273,7 +1243,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1258,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1274,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1289,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614466693" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1376,7 +1346,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693"/>
+          <pm:border xmlns:pm="smNativeData" id="1614501811"/>
         </ext>
       </extLst>
     </border>
@@ -1395,7 +1365,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1416,7 +1386,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1438,7 +1408,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1459,7 +1429,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1480,7 +1450,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1502,7 +1472,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1525,7 +1495,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1547,7 +1517,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614466693">
+          <pm:border xmlns:pm="smNativeData" id="1614501811">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1628,10 +1598,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614466693" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614501811" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614466693" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614501811" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1945,49 +1915,19 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>246.550000000000011</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="24" t="n">
-        <v>43678</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>545.230000000000018</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="24" t="n">
-        <v>43681</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
@@ -1995,19 +1935,7 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <f>75+60</f>
-        <v>135</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="24" t="n">
-        <v>43683</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
@@ -2015,18 +1943,7 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>43687</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
@@ -2034,83 +1951,36 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="24" t="n">
-        <v>43692</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="24" t="n">
-        <v>43694</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="24" t="n">
-        <v>43699</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>22</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="n">
@@ -2121,10 +1991,10 @@
         <v>10.3399999999999999</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2136,10 +2006,10 @@
         <v>6.61000000000000032</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2151,10 +2021,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2166,13 +2036,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E15" s="24" t="n">
         <v>43700</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2184,10 +2054,10 @@
         <v>183.789999999999992</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2199,10 +2069,10 @@
         <v>102.590000000000003</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2214,10 +2084,10 @@
         <v>17.1900000000000013</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2229,10 +2099,10 @@
         <v>39.3599999999999994</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2244,10 +2114,10 @@
         <v>68.9599999999999937</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2259,7 +2129,7 @@
         <v>8.75</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>22</v>
@@ -2274,10 +2144,10 @@
         <v>6.71999999999999975</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2289,10 +2159,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2304,10 +2174,10 @@
         <v>8.25</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2319,13 +2189,13 @@
         <v>20.6600000000000001</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E25" s="24" t="n">
         <v>43701</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2337,10 +2207,10 @@
         <v>30.1700000000000017</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2352,10 +2222,10 @@
         <v>18.370000000000001</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2367,7 +2237,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>22</v>
@@ -2382,10 +2252,10 @@
         <v>11.0999999999999996</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2397,10 +2267,10 @@
         <v>60.2199999999999989</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2412,10 +2282,10 @@
         <v>8.25</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2427,13 +2297,13 @@
         <v>20</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E32" s="24" t="n">
         <v>43702</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2445,10 +2315,10 @@
         <v>49.1799999999999997</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2460,7 +2330,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E34" s="24" t="n">
         <v>43703</v>
@@ -2478,10 +2348,10 @@
         <v>14.25</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2493,10 +2363,10 @@
         <v>22.4200000000000017</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2508,10 +2378,10 @@
         <v>10.5800000000000001</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2523,10 +2393,10 @@
         <v>197.740000000000009</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2538,13 +2408,13 @@
         <v>25.25</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E39" s="24" t="n">
         <v>43704</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2556,10 +2426,10 @@
         <v>6.33000000000000007</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2571,7 +2441,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>22</v>
@@ -2586,10 +2456,10 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2601,13 +2471,13 @@
         <v>47.5300000000000011</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E43" s="24" t="n">
         <v>43705</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2619,10 +2489,10 @@
         <v>357.860000000000014</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2634,10 +2504,10 @@
         <v>41.8100000000000023</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2649,10 +2519,10 @@
         <v>10</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2664,7 +2534,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E47" s="24" t="n">
         <v>43706</v>
@@ -2682,7 +2552,7 @@
         <v>18.2399999999999984</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2694,7 +2564,7 @@
         <v>16.1999999999999993</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2706,7 +2576,7 @@
         <v>3.43999999999999995</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2718,7 +2588,7 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2730,7 +2600,7 @@
         <v>51.4399999999999977</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2742,7 +2612,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2754,7 +2624,7 @@
         <v>11.0500000000000007</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E54" s="24" t="n">
         <v>43707</v>
@@ -2769,7 +2639,7 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2781,7 +2651,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2793,7 +2663,7 @@
         <v>14.8300000000000001</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2805,7 +2675,7 @@
         <v>42.1099999999999994</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E58" s="24" t="n">
         <v>43708</v>
@@ -2820,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2840,13 +2710,13 @@
         <v>7</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E61" s="24" t="n">
         <v>43711</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2858,10 +2728,10 @@
         <v>57.5700000000000003</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2881,13 +2751,13 @@
         <v>59.8999999999999986</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E64" s="24" t="n">
         <v>43713</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2907,13 +2777,13 @@
         <v>147.060000000000002</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E66" s="24" t="n">
         <v>43714</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2925,10 +2795,10 @@
         <v>10.4499999999999993</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2940,10 +2810,10 @@
         <v>10.0099999999999998</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2955,7 +2825,7 @@
         <v>168</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2975,13 +2845,13 @@
         <v>20.4699999999999989</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E71" s="24" t="n">
         <v>43715</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3001,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E73" s="24" t="n">
         <v>43716</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3019,10 +2889,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3042,13 +2912,13 @@
         <v>20</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E76" s="24" t="n">
         <v>43717</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3068,10 +2938,10 @@
         <v>9.25</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3091,7 +2961,7 @@
         <v>55.8999999999999986</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E80" s="24" t="n">
         <v>43719</v>
@@ -3106,7 +2976,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3118,7 +2988,7 @@
         <v>16.5</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3130,7 +3000,7 @@
         <v>60</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3150,7 +3020,7 @@
         <v>60.8299999999999983</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E85" s="24" t="n">
         <v>43720</v>
@@ -3173,13 +3043,13 @@
         <v>31.0399999999999991</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E87" s="24" t="n">
         <v>43721</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3191,10 +3061,10 @@
         <v>60.3400000000000034</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3206,10 +3076,10 @@
         <v>26.4200000000000017</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3221,10 +3091,10 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3236,10 +3106,10 @@
         <v>42.9699999999999989</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3251,10 +3121,10 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3266,10 +3136,10 @@
         <v>13.9199999999999999</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3289,13 +3159,13 @@
         <v>26</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E95" s="24" t="n">
         <v>43723</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3307,10 +3177,10 @@
         <v>23</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3330,13 +3200,13 @@
         <v>1080</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E98" s="24" t="n">
         <v>43725</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3348,10 +3218,10 @@
         <v>32</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3371,13 +3241,13 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E101" s="24" t="n">
         <v>43726</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3397,13 +3267,13 @@
         <v>24.7399999999999984</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E103" s="24" t="n">
         <v>43727</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3423,13 +3293,13 @@
         <v>35.25</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E105" s="24" t="n">
         <v>43728</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3441,10 +3311,10 @@
         <v>5.58999999999999986</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3456,10 +3326,10 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3471,10 +3341,10 @@
         <v>13.8000000000000007</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3486,10 +3356,10 @@
         <v>25</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3509,13 +3379,13 @@
         <v>6.90000000000000036</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E111" s="24" t="n">
         <v>43729</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3527,10 +3397,10 @@
         <v>12.1500000000000004</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3550,13 +3420,13 @@
         <v>10.3399999999999999</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E114" s="24" t="n">
         <v>43731</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3568,10 +3438,10 @@
         <v>28.629999999999999</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3583,10 +3453,10 @@
         <v>28.7399999999999984</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3598,10 +3468,10 @@
         <v>59.7100000000000009</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3613,10 +3483,10 @@
         <v>27.879999999999999</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3633,13 +3503,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E120" s="24" t="n">
         <v>43733</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3650,10 +3520,10 @@
         <v>91</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3664,10 +3534,10 @@
         <v>-600</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3678,10 +3548,10 @@
         <v>-91</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3701,13 +3571,13 @@
         <v>35.0200000000000031</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E125" s="24" t="n">
         <v>43734</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3719,10 +3589,10 @@
         <v>12.9499999999999993</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3734,10 +3604,10 @@
         <v>23.6799999999999997</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3749,11 +3619,11 @@
         <v>3.04000000000000004</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3765,10 +3635,10 @@
         <v>70.0900000000000034</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3788,13 +3658,13 @@
         <v>20</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E131" s="24" t="n">
         <v>43735</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3814,13 +3684,13 @@
         <v>13.4700000000000006</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E133" s="24" t="n">
         <v>43737</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3840,13 +3710,13 @@
         <v>41.3599999999999994</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E135" s="24" t="n">
         <v>43738</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -3858,13 +3728,13 @@
         <v>14</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I136" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3890,13 +3760,13 @@
         <v>6.38999999999999968</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E139" s="24" t="n">
         <v>43741</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3908,10 +3778,10 @@
         <v>160.689999999999998</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3931,13 +3801,13 @@
         <v>53.240000000000002</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E142" s="24" t="n">
         <v>43742</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3949,10 +3819,10 @@
         <v>9</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3972,13 +3842,13 @@
         <v>3</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E145" s="24" t="n">
         <v>43743</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3990,10 +3860,10 @@
         <v>42.2100000000000009</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4013,13 +3883,13 @@
         <v>25</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E148" s="24" t="n">
         <v>43747</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4039,13 +3909,13 @@
         <v>22</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E150" s="24" t="n">
         <v>43748</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4056,13 +3926,13 @@
         <v>222.300000000000011</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G151" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I151" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4073,13 +3943,13 @@
         <v>189.360000000000014</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I152" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4090,10 +3960,10 @@
         <v>4.71999999999999975</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -4111,13 +3981,13 @@
         <v>57.4799999999999969</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E155" s="24" t="n">
         <v>43749</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4129,10 +3999,10 @@
         <v>40.3100000000000023</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4143,10 +4013,10 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4157,10 +4027,10 @@
         <v>7.11000000000000032</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4180,13 +4050,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E160" s="24" t="n">
         <v>43750</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4206,13 +4076,13 @@
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E162" s="24" t="n">
         <v>43751</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4232,13 +4102,13 @@
         <v>29.9899999999999984</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E164" s="24" t="n">
         <v>43752</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -4249,13 +4119,13 @@
         <v>530.75</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="I165" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4273,13 +4143,13 @@
         <v>7</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E167" s="24" t="n">
         <v>43754</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4291,10 +4161,10 @@
         <v>20</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4312,16 +4182,16 @@
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E170" s="24" t="n">
         <v>43756</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I170" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -4332,13 +4202,13 @@
         <v>11.1600000000000001</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I171" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -4349,13 +4219,13 @@
         <v>9.25999999999999979</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I172" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -4366,13 +4236,13 @@
         <v>5.41999999999999993</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I173" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4391,16 +4261,16 @@
         <v>38.2000000000000028</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E175" s="24" t="n">
         <v>43757</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I175" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -4411,13 +4281,13 @@
         <v>67.5400000000000063</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G176" s="20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I176" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -4428,13 +4298,13 @@
         <v>9.48000000000000043</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I177" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -4445,13 +4315,13 @@
         <v>5.40000000000000036</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I178" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -4462,13 +4332,13 @@
         <v>18.25</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I179" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4488,16 +4358,16 @@
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="13" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E181" s="24" t="n">
         <v>43758</v>
       </c>
       <c r="G181" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I181" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -4508,13 +4378,13 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I182" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -4525,13 +4395,13 @@
         <v>12.8000000000000007</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I183" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4551,16 +4421,16 @@
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E185" s="24" t="n">
         <v>43759</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I185" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -4571,13 +4441,13 @@
         <v>15</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I186" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4606,10 +4476,10 @@
         <v>43.4399999999999977</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4629,13 +4499,13 @@
         <v>27.5100000000000016</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E191" s="24" t="n">
         <v>43761</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4647,10 +4517,10 @@
         <v>43.5200000000000031</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4670,13 +4540,13 @@
         <v>4.79999999999999982</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E194" s="24" t="n">
         <v>43763</v>
       </c>
       <c r="G194" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4688,10 +4558,10 @@
         <v>48.2700000000000031</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4715,13 +4585,13 @@
         <v>8.67999999999999794</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E198" s="24" t="n">
         <v>43765</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -4737,16 +4607,16 @@
         <v>22</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E200" s="24" t="n">
         <v>43766</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I200" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="201" spans="1:1">
@@ -4781,16 +4651,16 @@
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="13" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E205" s="24" t="n">
         <v>43768</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I205" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4810,16 +4680,16 @@
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="13" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E207" s="24" t="n">
         <v>43769</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="I207" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4839,16 +4709,16 @@
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E209" s="24" t="n">
         <v>43770</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I209" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4868,16 +4738,16 @@
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="13" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E211" s="24" t="n">
         <v>43773</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I211" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4897,13 +4767,13 @@
         <v>30.2300000000000004</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E213" s="24" t="n">
         <v>43774</v>
       </c>
       <c r="G213" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -4914,10 +4784,10 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G214" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4937,13 +4807,13 @@
         <v>126.400000000000006</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E216" s="24" t="n">
         <v>43775</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -4955,10 +4825,10 @@
         <v>13.2699999999999996</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4978,13 +4848,13 @@
         <v>79.1700000000000017</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E219" s="24" t="n">
         <v>43777</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5004,13 +4874,13 @@
         <v>44.0499999999999972</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E221" s="24" t="n">
         <v>43778</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5030,13 +4900,13 @@
         <v>93.1299999999999955</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E223" s="24" t="n">
         <v>43784</v>
       </c>
       <c r="G223" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5048,10 +4918,10 @@
         <v>53.9799999999999969</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5063,10 +4933,10 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5078,10 +4948,10 @@
         <v>2.29999999999999982</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5101,13 +4971,13 @@
         <v>29.129999999999999</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E228" s="24" t="n">
         <v>43785</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5119,10 +4989,10 @@
         <v>61.1000000000000014</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G229" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5142,13 +5012,13 @@
         <v>80</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E231" s="24" t="n">
         <v>43786</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5160,10 +5030,10 @@
         <v>140</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G232" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5175,10 +5045,10 @@
         <v>33.3500000000000014</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G233" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5198,16 +5068,16 @@
         <v>37</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E235" s="24" t="n">
         <v>43791</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I235" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -5219,13 +5089,13 @@
         <v>25.0100000000000016</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="G236" s="20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I236" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -5237,13 +5107,13 @@
         <v>-37</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G237" s="20" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="I237" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -5255,13 +5125,13 @@
         <v>105</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I238" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5281,13 +5151,13 @@
         <v>80.6400000000000006</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E240" s="24" t="n">
         <v>43797</v>
       </c>
       <c r="G240" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5299,10 +5169,10 @@
         <v>16</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G241" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5313,10 +5183,10 @@
         <v>30</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G242" s="20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5328,10 +5198,10 @@
         <v>24</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5343,10 +5213,10 @@
         <v>35</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G244" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5366,13 +5236,13 @@
         <v>17.25</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E246" s="24" t="n">
         <v>43798</v>
       </c>
       <c r="G246" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5384,10 +5254,10 @@
         <v>29.1600000000000001</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5413,13 +5283,13 @@
         <v>190.849999999999994</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E250" s="24" t="n">
         <v>43800</v>
       </c>
       <c r="G250" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5439,13 +5309,13 @@
         <v>10</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E252" s="24" t="n">
         <v>43802</v>
       </c>
       <c r="G252" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5457,10 +5327,10 @@
         <v>15</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5480,13 +5350,13 @@
         <v>109.060000000000002</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E255" s="24" t="n">
         <v>43804</v>
       </c>
       <c r="G255" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5498,10 +5368,10 @@
         <v>-30</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5513,10 +5383,10 @@
         <v>124.489999999999995</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G257" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5536,13 +5406,13 @@
         <v>95.0100000000000051</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E259" s="24" t="n">
         <v>43808</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5562,13 +5432,13 @@
         <v>13.25</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E261" s="24" t="n">
         <v>43809</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5586,13 +5456,13 @@
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="13" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E263" s="24" t="n">
         <v>43811</v>
       </c>
       <c r="G263" s="20" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -5604,10 +5474,10 @@
         <v>5</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -5619,10 +5489,10 @@
         <v>20</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5640,13 +5510,13 @@
         <v>11.4199999999999999</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E267" s="24" t="n">
         <v>43814</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -5658,10 +5528,10 @@
         <v>11.5</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5679,13 +5549,13 @@
         <v>5.45999999999999996</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E270" s="24" t="n">
         <v>43815</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -5697,10 +5567,10 @@
         <v>60.1700000000000017</v>
       </c>
       <c r="D271" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -5712,10 +5582,10 @@
         <v>21.620000000000001</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -5727,10 +5597,10 @@
         <v>-10</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5748,13 +5618,13 @@
         <v>40</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E275" s="24" t="n">
         <v>43816</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5772,13 +5642,13 @@
         <v>73.5900000000000034</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E277" s="24" t="n">
         <v>43817</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5796,13 +5666,13 @@
         <v>25.75</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E279" s="24" t="n">
         <v>43818</v>
       </c>
       <c r="G279" s="20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -5814,10 +5684,10 @@
         <v>-12</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G280" s="20" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -5829,10 +5699,10 @@
         <v>227.629999999999995</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G281" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5850,13 +5720,13 @@
         <v>39.0700000000000003</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E283" s="24" t="n">
         <v>43821</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -5868,10 +5738,10 @@
         <v>39.6700000000000017</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -5883,10 +5753,10 @@
         <v>114.680000000000007</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -5898,13 +5768,13 @@
         <v>-114</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="H286" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -5916,10 +5786,10 @@
         <v>-39</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G287" s="20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5937,13 +5807,13 @@
         <v>1080</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E289" s="24" t="n">
         <v>43824</v>
       </c>
       <c r="G289" s="20" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -5955,10 +5825,10 @@
         <v>-185.849999999999994</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G290" s="20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -5970,10 +5840,10 @@
         <v>65.5400000000000063</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5993,13 +5863,13 @@
         <v>12.75</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E293" s="24" t="n">
         <v>43825</v>
       </c>
       <c r="G293" s="20" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -6011,10 +5881,10 @@
         <v>57.9200000000000017</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -6026,10 +5896,10 @@
         <v>9</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -6041,10 +5911,10 @@
         <v>33.4699999999999989</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -6062,13 +5932,13 @@
         <v>45.3800000000000026</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E298" s="24" t="n">
         <v>43830</v>
       </c>
       <c r="G298" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -6079,10 +5949,10 @@
         <v>-24</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G299" s="20" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6102,13 +5972,13 @@
         <v>20</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E301" s="24" t="n">
         <v>43831</v>
       </c>
       <c r="G301" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -6129,13 +5999,13 @@
         <v>51.2899999999999991</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E303" s="24" t="n">
         <v>43835</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6153,13 +6023,13 @@
         <v>22.2800000000000011</v>
       </c>
       <c r="D305" s="13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E305" s="24" t="n">
         <v>43838</v>
       </c>
       <c r="G305" s="21" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6178,13 +6048,13 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E307" s="24" t="n">
         <v>43839</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6196,11 +6066,11 @@
         <v>6.70000000000000018</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E308" s="31"/>
       <c r="G308" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6219,13 +6089,13 @@
         <v>58.1300000000000026</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E310" s="24" t="n">
         <v>43840</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6243,16 +6113,16 @@
         <v>20</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E312" s="24" t="n">
         <v>43841</v>
       </c>
       <c r="G312" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H312" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6270,13 +6140,13 @@
         <v>63.1400000000000006</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E314" s="24" t="n">
         <v>43844</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6294,16 +6164,16 @@
         <v>7.20000000000000018</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E316" s="24" t="n">
         <v>43845</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H316" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -6315,10 +6185,10 @@
         <v>54.8299999999999983</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6336,16 +6206,16 @@
         <v>547</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E319" s="24" t="n">
         <v>43846</v>
       </c>
       <c r="G319" s="20" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="I319" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -6357,10 +6227,10 @@
         <v>6.09999999999999964</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G320" s="20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6378,13 +6248,13 @@
         <v>16.9400000000000013</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E322" s="24" t="n">
         <v>43848</v>
       </c>
       <c r="G322" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6402,13 +6272,13 @@
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="13" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E324" s="24" t="n">
         <v>43850</v>
       </c>
       <c r="G324" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -6420,10 +6290,10 @@
         <v>147</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G325" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -6441,13 +6311,13 @@
         <v>9</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E327" s="24" t="n">
         <v>43855</v>
       </c>
       <c r="G327" s="20" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -6459,10 +6329,10 @@
         <v>20</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G328" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6480,13 +6350,13 @@
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E330" s="24" t="n">
         <v>43856</v>
       </c>
       <c r="G330" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -6498,10 +6368,10 @@
         <v>88.9599999999999937</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G331" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -6513,10 +6383,10 @@
         <v>174.69999999999996</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G332" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6534,13 +6404,13 @@
         <v>12</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E334" s="24" t="n">
         <v>43859</v>
       </c>
       <c r="G334" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6558,13 +6428,13 @@
         <v>9.25</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E336" s="24" t="n">
         <v>43860</v>
       </c>
       <c r="G336" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -6576,10 +6446,10 @@
         <v>3.79000000000000004</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G337" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6597,7 +6467,7 @@
         <v>9.47000000000000064</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E339" s="24" t="n">
         <v>43863</v>
@@ -6612,7 +6482,7 @@
         <v>13.7899999999999991</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6630,7 +6500,7 @@
         <v>11.75</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E342" s="24" t="n">
         <v>43864</v>
@@ -6651,7 +6521,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E344" s="24" t="n">
         <v>43865</v>
@@ -6672,13 +6542,13 @@
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="13" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E346" s="24" t="n">
         <v>43866</v>
       </c>
       <c r="G346" s="20" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6696,16 +6566,16 @@
         <v>16</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E348" s="24" t="n">
         <v>43867</v>
       </c>
       <c r="G348" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I348" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -6716,13 +6586,13 @@
         <v>20</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G349" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I349" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -6733,13 +6603,13 @@
         <v>9.58999999999999986</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G350" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I350" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6757,16 +6627,16 @@
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="13" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E352" s="24" t="n">
         <v>43868</v>
       </c>
       <c r="G352" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I352" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -6777,13 +6647,13 @@
         <v>9.69999999999999929</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G353" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I353" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6801,16 +6671,16 @@
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E355" s="24" t="n">
         <v>43869</v>
       </c>
       <c r="G355" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I355" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6828,16 +6698,16 @@
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="13" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="E357" s="24" t="n">
         <v>43870</v>
       </c>
       <c r="G357" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I357" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -6848,13 +6718,13 @@
         <v>3.5</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G358" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I358" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6872,16 +6742,16 @@
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="13" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E360" s="24" t="n">
         <v>43871</v>
       </c>
       <c r="G360" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I360" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6899,13 +6769,13 @@
         <v>10</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E362" s="24" t="n">
         <v>43873</v>
       </c>
       <c r="G362" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6923,13 +6793,13 @@
         <v>4</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E364" s="24" t="n">
         <v>43874</v>
       </c>
       <c r="G364" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6947,13 +6817,13 @@
         <v>102.959999999999994</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E366" s="24" t="n">
         <v>43875</v>
       </c>
       <c r="G366" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6971,13 +6841,13 @@
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="13" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E368" s="24" t="n">
         <v>43876</v>
       </c>
       <c r="G368" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -6989,10 +6859,10 @@
         <v>116</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -7010,13 +6880,13 @@
         <v>32.8400000000000034</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E371" s="24" t="n">
         <v>43878</v>
       </c>
       <c r="G371" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -7034,13 +6904,13 @@
         <v>7</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E373" s="24" t="n">
         <v>43880</v>
       </c>
       <c r="G373" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -7058,13 +6928,13 @@
         <v>14.2200000000000006</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E375" s="24" t="n">
         <v>43887</v>
       </c>
       <c r="G375" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -7076,10 +6946,10 @@
         <v>59.5499999999999972</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G376" s="20" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -7097,13 +6967,13 @@
         <v>56.1799999999999997</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E378" s="24" t="n">
         <v>43888</v>
       </c>
       <c r="G378" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -7121,13 +6991,13 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E380" s="24" t="n">
         <v>43890</v>
       </c>
       <c r="G380" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7145,13 +7015,13 @@
         <v>1080</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E382" s="24" t="n">
         <v>43891</v>
       </c>
       <c r="G382" s="20" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7169,13 +7039,13 @@
         <v>60.259999999999998</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E384" s="24" t="n">
         <v>43892</v>
       </c>
       <c r="G384" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -7187,10 +7057,10 @@
         <v>41.8999999999999986</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G385" s="20" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -7202,10 +7072,10 @@
         <v>40</v>
       </c>
       <c r="D386" s="12" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G386" s="20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -7217,10 +7087,10 @@
         <v>1.5</v>
       </c>
       <c r="D387" s="12" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G387" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7238,16 +7108,16 @@
         <v>48.2999999999999972</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E389" s="24" t="n">
         <v>43894</v>
       </c>
       <c r="G389" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I389" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -7259,13 +7129,13 @@
         <v>44</v>
       </c>
       <c r="D390" s="12" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G390" s="20" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I390" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -7276,13 +7146,13 @@
         <v>-48</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G391" s="20" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I391" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -7294,13 +7164,13 @@
         <v>-44</v>
       </c>
       <c r="D392" s="12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G392" s="20" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I392" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7318,16 +7188,16 @@
         <v>19.5</v>
       </c>
       <c r="D394" s="13" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E394" s="24" t="n">
         <v>43895</v>
       </c>
       <c r="G394" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I394" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -7339,10 +7209,10 @@
         <v>176.719999999999999</v>
       </c>
       <c r="D395" s="12" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="I395" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -7354,13 +7224,13 @@
         <v>-176.719999999999999</v>
       </c>
       <c r="D396" s="12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G396" s="20" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I396" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -7372,16 +7242,16 @@
         <v>15.2300000000000004</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E397" s="24" t="n">
         <v>43896</v>
       </c>
       <c r="G397" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I397" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -7393,13 +7263,13 @@
         <v>6.66000000000000014</v>
       </c>
       <c r="D398" s="12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G398" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I398" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7417,16 +7287,16 @@
         <v>6</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E400" s="24" t="n">
         <v>43897</v>
       </c>
       <c r="G400" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I400" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7444,16 +7314,16 @@
         <v>82.7900000000000063</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E402" s="24" t="n">
         <v>43898</v>
       </c>
       <c r="G402" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I402" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7471,13 +7341,13 @@
         <v>32.8299999999999983</v>
       </c>
       <c r="D404" s="13" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E404" s="24" t="n">
         <v>43900</v>
       </c>
       <c r="G404" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -7489,10 +7359,10 @@
         <v>41.8400000000000034</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G405" s="20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7510,13 +7380,13 @@
         <v>8</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E407" s="24" t="n">
         <v>43901</v>
       </c>
       <c r="G407" s="20" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -7528,10 +7398,10 @@
         <v>15.4000000000000004</v>
       </c>
       <c r="D408" s="12" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G408" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -7543,10 +7413,10 @@
         <v>14.8699999999999992</v>
       </c>
       <c r="D409" s="12" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7564,16 +7434,16 @@
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="13" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E411" s="24" t="n">
         <v>43903</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="I411" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7591,16 +7461,16 @@
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="13" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E413" s="24" t="n">
         <v>43904</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I413" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -7611,13 +7481,13 @@
         <v>10.5099999999999998</v>
       </c>
       <c r="D414" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I414" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -7628,13 +7498,13 @@
         <v>10</v>
       </c>
       <c r="D415" s="12" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I415" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7652,16 +7522,16 @@
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="13" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E417" s="24" t="n">
         <v>43905</v>
       </c>
       <c r="G417" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I417" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -7672,13 +7542,13 @@
         <v>-2.5</v>
       </c>
       <c r="D418" s="12" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G418" s="20" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="I418" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -7689,13 +7559,13 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="D419" s="12" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G419" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I419" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7713,16 +7583,16 @@
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="13" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E421" s="24" t="n">
         <v>43906</v>
       </c>
       <c r="G421" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I421" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7747,16 +7617,16 @@
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="13" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E424" s="24" t="n">
         <v>43907</v>
       </c>
       <c r="G424" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I424" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -7767,13 +7637,13 @@
         <v>-20.1999999999999993</v>
       </c>
       <c r="D425" s="12" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G425" s="20" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I425" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7798,16 +7668,16 @@
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="13" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E428" s="24" t="n">
         <v>43908</v>
       </c>
       <c r="G428" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I428" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7825,13 +7695,13 @@
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="13" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E430" s="24" t="n">
         <v>43910</v>
       </c>
       <c r="G430" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7849,13 +7719,13 @@
         <v>114.109999999999999</v>
       </c>
       <c r="D432" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E432" s="24" t="n">
         <v>43912</v>
       </c>
       <c r="G432" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7874,13 +7744,13 @@
         <v>106.920000000000002</v>
       </c>
       <c r="D434" s="12" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E434" s="24" t="n">
         <v>43913</v>
       </c>
       <c r="G434" s="20" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -7891,10 +7761,10 @@
         <v>142.710000000000008</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G435" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7912,13 +7782,13 @@
         <v>35.4200000000000017</v>
       </c>
       <c r="D437" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E437" s="24" t="n">
         <v>43923</v>
       </c>
       <c r="G437" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7936,13 +7806,13 @@
         <v>121.599999999999994</v>
       </c>
       <c r="D439" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E439" s="24" t="n">
         <v>43924</v>
       </c>
       <c r="G439" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7960,13 +7830,13 @@
         <v>111.670000000000002</v>
       </c>
       <c r="D441" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E441" s="24" t="n">
         <v>43935</v>
       </c>
       <c r="G441" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7984,13 +7854,13 @@
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="13" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E443" s="24" t="n">
         <v>43938</v>
       </c>
       <c r="G443" s="20" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -8008,13 +7878,13 @@
         <v>47.3100000000000023</v>
       </c>
       <c r="D445" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E445" s="24" t="n">
         <v>43939</v>
       </c>
       <c r="G445" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -8032,13 +7902,13 @@
         <v>65.3499999999999943</v>
       </c>
       <c r="D447" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E447" s="24" t="n">
         <v>43948</v>
       </c>
       <c r="G447" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -8050,10 +7920,10 @@
         <v>44.0799999999999983</v>
       </c>
       <c r="D448" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G448" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8072,13 +7942,13 @@
         <v>75.6599999999999824</v>
       </c>
       <c r="D450" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E450" s="24" t="n">
         <v>43958</v>
       </c>
       <c r="G450" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="451" spans="1:1">
@@ -8094,13 +7964,13 @@
         <v>185</v>
       </c>
       <c r="D452" s="12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E452" s="24" t="n">
         <v>43960</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="453" spans="1:1">
@@ -8116,13 +7986,13 @@
         <v>51.5399999999999991</v>
       </c>
       <c r="D454" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E454" s="24" t="n">
         <v>43964</v>
       </c>
       <c r="G454" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -8138,13 +8008,13 @@
         <v>38.490000000000002</v>
       </c>
       <c r="D456" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E456" s="24" t="n">
         <v>43966</v>
       </c>
       <c r="G456" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -8155,10 +8025,10 @@
         <v>10</v>
       </c>
       <c r="D457" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G457" s="20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="458" spans="1:1">
@@ -8174,13 +8044,13 @@
         <v>12.5</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E459" s="24" t="n">
         <v>43967</v>
       </c>
       <c r="G459" s="20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="460" spans="1:1">
@@ -8196,13 +8066,13 @@
         <v>68.519999999999996</v>
       </c>
       <c r="D461" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E461" s="24" t="n">
         <v>43971</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="462" spans="1:1">
@@ -8218,13 +8088,13 @@
         <v>117.810000000000002</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E463" s="24" t="n">
         <v>43973</v>
       </c>
       <c r="G463" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="464" spans="1:1">
@@ -8240,13 +8110,13 @@
         <v>1.25</v>
       </c>
       <c r="D465" s="12" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E465" s="24" t="n">
         <v>43979</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -8257,10 +8127,10 @@
         <v>76.5100000000000051</v>
       </c>
       <c r="D466" s="12" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G466" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -8271,10 +8141,10 @@
         <v>30.3000000000000007</v>
       </c>
       <c r="D467" s="12" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="468" spans="1:1">
@@ -8290,13 +8160,13 @@
         <v>55.0399999999999991</v>
       </c>
       <c r="D469" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E469" s="24" t="n">
         <v>43984</v>
       </c>
       <c r="G469" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="470" spans="1:1">
@@ -8312,13 +8182,13 @@
         <v>5</v>
       </c>
       <c r="D471" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E471" s="24" t="n">
         <v>43985</v>
       </c>
       <c r="G471" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -8329,10 +8199,10 @@
         <v>100.709999999999994</v>
       </c>
       <c r="D472" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -8343,10 +8213,10 @@
         <v>7.90000000000000036</v>
       </c>
       <c r="D473" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G473" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="474" spans="1:1">
@@ -8362,13 +8232,13 @@
         <v>90</v>
       </c>
       <c r="D475" s="12" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E475" s="24" t="n">
         <v>43986</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="476" spans="1:1">
@@ -8384,13 +8254,13 @@
         <v>360</v>
       </c>
       <c r="D477" s="12" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E477" s="24" t="n">
         <v>43987</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
     </row>
     <row r="478" spans="1:1">
@@ -8406,7 +8276,7 @@
         <v>83.4699999999999989</v>
       </c>
       <c r="D479" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E479" s="24" t="n">
         <v>43990</v>
@@ -8425,13 +8295,13 @@
         <v>220</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E481" s="24" t="n">
         <v>43992</v>
       </c>
       <c r="G481" s="20" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="482" spans="1:1">
@@ -8447,7 +8317,7 @@
         <v>20</v>
       </c>
       <c r="D483" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E483" s="24" t="n">
         <v>43994</v>
@@ -8461,10 +8331,10 @@
         <v>7.59999999999999876</v>
       </c>
       <c r="D484" s="12" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G484" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -8480,7 +8350,7 @@
         <v>94.6899999999999977</v>
       </c>
       <c r="D486" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E486" s="24" t="n">
         <v>43995</v>
@@ -8499,7 +8369,7 @@
         <v>20</v>
       </c>
       <c r="D488" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E488" s="24" t="n">
         <v>43996</v>
@@ -8518,13 +8388,13 @@
         <v>33.2800000000000011</v>
       </c>
       <c r="D490" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E490" s="24" t="n">
         <v>43997</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -8540,13 +8410,13 @@
         <v>24.6000000000000014</v>
       </c>
       <c r="D492" s="12" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="E492" s="24" t="n">
         <v>43998</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -8557,10 +8427,10 @@
         <v>41.3900000000000006</v>
       </c>
       <c r="D493" s="12" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G493" s="20" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="494" spans="1:1">
@@ -8576,13 +8446,13 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D495" s="12" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E495" s="24" t="n">
         <v>43999</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -8598,7 +8468,7 @@
         <v>74.3599999999999994</v>
       </c>
       <c r="D497" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E497" s="24" t="n">
         <v>44000</v>
@@ -8617,13 +8487,13 @@
         <v>23.4100000000000001</v>
       </c>
       <c r="D499" s="12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E499" s="24" t="n">
         <v>44004</v>
       </c>
       <c r="G499" s="20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -8634,10 +8504,10 @@
         <v>10.1999999999999993</v>
       </c>
       <c r="D500" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G500" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -8653,7 +8523,7 @@
         <v>37.0900000000000034</v>
       </c>
       <c r="D502" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E502" s="24" t="n">
         <v>44008</v>
@@ -8667,10 +8537,10 @@
         <v>95.019999999999996</v>
       </c>
       <c r="D503" s="12" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G503" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="504" spans="1:1">
@@ -8686,13 +8556,13 @@
         <v>20.7399999999999984</v>
       </c>
       <c r="D505" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E505" s="24" t="n">
         <v>44013</v>
       </c>
       <c r="G505" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="506" spans="1:1">
@@ -8708,13 +8578,13 @@
         <v>9</v>
       </c>
       <c r="D507" s="12" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E507" s="24" t="n">
         <v>44015</v>
       </c>
       <c r="G507" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="508" spans="1:1">
@@ -8730,13 +8600,13 @@
         <v>7.88999999999999879</v>
       </c>
       <c r="D509" s="12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E509" s="24" t="n">
         <v>44016</v>
       </c>
       <c r="G509" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8747,7 +8617,7 @@
         <v>49.7800000000000011</v>
       </c>
       <c r="D510" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="511" spans="1:1">
@@ -8763,13 +8633,13 @@
         <v>42.5200000000000031</v>
       </c>
       <c r="D512" s="12" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E512" s="24" t="n">
         <v>44019</v>
       </c>
       <c r="G512" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -8780,10 +8650,10 @@
         <v>49.0300000000000011</v>
       </c>
       <c r="D513" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G513" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="514" spans="1:1">
@@ -8799,13 +8669,13 @@
         <v>23.2100000000000009</v>
       </c>
       <c r="D515" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E515" s="24" t="n">
         <v>44020</v>
       </c>
       <c r="G515" s="20" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -8816,10 +8686,10 @@
         <v>67.0300000000000011</v>
       </c>
       <c r="D516" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G516" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -8830,10 +8700,10 @@
         <v>110</v>
       </c>
       <c r="D517" s="12" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G517" s="20" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -8849,7 +8719,7 @@
         <v>1120</v>
       </c>
       <c r="D519" s="12" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E519" s="24" t="n">
         <v>44022</v>
@@ -8863,10 +8733,10 @@
         <v>24.8000000000000007</v>
       </c>
       <c r="D520" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G520" s="20" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -8877,10 +8747,10 @@
         <v>48.6899999999999977</v>
       </c>
       <c r="D521" s="12" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G521" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -8891,10 +8761,10 @@
         <v>8.40000000000000036</v>
       </c>
       <c r="D522" s="12" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G522" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -8905,10 +8775,10 @@
         <v>40.2299999999999969</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G523" s="20" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="524" spans="1:1">
@@ -8924,13 +8794,13 @@
         <v>14.1199999999999992</v>
       </c>
       <c r="D525" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E525" s="24" t="n">
         <v>44026</v>
       </c>
       <c r="G525" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="526" spans="1:1">
@@ -8946,13 +8816,13 @@
         <v>28.3599999999999994</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E527" s="24" t="n">
         <v>44027</v>
       </c>
       <c r="G527" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="528" spans="1:1">
@@ -8968,13 +8838,13 @@
         <v>43.6700000000000017</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E529" s="24" t="n">
         <v>44028</v>
       </c>
       <c r="G529" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -8985,10 +8855,10 @@
         <v>48.8500000000000014</v>
       </c>
       <c r="D530" s="12" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G530" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -8999,10 +8869,10 @@
         <v>37.75</v>
       </c>
       <c r="D531" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G531" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -9018,13 +8888,13 @@
         <v>28.7300000000000004</v>
       </c>
       <c r="D533" s="12" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E533" s="24" t="n">
         <v>44031</v>
       </c>
       <c r="G533" s="20" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -9035,10 +8905,10 @@
         <v>34.4799999999999969</v>
       </c>
       <c r="D534" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G534" s="20" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -9049,10 +8919,10 @@
         <v>17.25</v>
       </c>
       <c r="D535" s="12" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G535" s="20" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -9068,13 +8938,13 @@
         <v>270.399999999999977</v>
       </c>
       <c r="D537" s="12" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E537" s="24" t="n">
         <v>44032</v>
       </c>
       <c r="G537" s="20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -9085,7 +8955,7 @@
         <v>44.6499999999999986</v>
       </c>
       <c r="D538" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -9096,10 +8966,10 @@
         <v>11</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G539" s="20" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="540" spans="1:1">
@@ -9115,13 +8985,13 @@
         <v>56.4200000000000017</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E541" s="24" t="n">
         <v>44033</v>
       </c>
       <c r="G541" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -9132,7 +9002,7 @@
         <v>20.5399999999999991</v>
       </c>
       <c r="D542" s="12" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -9148,13 +9018,13 @@
         <v>33.7000000000000028</v>
       </c>
       <c r="D544" s="12" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E544" s="24" t="n">
         <v>44034</v>
       </c>
       <c r="G544" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="545" spans="1:1">
@@ -9170,7 +9040,7 @@
         <v>30.3599999999999994</v>
       </c>
       <c r="D546" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E546" s="24" t="n">
         <v>44036</v>
@@ -9189,13 +9059,13 @@
         <v>6.83999999999999986</v>
       </c>
       <c r="D548" s="12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E548" s="24" t="n">
         <v>44037</v>
       </c>
       <c r="G548" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -9211,13 +9081,13 @@
         <v>1560</v>
       </c>
       <c r="D550" s="12" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E550" s="24" t="n">
         <v>44040</v>
       </c>
       <c r="G550" s="20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="551" spans="1:1">
@@ -9233,13 +9103,13 @@
         <v>19.0500000000000007</v>
       </c>
       <c r="D552" s="12" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E552" s="24" t="n">
         <v>44041</v>
       </c>
       <c r="G552" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -9250,10 +9120,10 @@
         <v>17.7699999999999996</v>
       </c>
       <c r="D553" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G553" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -9264,10 +9134,10 @@
         <v>26.6900000000000013</v>
       </c>
       <c r="D554" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G554" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -9278,10 +9148,10 @@
         <v>18</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G555" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -9292,10 +9162,10 @@
         <v>38.25</v>
       </c>
       <c r="D556" s="12" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G556" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -9306,13 +9176,13 @@
         <v>1575</v>
       </c>
       <c r="D557" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G557" s="20" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H557" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="558" spans="1:1">
@@ -9328,13 +9198,13 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D559" s="12" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E559" s="24" t="n">
         <v>44042</v>
       </c>
       <c r="G559" s="20" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -9345,10 +9215,10 @@
         <v>92.019999999999996</v>
       </c>
       <c r="D560" s="12" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="G560" s="20" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -9359,10 +9229,10 @@
         <v>100</v>
       </c>
       <c r="D561" s="12" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G561" s="20" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="562" spans="1:1">
@@ -9375,17 +9245,17 @@
         <v>562</v>
       </c>
       <c r="C563" s="22" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D563" s="23" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E563" s="28" t="n">
         <v>44046</v>
       </c>
       <c r="F563" s="23"/>
       <c r="G563" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -9393,15 +9263,15 @@
         <v>563</v>
       </c>
       <c r="C564" s="22" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D564" s="23" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E564" s="27"/>
       <c r="F564" s="23"/>
       <c r="G564" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -9412,7 +9282,7 @@
         <v>10</v>
       </c>
       <c r="D565" s="23" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E565" s="27"/>
       <c r="F565" s="23"/>
@@ -9436,14 +9306,14 @@
         <v>10</v>
       </c>
       <c r="D567" s="23" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E567" s="26" t="n">
         <v>44050</v>
       </c>
       <c r="F567" s="23"/>
       <c r="G567" s="23" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -9461,17 +9331,17 @@
         <v>568</v>
       </c>
       <c r="C569" s="22" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="D569" s="23" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E569" s="26" t="n">
         <v>44051</v>
       </c>
       <c r="F569" s="23"/>
       <c r="G569" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -9492,14 +9362,14 @@
         <v>300</v>
       </c>
       <c r="D571" s="23" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="E571" s="26" t="n">
         <v>44052</v>
       </c>
       <c r="F571" s="23"/>
       <c r="G571" s="23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -9514,16 +9384,16 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D573" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E573" s="24" t="n">
         <v>44054</v>
       </c>
       <c r="G573" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -9538,16 +9408,16 @@
         <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D575" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E575" s="24" t="n">
         <v>44057</v>
       </c>
       <c r="G575" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -9562,16 +9432,16 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E577" s="24" t="n">
         <v>44059</v>
       </c>
       <c r="G577" s="20" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -9579,13 +9449,13 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D578" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G578" s="23" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="579" spans="1:1">
@@ -9601,13 +9471,13 @@
         <v>85</v>
       </c>
       <c r="D580" s="12" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="E580" s="24" t="n">
         <v>44061</v>
       </c>
       <c r="G580" s="20" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -9623,10 +9493,10 @@
         <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D582" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E582" s="29" t="n">
         <v>44063</v>
@@ -9637,10 +9507,10 @@
         <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D583" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E583"/>
     </row>
@@ -9649,10 +9519,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D584" s="12" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E584" s="24" t="n">
         <v>44065</v>
@@ -9673,10 +9543,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E587" s="24" t="n">
         <v>44068</v>
@@ -9690,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="D588" s="12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -9698,10 +9568,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E589" s="24" t="n">
         <v>44069</v>
@@ -9886,7 +9756,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614501811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9895,14 +9765,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614501811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9924,7 +9794,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614501811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9933,14 +9803,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614501811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9962,7 +9832,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614466693" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614501811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9971,14 +9841,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614466693" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614466693" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614501811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/code/data/excels/raw_copy_expenses.xlsx
+++ b/app/code/data/excels/raw_copy_expenses.xlsx
@@ -15,17 +15,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614501811" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614501811" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614501811" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614501811"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614502180" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614502180" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614502180" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614502180"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="406">
   <si>
     <t>ID</t>
   </si>
@@ -51,21 +51,66 @@
     <t>Trip</t>
   </si>
   <si>
+    <t>Campus Laval  : 1er loyer du CAMPUS LAVAL</t>
+  </si>
+  <si>
+    <t>housing:rent</t>
+  </si>
+  <si>
+    <t>Avion : billet France -&gt; Québec</t>
+  </si>
+  <si>
+    <t>transport:plane</t>
+  </si>
+  <si>
+    <t>Equipement fnac, oreiller</t>
+  </si>
+  <si>
+    <t>equipement:other</t>
+  </si>
+  <si>
+    <t>Pharmacie crème visage + dermatologue</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Mcdo</t>
+  </si>
+  <si>
+    <t>alimentary</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>Franprix</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>transport bus arrivée</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>chambre mois d'août</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
     <t>bonbon reese (test carte bleue)</t>
   </si>
   <si>
-    <t>alimentary</t>
-  </si>
-  <si>
     <t>adaptateur</t>
   </si>
   <si>
     <t>equipement</t>
   </si>
   <si>
-    <t>Mcdo</t>
-  </si>
-  <si>
     <t>Thé gingembre 1 boite</t>
   </si>
   <si>
@@ -75,15 +120,9 @@
     <t>Walmart : brosse à dents, crocks, rasoirs</t>
   </si>
   <si>
-    <t>equipement:other</t>
-  </si>
-  <si>
     <t>shampoing Ives Rocher</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>Walmart : tasse, bol, bouilloire, boule à thé, manger</t>
   </si>
   <si>
@@ -93,9 +132,6 @@
     <t>carte bus 1 jour</t>
   </si>
   <si>
-    <t>transport</t>
-  </si>
-  <si>
     <t>frappé starbuck</t>
   </si>
   <si>
@@ -315,9 +351,6 @@
     <t>Campus Laval : Payement des loyers de oct., nov. et déc.</t>
   </si>
   <si>
-    <t>housing:rent</t>
-  </si>
-  <si>
     <t>Amazon : jeu d'échec</t>
   </si>
   <si>
@@ -490,9 +523,6 @@
   </si>
   <si>
     <t>Remboursement Aymeric Cuba vol + hotel inclus; cuba.19.10</t>
-  </si>
-  <si>
-    <t>transport:plane</t>
   </si>
   <si>
     <t>CUBA.19.10</t>
@@ -1243,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1258,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1274,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1289,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614501811" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1346,7 +1376,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811"/>
+          <pm:border xmlns:pm="smNativeData" id="1614502180"/>
         </ext>
       </extLst>
     </border>
@@ -1365,7 +1395,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1386,7 +1416,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1408,7 +1438,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1429,7 +1459,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1450,7 +1480,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1472,7 +1502,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1495,7 +1525,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1517,7 +1547,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614501811">
+          <pm:border xmlns:pm="smNativeData" id="1614502180">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1598,10 +1628,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614501811" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614502180" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614501811" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1614502180" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1915,19 +1945,49 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="n">
+        <v>246.550000000000011</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="24" t="n">
+        <v>43678</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="n">
+        <v>545.230000000000018</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="24" t="n">
+        <v>43681</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
     </row>
@@ -1935,7 +1995,19 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <f>75+60</f>
+        <v>135</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>43683</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
@@ -1943,7 +2015,18 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="24" t="n">
+        <v>43687</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
@@ -1951,36 +2034,83 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>43692</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="n">
+        <v>10</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="24" t="n">
+        <v>43694</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>43699</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11"/>
+      <c r="C11" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="n">
@@ -1991,10 +2121,10 @@
         <v>10.3399999999999999</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2006,10 +2136,10 @@
         <v>6.61000000000000032</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2021,10 +2151,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2036,13 +2166,13 @@
         <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E15" s="24" t="n">
         <v>43700</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2054,10 +2184,10 @@
         <v>183.789999999999992</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2069,10 +2199,10 @@
         <v>102.590000000000003</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2084,10 +2214,10 @@
         <v>17.1900000000000013</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2099,10 +2229,10 @@
         <v>39.3599999999999994</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2114,10 +2244,10 @@
         <v>68.9599999999999937</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2129,7 +2259,7 @@
         <v>8.75</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>22</v>
@@ -2144,10 +2274,10 @@
         <v>6.71999999999999975</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2159,10 +2289,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2174,10 +2304,10 @@
         <v>8.25</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2189,13 +2319,13 @@
         <v>20.6600000000000001</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E25" s="24" t="n">
         <v>43701</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2207,10 +2337,10 @@
         <v>30.1700000000000017</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2222,10 +2352,10 @@
         <v>18.370000000000001</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2237,7 +2367,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>22</v>
@@ -2252,10 +2382,10 @@
         <v>11.0999999999999996</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2267,10 +2397,10 @@
         <v>60.2199999999999989</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2282,10 +2412,10 @@
         <v>8.25</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2297,13 +2427,13 @@
         <v>20</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E32" s="24" t="n">
         <v>43702</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2315,10 +2445,10 @@
         <v>49.1799999999999997</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2330,7 +2460,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E34" s="24" t="n">
         <v>43703</v>
@@ -2348,10 +2478,10 @@
         <v>14.25</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2363,10 +2493,10 @@
         <v>22.4200000000000017</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2378,10 +2508,10 @@
         <v>10.5800000000000001</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2393,10 +2523,10 @@
         <v>197.740000000000009</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2408,13 +2538,13 @@
         <v>25.25</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E39" s="24" t="n">
         <v>43704</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2426,10 +2556,10 @@
         <v>6.33000000000000007</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2441,7 +2571,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G41" s="20" t="s">
         <v>22</v>
@@ -2456,10 +2586,10 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2471,13 +2601,13 @@
         <v>47.5300000000000011</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E43" s="24" t="n">
         <v>43705</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2489,10 +2619,10 @@
         <v>357.860000000000014</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2504,10 +2634,10 @@
         <v>41.8100000000000023</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2519,10 +2649,10 @@
         <v>10</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2534,7 +2664,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E47" s="24" t="n">
         <v>43706</v>
@@ -2552,7 +2682,7 @@
         <v>18.2399999999999984</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2564,7 +2694,7 @@
         <v>16.1999999999999993</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2576,7 +2706,7 @@
         <v>3.43999999999999995</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2588,7 +2718,7 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2600,7 +2730,7 @@
         <v>51.4399999999999977</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2612,7 +2742,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2624,7 +2754,7 @@
         <v>11.0500000000000007</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E54" s="24" t="n">
         <v>43707</v>
@@ -2639,7 +2769,7 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2651,7 +2781,7 @@
         <v>6.20000000000000018</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2663,7 +2793,7 @@
         <v>14.8300000000000001</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2675,7 +2805,7 @@
         <v>42.1099999999999994</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E58" s="24" t="n">
         <v>43708</v>
@@ -2690,7 +2820,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2710,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E61" s="24" t="n">
         <v>43711</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2728,10 +2858,10 @@
         <v>57.5700000000000003</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2751,13 +2881,13 @@
         <v>59.8999999999999986</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E64" s="24" t="n">
         <v>43713</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2777,13 +2907,13 @@
         <v>147.060000000000002</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E66" s="24" t="n">
         <v>43714</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2795,10 +2925,10 @@
         <v>10.4499999999999993</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G67" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2810,10 +2940,10 @@
         <v>10.0099999999999998</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="G68" s="20" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2825,7 +2955,7 @@
         <v>168</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2845,13 +2975,13 @@
         <v>20.4699999999999989</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E71" s="24" t="n">
         <v>43715</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2871,13 +3001,13 @@
         <v>10</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E73" s="24" t="n">
         <v>43716</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2889,10 +3019,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2912,13 +3042,13 @@
         <v>20</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E76" s="24" t="n">
         <v>43717</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2938,10 +3068,10 @@
         <v>9.25</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G78" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2961,7 +3091,7 @@
         <v>55.8999999999999986</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E80" s="24" t="n">
         <v>43719</v>
@@ -2976,7 +3106,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2988,7 +3118,7 @@
         <v>16.5</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3000,7 +3130,7 @@
         <v>60</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3020,7 +3150,7 @@
         <v>60.8299999999999983</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E85" s="24" t="n">
         <v>43720</v>
@@ -3043,13 +3173,13 @@
         <v>31.0399999999999991</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E87" s="24" t="n">
         <v>43721</v>
       </c>
       <c r="G87" s="20" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3061,10 +3191,10 @@
         <v>60.3400000000000034</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3076,10 +3206,10 @@
         <v>26.4200000000000017</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3091,10 +3221,10 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3106,10 +3236,10 @@
         <v>42.9699999999999989</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G91" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3121,10 +3251,10 @@
         <v>14.9199999999999999</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G92" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3136,10 +3266,10 @@
         <v>13.9199999999999999</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G93" s="20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3159,13 +3289,13 @@
         <v>26</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E95" s="24" t="n">
         <v>43723</v>
       </c>
       <c r="G95" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3177,10 +3307,10 @@
         <v>23</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G96" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3200,13 +3330,13 @@
         <v>1080</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E98" s="24" t="n">
         <v>43725</v>
       </c>
       <c r="G98" s="20" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3218,10 +3348,10 @@
         <v>32</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G99" s="20" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3241,13 +3371,13 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E101" s="24" t="n">
         <v>43726</v>
       </c>
       <c r="G101" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3267,13 +3397,13 @@
         <v>24.7399999999999984</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E103" s="24" t="n">
         <v>43727</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3293,13 +3423,13 @@
         <v>35.25</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E105" s="24" t="n">
         <v>43728</v>
       </c>
       <c r="G105" s="20" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3311,10 +3441,10 @@
         <v>5.58999999999999986</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G106" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3326,10 +3456,10 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3341,10 +3471,10 @@
         <v>13.8000000000000007</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3356,10 +3486,10 @@
         <v>25</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3379,13 +3509,13 @@
         <v>6.90000000000000036</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="E111" s="24" t="n">
         <v>43729</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3397,10 +3527,10 @@
         <v>12.1500000000000004</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G112" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3420,13 +3550,13 @@
         <v>10.3399999999999999</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E114" s="24" t="n">
         <v>43731</v>
       </c>
       <c r="G114" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3438,10 +3568,10 @@
         <v>28.629999999999999</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G115" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3453,10 +3583,10 @@
         <v>28.7399999999999984</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G116" s="20" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3468,10 +3598,10 @@
         <v>59.7100000000000009</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G117" s="20" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3483,10 +3613,10 @@
         <v>27.879999999999999</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G118" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -3503,13 +3633,13 @@
         <v>600</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E120" s="24" t="n">
         <v>43733</v>
       </c>
       <c r="G120" s="20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3520,10 +3650,10 @@
         <v>91</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G121" s="20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3534,10 +3664,10 @@
         <v>-600</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G122" s="20" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3548,10 +3678,10 @@
         <v>-91</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G123" s="20" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3571,13 +3701,13 @@
         <v>35.0200000000000031</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E125" s="24" t="n">
         <v>43734</v>
       </c>
       <c r="G125" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3589,10 +3719,10 @@
         <v>12.9499999999999993</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G126" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3604,10 +3734,10 @@
         <v>23.6799999999999997</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G127" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3619,11 +3749,11 @@
         <v>3.04000000000000004</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3635,10 +3765,10 @@
         <v>70.0900000000000034</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G129" s="20" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3658,13 +3788,13 @@
         <v>20</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E131" s="24" t="n">
         <v>43735</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3684,13 +3814,13 @@
         <v>13.4700000000000006</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E133" s="24" t="n">
         <v>43737</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3710,13 +3840,13 @@
         <v>41.3599999999999994</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E135" s="24" t="n">
         <v>43738</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -3728,13 +3858,13 @@
         <v>14</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I136" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3760,13 +3890,13 @@
         <v>6.38999999999999968</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E139" s="24" t="n">
         <v>43741</v>
       </c>
       <c r="G139" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3778,10 +3908,10 @@
         <v>160.689999999999998</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3801,13 +3931,13 @@
         <v>53.240000000000002</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E142" s="24" t="n">
         <v>43742</v>
       </c>
       <c r="G142" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3819,10 +3949,10 @@
         <v>9</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3842,13 +3972,13 @@
         <v>3</v>
       </c>
       <c r="D145" s="13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E145" s="24" t="n">
         <v>43743</v>
       </c>
       <c r="G145" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3860,10 +3990,10 @@
         <v>42.2100000000000009</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3883,13 +4013,13 @@
         <v>25</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E148" s="24" t="n">
         <v>43747</v>
       </c>
       <c r="G148" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3909,13 +4039,13 @@
         <v>22</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E150" s="24" t="n">
         <v>43748</v>
       </c>
       <c r="G150" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -3926,13 +4056,13 @@
         <v>222.300000000000011</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G151" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I151" t="s">
         <v>146</v>
-      </c>
-      <c r="I151" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -3943,13 +4073,13 @@
         <v>189.360000000000014</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G152" s="20" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I152" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3960,10 +4090,10 @@
         <v>4.71999999999999975</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G153" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3981,13 +4111,13 @@
         <v>57.4799999999999969</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E155" s="24" t="n">
         <v>43749</v>
       </c>
       <c r="G155" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3999,10 +4129,10 @@
         <v>40.3100000000000023</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G156" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4013,10 +4143,10 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G157" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4027,10 +4157,10 @@
         <v>7.11000000000000032</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G158" s="20" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4050,13 +4180,13 @@
         <v>14</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E160" s="24" t="n">
         <v>43750</v>
       </c>
       <c r="G160" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4076,13 +4206,13 @@
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E162" s="24" t="n">
         <v>43751</v>
       </c>
       <c r="G162" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4102,13 +4232,13 @@
         <v>29.9899999999999984</v>
       </c>
       <c r="D164" s="13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E164" s="24" t="n">
         <v>43752</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -4119,13 +4249,13 @@
         <v>530.75</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I165" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -4143,13 +4273,13 @@
         <v>7</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E167" s="24" t="n">
         <v>43754</v>
       </c>
       <c r="G167" s="20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4161,10 +4291,10 @@
         <v>20</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G168" s="20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -4182,16 +4312,16 @@
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="13" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E170" s="24" t="n">
         <v>43756</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I170" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -4202,13 +4332,13 @@
         <v>11.1600000000000001</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I171" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -4219,13 +4349,13 @@
         <v>9.25999999999999979</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I172" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -4236,13 +4366,13 @@
         <v>5.41999999999999993</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I173" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4261,16 +4391,16 @@
         <v>38.2000000000000028</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E175" s="24" t="n">
         <v>43757</v>
       </c>
       <c r="G175" s="20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I175" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -4281,13 +4411,13 @@
         <v>67.5400000000000063</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G176" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I176" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -4298,13 +4428,13 @@
         <v>9.48000000000000043</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I177" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -4315,13 +4445,13 @@
         <v>5.40000000000000036</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G178" s="20" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I178" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -4332,13 +4462,13 @@
         <v>18.25</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I179" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4358,16 +4488,16 @@
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="13" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E181" s="24" t="n">
         <v>43758</v>
       </c>
       <c r="G181" s="20" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I181" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -4378,13 +4508,13 @@
         <v>11.5399999999999991</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I182" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -4395,13 +4525,13 @@
         <v>12.8000000000000007</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G183" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I183" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4421,16 +4551,16 @@
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E185" s="24" t="n">
         <v>43759</v>
       </c>
       <c r="G185" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I185" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -4441,13 +4571,13 @@
         <v>15</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I186" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4476,10 +4606,10 @@
         <v>43.4399999999999977</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G189" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4499,13 +4629,13 @@
         <v>27.5100000000000016</v>
       </c>
       <c r="D191" s="13" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E191" s="24" t="n">
         <v>43761</v>
       </c>
       <c r="G191" s="20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4517,10 +4647,10 @@
         <v>43.5200000000000031</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G192" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4540,13 +4670,13 @@
         <v>4.79999999999999982</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E194" s="24" t="n">
         <v>43763</v>
       </c>
       <c r="G194" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4558,10 +4688,10 @@
         <v>48.2700000000000031</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G195" s="20" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4585,13 +4715,13 @@
         <v>8.67999999999999794</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E198" s="24" t="n">
         <v>43765</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -4607,16 +4737,16 @@
         <v>22</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E200" s="24" t="n">
         <v>43766</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I200" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:1">
@@ -4651,16 +4781,16 @@
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="13" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E205" s="24" t="n">
         <v>43768</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I205" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4680,16 +4810,16 @@
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="13" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E207" s="24" t="n">
         <v>43769</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I207" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4709,16 +4839,16 @@
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="13" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E209" s="24" t="n">
         <v>43770</v>
       </c>
       <c r="G209" s="20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I209" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4738,16 +4868,16 @@
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="13" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E211" s="24" t="n">
         <v>43773</v>
       </c>
       <c r="G211" s="20" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I211" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4767,13 +4897,13 @@
         <v>30.2300000000000004</v>
       </c>
       <c r="D213" s="13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E213" s="24" t="n">
         <v>43774</v>
       </c>
       <c r="G213" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -4784,10 +4914,10 @@
         <v>8.96000000000000085</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G214" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4807,13 +4937,13 @@
         <v>126.400000000000006</v>
       </c>
       <c r="D216" s="13" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E216" s="24" t="n">
         <v>43775</v>
       </c>
       <c r="G216" s="20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -4825,10 +4955,10 @@
         <v>13.2699999999999996</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4848,13 +4978,13 @@
         <v>79.1700000000000017</v>
       </c>
       <c r="D219" s="13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E219" s="24" t="n">
         <v>43777</v>
       </c>
       <c r="G219" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4874,13 +5004,13 @@
         <v>44.0499999999999972</v>
       </c>
       <c r="D221" s="13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E221" s="24" t="n">
         <v>43778</v>
       </c>
       <c r="G221" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4900,13 +5030,13 @@
         <v>93.1299999999999955</v>
       </c>
       <c r="D223" s="13" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E223" s="24" t="n">
         <v>43784</v>
       </c>
       <c r="G223" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -4918,10 +5048,10 @@
         <v>53.9799999999999969</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -4933,10 +5063,10 @@
         <v>4.03000000000000025</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -4948,10 +5078,10 @@
         <v>2.29999999999999982</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4971,13 +5101,13 @@
         <v>29.129999999999999</v>
       </c>
       <c r="D228" s="13" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E228" s="24" t="n">
         <v>43785</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -4989,10 +5119,10 @@
         <v>61.1000000000000014</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G229" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5012,13 +5142,13 @@
         <v>80</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E231" s="24" t="n">
         <v>43786</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5030,10 +5160,10 @@
         <v>140</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G232" s="20" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5045,10 +5175,10 @@
         <v>33.3500000000000014</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G233" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5068,16 +5198,16 @@
         <v>37</v>
       </c>
       <c r="D235" s="13" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E235" s="24" t="n">
         <v>43791</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I235" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -5089,13 +5219,13 @@
         <v>25.0100000000000016</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G236" s="20" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I236" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -5107,13 +5237,13 @@
         <v>-37</v>
       </c>
       <c r="D237" s="12" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G237" s="20" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="I237" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -5125,13 +5255,13 @@
         <v>105</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G238" s="20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="I238" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5151,13 +5281,13 @@
         <v>80.6400000000000006</v>
       </c>
       <c r="D240" s="13" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E240" s="24" t="n">
         <v>43797</v>
       </c>
       <c r="G240" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5169,10 +5299,10 @@
         <v>16</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G241" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5183,10 +5313,10 @@
         <v>30</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G242" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5198,10 +5328,10 @@
         <v>24</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G243" s="20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -5213,10 +5343,10 @@
         <v>35</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G244" s="20" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5236,13 +5366,13 @@
         <v>17.25</v>
       </c>
       <c r="D246" s="13" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E246" s="24" t="n">
         <v>43798</v>
       </c>
       <c r="G246" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -5254,10 +5384,10 @@
         <v>29.1600000000000001</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G247" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -5283,13 +5413,13 @@
         <v>190.849999999999994</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E250" s="24" t="n">
         <v>43800</v>
       </c>
       <c r="G250" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5309,13 +5439,13 @@
         <v>10</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E252" s="24" t="n">
         <v>43802</v>
       </c>
       <c r="G252" s="20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -5327,10 +5457,10 @@
         <v>15</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="G253" s="20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5350,13 +5480,13 @@
         <v>109.060000000000002</v>
       </c>
       <c r="D255" s="13" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E255" s="24" t="n">
         <v>43804</v>
       </c>
       <c r="G255" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -5368,10 +5498,10 @@
         <v>-30</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G256" s="20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -5383,10 +5513,10 @@
         <v>124.489999999999995</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G257" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5406,13 +5536,13 @@
         <v>95.0100000000000051</v>
       </c>
       <c r="D259" s="13" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E259" s="24" t="n">
         <v>43808</v>
       </c>
       <c r="G259" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5432,13 +5562,13 @@
         <v>13.25</v>
       </c>
       <c r="D261" s="13" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E261" s="24" t="n">
         <v>43809</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -5456,13 +5586,13 @@
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="13" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E263" s="24" t="n">
         <v>43811</v>
       </c>
       <c r="G263" s="20" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -5474,10 +5604,10 @@
         <v>5</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G264" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -5489,10 +5619,10 @@
         <v>20</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="G265" s="20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -5510,13 +5640,13 @@
         <v>11.4199999999999999</v>
       </c>
       <c r="D267" s="13" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E267" s="24" t="n">
         <v>43814</v>
       </c>
       <c r="G267" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -5528,10 +5658,10 @@
         <v>11.5</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G268" s="20" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -5549,13 +5679,13 @@
         <v>5.45999999999999996</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E270" s="24" t="n">
         <v>43815</v>
       </c>
       <c r="G270" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -5567,10 +5697,10 @@
         <v>60.1700000000000017</v>
       </c>
       <c r="D271" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="G271" s="20" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -5582,10 +5712,10 @@
         <v>21.620000000000001</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G272" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -5597,10 +5727,10 @@
         <v>-10</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="G273" s="20" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -5618,13 +5748,13 @@
         <v>40</v>
       </c>
       <c r="D275" s="13" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E275" s="24" t="n">
         <v>43816</v>
       </c>
       <c r="G275" s="20" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -5642,13 +5772,13 @@
         <v>73.5900000000000034</v>
       </c>
       <c r="D277" s="13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E277" s="24" t="n">
         <v>43817</v>
       </c>
       <c r="G277" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -5666,13 +5796,13 @@
         <v>25.75</v>
       </c>
       <c r="D279" s="13" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E279" s="24" t="n">
         <v>43818</v>
       </c>
       <c r="G279" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -5684,10 +5814,10 @@
         <v>-12</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G280" s="20" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -5699,10 +5829,10 @@
         <v>227.629999999999995</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G281" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -5720,13 +5850,13 @@
         <v>39.0700000000000003</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E283" s="24" t="n">
         <v>43821</v>
       </c>
       <c r="G283" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -5738,10 +5868,10 @@
         <v>39.6700000000000017</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="G284" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -5753,10 +5883,10 @@
         <v>114.680000000000007</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -5768,13 +5898,13 @@
         <v>-114</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G286" s="20" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="H286" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -5786,10 +5916,10 @@
         <v>-39</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G287" s="20" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -5807,13 +5937,13 @@
         <v>1080</v>
       </c>
       <c r="D289" s="13" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E289" s="24" t="n">
         <v>43824</v>
       </c>
       <c r="G289" s="20" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -5825,10 +5955,10 @@
         <v>-185.849999999999994</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G290" s="20" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -5840,10 +5970,10 @@
         <v>65.5400000000000063</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G291" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5863,13 +5993,13 @@
         <v>12.75</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E293" s="24" t="n">
         <v>43825</v>
       </c>
       <c r="G293" s="20" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -5881,10 +6011,10 @@
         <v>57.9200000000000017</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G294" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -5896,10 +6026,10 @@
         <v>9</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="G295" s="20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -5911,10 +6041,10 @@
         <v>33.4699999999999989</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G296" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -5932,13 +6062,13 @@
         <v>45.3800000000000026</v>
       </c>
       <c r="D298" s="13" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E298" s="24" t="n">
         <v>43830</v>
       </c>
       <c r="G298" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -5949,10 +6079,10 @@
         <v>-24</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G299" s="20" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5972,13 +6102,13 @@
         <v>20</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E301" s="24" t="n">
         <v>43831</v>
       </c>
       <c r="G301" s="20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -5999,13 +6129,13 @@
         <v>51.2899999999999991</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E303" s="24" t="n">
         <v>43835</v>
       </c>
       <c r="G303" s="12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -6023,13 +6153,13 @@
         <v>22.2800000000000011</v>
       </c>
       <c r="D305" s="13" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E305" s="24" t="n">
         <v>43838</v>
       </c>
       <c r="G305" s="21" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -6048,13 +6178,13 @@
         <v>120.599999999999994</v>
       </c>
       <c r="D307" s="13" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E307" s="24" t="n">
         <v>43839</v>
       </c>
       <c r="G307" s="20" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -6066,11 +6196,11 @@
         <v>6.70000000000000018</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E308" s="31"/>
       <c r="G308" s="20" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6089,13 +6219,13 @@
         <v>58.1300000000000026</v>
       </c>
       <c r="D310" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E310" s="24" t="n">
         <v>43840</v>
       </c>
       <c r="G310" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -6113,16 +6243,16 @@
         <v>20</v>
       </c>
       <c r="D312" s="13" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E312" s="24" t="n">
         <v>43841</v>
       </c>
       <c r="G312" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H312" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -6140,13 +6270,13 @@
         <v>63.1400000000000006</v>
       </c>
       <c r="D314" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E314" s="24" t="n">
         <v>43844</v>
       </c>
       <c r="G314" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -6164,16 +6294,16 @@
         <v>7.20000000000000018</v>
       </c>
       <c r="D316" s="13" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E316" s="24" t="n">
         <v>43845</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H316" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -6185,10 +6315,10 @@
         <v>54.8299999999999983</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G317" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -6206,16 +6336,16 @@
         <v>547</v>
       </c>
       <c r="D319" s="13" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E319" s="24" t="n">
         <v>43846</v>
       </c>
       <c r="G319" s="20" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I319" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -6227,10 +6357,10 @@
         <v>6.09999999999999964</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G320" s="20" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -6248,13 +6378,13 @@
         <v>16.9400000000000013</v>
       </c>
       <c r="D322" s="13" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E322" s="24" t="n">
         <v>43848</v>
       </c>
       <c r="G322" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -6272,13 +6402,13 @@
       </c>
       <c r="C324" s="3"/>
       <c r="D324" s="13" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E324" s="24" t="n">
         <v>43850</v>
       </c>
       <c r="G324" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -6290,10 +6420,10 @@
         <v>147</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G325" s="20" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -6311,13 +6441,13 @@
         <v>9</v>
       </c>
       <c r="D327" s="13" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E327" s="24" t="n">
         <v>43855</v>
       </c>
       <c r="G327" s="20" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -6329,10 +6459,10 @@
         <v>20</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G328" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -6350,13 +6480,13 @@
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="13" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E330" s="24" t="n">
         <v>43856</v>
       </c>
       <c r="G330" s="20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -6368,10 +6498,10 @@
         <v>88.9599999999999937</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G331" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -6383,10 +6513,10 @@
         <v>174.69999999999996</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G332" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -6404,13 +6534,13 @@
         <v>12</v>
       </c>
       <c r="D334" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E334" s="24" t="n">
         <v>43859</v>
       </c>
       <c r="G334" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -6428,13 +6558,13 @@
         <v>9.25</v>
       </c>
       <c r="D336" s="13" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E336" s="24" t="n">
         <v>43860</v>
       </c>
       <c r="G336" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -6446,10 +6576,10 @@
         <v>3.79000000000000004</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G337" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -6467,7 +6597,7 @@
         <v>9.47000000000000064</v>
       </c>
       <c r="D339" s="13" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E339" s="24" t="n">
         <v>43863</v>
@@ -6482,7 +6612,7 @@
         <v>13.7899999999999991</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -6500,7 +6630,7 @@
         <v>11.75</v>
       </c>
       <c r="D342" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E342" s="24" t="n">
         <v>43864</v>
@@ -6521,7 +6651,7 @@
         <v>6</v>
       </c>
       <c r="D344" s="13" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E344" s="24" t="n">
         <v>43865</v>
@@ -6542,13 +6672,13 @@
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="13" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E346" s="24" t="n">
         <v>43866</v>
       </c>
       <c r="G346" s="20" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -6566,16 +6696,16 @@
         <v>16</v>
       </c>
       <c r="D348" s="13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E348" s="24" t="n">
         <v>43867</v>
       </c>
       <c r="G348" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I348" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -6586,13 +6716,13 @@
         <v>20</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G349" s="20" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I349" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -6603,13 +6733,13 @@
         <v>9.58999999999999986</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G350" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I350" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -6627,16 +6757,16 @@
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="13" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E352" s="24" t="n">
         <v>43868</v>
       </c>
       <c r="G352" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I352" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -6647,13 +6777,13 @@
         <v>9.69999999999999929</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G353" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I353" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -6671,16 +6801,16 @@
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="13" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E355" s="24" t="n">
         <v>43869</v>
       </c>
       <c r="G355" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I355" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -6698,16 +6828,16 @@
       </c>
       <c r="C357" s="3"/>
       <c r="D357" s="13" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E357" s="24" t="n">
         <v>43870</v>
       </c>
       <c r="G357" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I357" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -6718,13 +6848,13 @@
         <v>3.5</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G358" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I358" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -6742,16 +6872,16 @@
       </c>
       <c r="C360" s="3"/>
       <c r="D360" s="13" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E360" s="24" t="n">
         <v>43871</v>
       </c>
       <c r="G360" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I360" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -6769,13 +6899,13 @@
         <v>10</v>
       </c>
       <c r="D362" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E362" s="24" t="n">
         <v>43873</v>
       </c>
       <c r="G362" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -6793,13 +6923,13 @@
         <v>4</v>
       </c>
       <c r="D364" s="13" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="E364" s="24" t="n">
         <v>43874</v>
       </c>
       <c r="G364" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -6817,13 +6947,13 @@
         <v>102.959999999999994</v>
       </c>
       <c r="D366" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E366" s="24" t="n">
         <v>43875</v>
       </c>
       <c r="G366" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -6841,13 +6971,13 @@
       </c>
       <c r="C368" s="3"/>
       <c r="D368" s="13" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E368" s="24" t="n">
         <v>43876</v>
       </c>
       <c r="G368" s="20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -6859,10 +6989,10 @@
         <v>116</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="G369" s="20" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -6880,13 +7010,13 @@
         <v>32.8400000000000034</v>
       </c>
       <c r="D371" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E371" s="24" t="n">
         <v>43878</v>
       </c>
       <c r="G371" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -6904,13 +7034,13 @@
         <v>7</v>
       </c>
       <c r="D373" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E373" s="24" t="n">
         <v>43880</v>
       </c>
       <c r="G373" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -6928,13 +7058,13 @@
         <v>14.2200000000000006</v>
       </c>
       <c r="D375" s="13" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E375" s="24" t="n">
         <v>43887</v>
       </c>
       <c r="G375" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -6946,10 +7076,10 @@
         <v>59.5499999999999972</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="G376" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -6967,13 +7097,13 @@
         <v>56.1799999999999997</v>
       </c>
       <c r="D378" s="13" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E378" s="24" t="n">
         <v>43888</v>
       </c>
       <c r="G378" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -6991,13 +7121,13 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D380" s="13" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E380" s="24" t="n">
         <v>43890</v>
       </c>
       <c r="G380" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -7015,13 +7145,13 @@
         <v>1080</v>
       </c>
       <c r="D382" s="13" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E382" s="24" t="n">
         <v>43891</v>
       </c>
       <c r="G382" s="20" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -7039,13 +7169,13 @@
         <v>60.259999999999998</v>
       </c>
       <c r="D384" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E384" s="24" t="n">
         <v>43892</v>
       </c>
       <c r="G384" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -7057,10 +7187,10 @@
         <v>41.8999999999999986</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G385" s="20" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -7072,10 +7202,10 @@
         <v>40</v>
       </c>
       <c r="D386" s="12" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G386" s="20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -7087,10 +7217,10 @@
         <v>1.5</v>
       </c>
       <c r="D387" s="12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="G387" s="20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -7108,16 +7238,16 @@
         <v>48.2999999999999972</v>
       </c>
       <c r="D389" s="13" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E389" s="24" t="n">
         <v>43894</v>
       </c>
       <c r="G389" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I389" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -7129,13 +7259,13 @@
         <v>44</v>
       </c>
       <c r="D390" s="12" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G390" s="20" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I390" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -7146,13 +7276,13 @@
         <v>-48</v>
       </c>
       <c r="D391" s="12" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G391" s="20" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I391" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -7164,13 +7294,13 @@
         <v>-44</v>
       </c>
       <c r="D392" s="12" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G392" s="20" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="I392" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -7188,16 +7318,16 @@
         <v>19.5</v>
       </c>
       <c r="D394" s="13" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E394" s="24" t="n">
         <v>43895</v>
       </c>
       <c r="G394" s="20" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I394" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -7209,10 +7339,10 @@
         <v>176.719999999999999</v>
       </c>
       <c r="D395" s="12" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="I395" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -7224,13 +7354,13 @@
         <v>-176.719999999999999</v>
       </c>
       <c r="D396" s="12" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="G396" s="20" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="I396" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -7242,16 +7372,16 @@
         <v>15.2300000000000004</v>
       </c>
       <c r="D397" s="13" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E397" s="24" t="n">
         <v>43896</v>
       </c>
       <c r="G397" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I397" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -7263,13 +7393,13 @@
         <v>6.66000000000000014</v>
       </c>
       <c r="D398" s="12" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G398" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I398" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -7287,16 +7417,16 @@
         <v>6</v>
       </c>
       <c r="D400" s="13" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E400" s="24" t="n">
         <v>43897</v>
       </c>
       <c r="G400" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I400" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -7314,16 +7444,16 @@
         <v>82.7900000000000063</v>
       </c>
       <c r="D402" s="13" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E402" s="24" t="n">
         <v>43898</v>
       </c>
       <c r="G402" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I402" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -7341,13 +7471,13 @@
         <v>32.8299999999999983</v>
       </c>
       <c r="D404" s="13" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E404" s="24" t="n">
         <v>43900</v>
       </c>
       <c r="G404" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -7359,10 +7489,10 @@
         <v>41.8400000000000034</v>
       </c>
       <c r="D405" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="G405" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -7380,13 +7510,13 @@
         <v>8</v>
       </c>
       <c r="D407" s="13" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E407" s="24" t="n">
         <v>43901</v>
       </c>
       <c r="G407" s="20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -7398,10 +7528,10 @@
         <v>15.4000000000000004</v>
       </c>
       <c r="D408" s="12" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="G408" s="20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -7413,10 +7543,10 @@
         <v>14.8699999999999992</v>
       </c>
       <c r="D409" s="12" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -7434,16 +7564,16 @@
       </c>
       <c r="C411" s="3"/>
       <c r="D411" s="13" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E411" s="24" t="n">
         <v>43903</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I411" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -7461,16 +7591,16 @@
       </c>
       <c r="C413" s="3"/>
       <c r="D413" s="13" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="E413" s="24" t="n">
         <v>43904</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I413" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -7481,13 +7611,13 @@
         <v>10.5099999999999998</v>
       </c>
       <c r="D414" s="12" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I414" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -7498,13 +7628,13 @@
         <v>10</v>
       </c>
       <c r="D415" s="12" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I415" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -7522,16 +7652,16 @@
       </c>
       <c r="C417" s="3"/>
       <c r="D417" s="13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E417" s="24" t="n">
         <v>43905</v>
       </c>
       <c r="G417" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I417" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -7542,13 +7672,13 @@
         <v>-2.5</v>
       </c>
       <c r="D418" s="12" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="G418" s="20" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="I418" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -7559,13 +7689,13 @@
         <v>10.8000000000000007</v>
       </c>
       <c r="D419" s="12" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="G419" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I419" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -7583,16 +7713,16 @@
       </c>
       <c r="C421" s="3"/>
       <c r="D421" s="13" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E421" s="24" t="n">
         <v>43906</v>
       </c>
       <c r="G421" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I421" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7617,16 +7747,16 @@
       </c>
       <c r="C424" s="3"/>
       <c r="D424" s="13" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E424" s="24" t="n">
         <v>43907</v>
       </c>
       <c r="G424" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I424" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -7637,13 +7767,13 @@
         <v>-20.1999999999999993</v>
       </c>
       <c r="D425" s="12" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G425" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="I425" t="s">
         <v>323</v>
-      </c>
-      <c r="I425" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7668,16 +7798,16 @@
       </c>
       <c r="C428" s="3"/>
       <c r="D428" s="13" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E428" s="24" t="n">
         <v>43908</v>
       </c>
       <c r="G428" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I428" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -7695,13 +7825,13 @@
       </c>
       <c r="C430" s="3"/>
       <c r="D430" s="13" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E430" s="24" t="n">
         <v>43910</v>
       </c>
       <c r="G430" s="20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -7719,13 +7849,13 @@
         <v>114.109999999999999</v>
       </c>
       <c r="D432" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E432" s="24" t="n">
         <v>43912</v>
       </c>
       <c r="G432" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7744,13 +7874,13 @@
         <v>106.920000000000002</v>
       </c>
       <c r="D434" s="12" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="E434" s="24" t="n">
         <v>43913</v>
       </c>
       <c r="G434" s="20" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -7761,10 +7891,10 @@
         <v>142.710000000000008</v>
       </c>
       <c r="D435" s="12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="G435" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -7782,13 +7912,13 @@
         <v>35.4200000000000017</v>
       </c>
       <c r="D437" s="13" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E437" s="24" t="n">
         <v>43923</v>
       </c>
       <c r="G437" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -7806,13 +7936,13 @@
         <v>121.599999999999994</v>
       </c>
       <c r="D439" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E439" s="24" t="n">
         <v>43924</v>
       </c>
       <c r="G439" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -7830,13 +7960,13 @@
         <v>111.670000000000002</v>
       </c>
       <c r="D441" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E441" s="24" t="n">
         <v>43935</v>
       </c>
       <c r="G441" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -7854,13 +7984,13 @@
       </c>
       <c r="C443" s="3"/>
       <c r="D443" s="13" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E443" s="24" t="n">
         <v>43938</v>
       </c>
       <c r="G443" s="20" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -7878,13 +8008,13 @@
         <v>47.3100000000000023</v>
       </c>
       <c r="D445" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E445" s="24" t="n">
         <v>43939</v>
       </c>
       <c r="G445" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -7902,13 +8032,13 @@
         <v>65.3499999999999943</v>
       </c>
       <c r="D447" s="13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E447" s="24" t="n">
         <v>43948</v>
       </c>
       <c r="G447" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -7920,10 +8050,10 @@
         <v>44.0799999999999983</v>
       </c>
       <c r="D448" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G448" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -7942,13 +8072,13 @@
         <v>75.6599999999999824</v>
       </c>
       <c r="D450" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E450" s="24" t="n">
         <v>43958</v>
       </c>
       <c r="G450" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="451" spans="1:1">
@@ -7964,13 +8094,13 @@
         <v>185</v>
       </c>
       <c r="D452" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E452" s="24" t="n">
         <v>43960</v>
       </c>
       <c r="G452" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="453" spans="1:1">
@@ -7986,13 +8116,13 @@
         <v>51.5399999999999991</v>
       </c>
       <c r="D454" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E454" s="24" t="n">
         <v>43964</v>
       </c>
       <c r="G454" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -8008,13 +8138,13 @@
         <v>38.490000000000002</v>
       </c>
       <c r="D456" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E456" s="24" t="n">
         <v>43966</v>
       </c>
       <c r="G456" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -8025,10 +8155,10 @@
         <v>10</v>
       </c>
       <c r="D457" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G457" s="20" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="458" spans="1:1">
@@ -8044,13 +8174,13 @@
         <v>12.5</v>
       </c>
       <c r="D459" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="E459" s="24" t="n">
         <v>43967</v>
       </c>
       <c r="G459" s="20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="460" spans="1:1">
@@ -8066,13 +8196,13 @@
         <v>68.519999999999996</v>
       </c>
       <c r="D461" s="13" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E461" s="24" t="n">
         <v>43971</v>
       </c>
       <c r="G461" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="462" spans="1:1">
@@ -8088,13 +8218,13 @@
         <v>117.810000000000002</v>
       </c>
       <c r="D463" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E463" s="24" t="n">
         <v>43973</v>
       </c>
       <c r="G463" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="464" spans="1:1">
@@ -8110,13 +8240,13 @@
         <v>1.25</v>
       </c>
       <c r="D465" s="12" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E465" s="24" t="n">
         <v>43979</v>
       </c>
       <c r="G465" s="20" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -8127,10 +8257,10 @@
         <v>76.5100000000000051</v>
       </c>
       <c r="D466" s="12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G466" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -8141,10 +8271,10 @@
         <v>30.3000000000000007</v>
       </c>
       <c r="D467" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G467" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="468" spans="1:1">
@@ -8160,13 +8290,13 @@
         <v>55.0399999999999991</v>
       </c>
       <c r="D469" s="13" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E469" s="24" t="n">
         <v>43984</v>
       </c>
       <c r="G469" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="470" spans="1:1">
@@ -8182,13 +8312,13 @@
         <v>5</v>
       </c>
       <c r="D471" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E471" s="24" t="n">
         <v>43985</v>
       </c>
       <c r="G471" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -8199,10 +8329,10 @@
         <v>100.709999999999994</v>
       </c>
       <c r="D472" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G472" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -8213,10 +8343,10 @@
         <v>7.90000000000000036</v>
       </c>
       <c r="D473" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G473" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="474" spans="1:1">
@@ -8232,13 +8362,13 @@
         <v>90</v>
       </c>
       <c r="D475" s="12" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="E475" s="24" t="n">
         <v>43986</v>
       </c>
       <c r="G475" s="20" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="476" spans="1:1">
@@ -8254,13 +8384,13 @@
         <v>360</v>
       </c>
       <c r="D477" s="12" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E477" s="24" t="n">
         <v>43987</v>
       </c>
       <c r="G477" s="20" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478" spans="1:1">
@@ -8276,7 +8406,7 @@
         <v>83.4699999999999989</v>
       </c>
       <c r="D479" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E479" s="24" t="n">
         <v>43990</v>
@@ -8295,13 +8425,13 @@
         <v>220</v>
       </c>
       <c r="D481" s="12" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E481" s="24" t="n">
         <v>43992</v>
       </c>
       <c r="G481" s="20" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="482" spans="1:1">
@@ -8317,7 +8447,7 @@
         <v>20</v>
       </c>
       <c r="D483" s="12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E483" s="24" t="n">
         <v>43994</v>
@@ -8331,10 +8461,10 @@
         <v>7.59999999999999876</v>
       </c>
       <c r="D484" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G484" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="485" spans="1:1">
@@ -8350,7 +8480,7 @@
         <v>94.6899999999999977</v>
       </c>
       <c r="D486" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E486" s="24" t="n">
         <v>43995</v>
@@ -8369,7 +8499,7 @@
         <v>20</v>
       </c>
       <c r="D488" s="13" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E488" s="24" t="n">
         <v>43996</v>
@@ -8388,13 +8518,13 @@
         <v>33.2800000000000011</v>
       </c>
       <c r="D490" s="12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E490" s="24" t="n">
         <v>43997</v>
       </c>
       <c r="G490" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -8410,13 +8540,13 @@
         <v>24.6000000000000014</v>
       </c>
       <c r="D492" s="12" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E492" s="24" t="n">
         <v>43998</v>
       </c>
       <c r="G492" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -8427,10 +8557,10 @@
         <v>41.3900000000000006</v>
       </c>
       <c r="D493" s="12" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G493" s="20" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="494" spans="1:1">
@@ -8446,13 +8576,13 @@
         <v>25.129999999999999</v>
       </c>
       <c r="D495" s="12" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E495" s="24" t="n">
         <v>43999</v>
       </c>
       <c r="G495" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -8468,7 +8598,7 @@
         <v>74.3599999999999994</v>
       </c>
       <c r="D497" s="13" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E497" s="24" t="n">
         <v>44000</v>
@@ -8487,13 +8617,13 @@
         <v>23.4100000000000001</v>
       </c>
       <c r="D499" s="12" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E499" s="24" t="n">
         <v>44004</v>
       </c>
       <c r="G499" s="20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -8504,10 +8634,10 @@
         <v>10.1999999999999993</v>
       </c>
       <c r="D500" s="12" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="G500" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="501" spans="1:1">
@@ -8523,7 +8653,7 @@
         <v>37.0900000000000034</v>
       </c>
       <c r="D502" s="13" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E502" s="24" t="n">
         <v>44008</v>
@@ -8537,10 +8667,10 @@
         <v>95.019999999999996</v>
       </c>
       <c r="D503" s="12" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G503" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="504" spans="1:1">
@@ -8556,13 +8686,13 @@
         <v>20.7399999999999984</v>
       </c>
       <c r="D505" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E505" s="24" t="n">
         <v>44013</v>
       </c>
       <c r="G505" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="506" spans="1:1">
@@ -8578,13 +8708,13 @@
         <v>9</v>
       </c>
       <c r="D507" s="12" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E507" s="24" t="n">
         <v>44015</v>
       </c>
       <c r="G507" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="508" spans="1:1">
@@ -8600,13 +8730,13 @@
         <v>7.88999999999999879</v>
       </c>
       <c r="D509" s="12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E509" s="24" t="n">
         <v>44016</v>
       </c>
       <c r="G509" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -8617,7 +8747,7 @@
         <v>49.7800000000000011</v>
       </c>
       <c r="D510" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="511" spans="1:1">
@@ -8633,13 +8763,13 @@
         <v>42.5200000000000031</v>
       </c>
       <c r="D512" s="12" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E512" s="24" t="n">
         <v>44019</v>
       </c>
       <c r="G512" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -8650,10 +8780,10 @@
         <v>49.0300000000000011</v>
       </c>
       <c r="D513" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G513" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="514" spans="1:1">
@@ -8669,13 +8799,13 @@
         <v>23.2100000000000009</v>
       </c>
       <c r="D515" s="12" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E515" s="24" t="n">
         <v>44020</v>
       </c>
       <c r="G515" s="20" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -8686,10 +8816,10 @@
         <v>67.0300000000000011</v>
       </c>
       <c r="D516" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G516" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -8700,10 +8830,10 @@
         <v>110</v>
       </c>
       <c r="D517" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G517" s="20" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="518" spans="1:1">
@@ -8719,7 +8849,7 @@
         <v>1120</v>
       </c>
       <c r="D519" s="12" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E519" s="24" t="n">
         <v>44022</v>
@@ -8733,10 +8863,10 @@
         <v>24.8000000000000007</v>
       </c>
       <c r="D520" s="12" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G520" s="20" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -8747,10 +8877,10 @@
         <v>48.6899999999999977</v>
       </c>
       <c r="D521" s="12" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G521" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -8761,10 +8891,10 @@
         <v>8.40000000000000036</v>
       </c>
       <c r="D522" s="12" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G522" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -8775,10 +8905,10 @@
         <v>40.2299999999999969</v>
       </c>
       <c r="D523" s="12" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G523" s="20" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="524" spans="1:1">
@@ -8794,13 +8924,13 @@
         <v>14.1199999999999992</v>
       </c>
       <c r="D525" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E525" s="24" t="n">
         <v>44026</v>
       </c>
       <c r="G525" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="526" spans="1:1">
@@ -8816,13 +8946,13 @@
         <v>28.3599999999999994</v>
       </c>
       <c r="D527" s="12" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="E527" s="24" t="n">
         <v>44027</v>
       </c>
       <c r="G527" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="528" spans="1:1">
@@ -8838,13 +8968,13 @@
         <v>43.6700000000000017</v>
       </c>
       <c r="D529" s="12" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E529" s="24" t="n">
         <v>44028</v>
       </c>
       <c r="G529" s="20" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -8855,10 +8985,10 @@
         <v>48.8500000000000014</v>
       </c>
       <c r="D530" s="12" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G530" s="20" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -8869,10 +8999,10 @@
         <v>37.75</v>
       </c>
       <c r="D531" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G531" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="532" spans="1:1">
@@ -8888,13 +9018,13 @@
         <v>28.7300000000000004</v>
       </c>
       <c r="D533" s="12" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E533" s="24" t="n">
         <v>44031</v>
       </c>
       <c r="G533" s="20" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -8905,10 +9035,10 @@
         <v>34.4799999999999969</v>
       </c>
       <c r="D534" s="12" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="G534" s="20" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -8919,10 +9049,10 @@
         <v>17.25</v>
       </c>
       <c r="D535" s="12" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="G535" s="20" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="536" spans="1:1">
@@ -8938,13 +9068,13 @@
         <v>270.399999999999977</v>
       </c>
       <c r="D537" s="12" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E537" s="24" t="n">
         <v>44032</v>
       </c>
       <c r="G537" s="20" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -8955,7 +9085,7 @@
         <v>44.6499999999999986</v>
       </c>
       <c r="D538" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -8966,10 +9096,10 @@
         <v>11</v>
       </c>
       <c r="D539" s="12" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G539" s="20" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="540" spans="1:1">
@@ -8985,13 +9115,13 @@
         <v>56.4200000000000017</v>
       </c>
       <c r="D541" s="12" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E541" s="24" t="n">
         <v>44033</v>
       </c>
       <c r="G541" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -9002,7 +9132,7 @@
         <v>20.5399999999999991</v>
       </c>
       <c r="D542" s="12" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="543" spans="1:1">
@@ -9018,13 +9148,13 @@
         <v>33.7000000000000028</v>
       </c>
       <c r="D544" s="12" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E544" s="24" t="n">
         <v>44034</v>
       </c>
       <c r="G544" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="545" spans="1:1">
@@ -9040,7 +9170,7 @@
         <v>30.3599999999999994</v>
       </c>
       <c r="D546" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E546" s="24" t="n">
         <v>44036</v>
@@ -9059,13 +9189,13 @@
         <v>6.83999999999999986</v>
       </c>
       <c r="D548" s="12" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E548" s="24" t="n">
         <v>44037</v>
       </c>
       <c r="G548" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -9081,13 +9211,13 @@
         <v>1560</v>
       </c>
       <c r="D550" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E550" s="24" t="n">
         <v>44040</v>
       </c>
       <c r="G550" s="20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="551" spans="1:1">
@@ -9103,13 +9233,13 @@
         <v>19.0500000000000007</v>
       </c>
       <c r="D552" s="12" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E552" s="24" t="n">
         <v>44041</v>
       </c>
       <c r="G552" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -9120,10 +9250,10 @@
         <v>17.7699999999999996</v>
       </c>
       <c r="D553" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G553" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -9134,10 +9264,10 @@
         <v>26.6900000000000013</v>
       </c>
       <c r="D554" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G554" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -9148,10 +9278,10 @@
         <v>18</v>
       </c>
       <c r="D555" s="12" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G555" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -9162,10 +9292,10 @@
         <v>38.25</v>
       </c>
       <c r="D556" s="12" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="G556" s="20" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -9176,13 +9306,13 @@
         <v>1575</v>
       </c>
       <c r="D557" s="12" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="G557" s="20" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H557" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="558" spans="1:1">
@@ -9198,13 +9328,13 @@
         <v>45.9799999999999969</v>
       </c>
       <c r="D559" s="12" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E559" s="24" t="n">
         <v>44042</v>
       </c>
       <c r="G559" s="20" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -9215,10 +9345,10 @@
         <v>92.019999999999996</v>
       </c>
       <c r="D560" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G560" s="20" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -9229,10 +9359,10 @@
         <v>100</v>
       </c>
       <c r="D561" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G561" s="20" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="562" spans="1:1">
@@ -9245,17 +9375,17 @@
         <v>562</v>
       </c>
       <c r="C563" s="22" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D563" s="23" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E563" s="28" t="n">
         <v>44046</v>
       </c>
       <c r="F563" s="23"/>
       <c r="G563" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -9263,15 +9393,15 @@
         <v>563</v>
       </c>
       <c r="C564" s="22" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D564" s="23" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E564" s="27"/>
       <c r="F564" s="23"/>
       <c r="G564" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -9282,7 +9412,7 @@
         <v>10</v>
       </c>
       <c r="D565" s="23" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E565" s="27"/>
       <c r="F565" s="23"/>
@@ -9306,14 +9436,14 @@
         <v>10</v>
       </c>
       <c r="D567" s="23" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E567" s="26" t="n">
         <v>44050</v>
       </c>
       <c r="F567" s="23"/>
       <c r="G567" s="23" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -9331,17 +9461,17 @@
         <v>568</v>
       </c>
       <c r="C569" s="22" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D569" s="23" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E569" s="26" t="n">
         <v>44051</v>
       </c>
       <c r="F569" s="23"/>
       <c r="G569" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -9362,14 +9492,14 @@
         <v>300</v>
       </c>
       <c r="D571" s="23" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="E571" s="26" t="n">
         <v>44052</v>
       </c>
       <c r="F571" s="23"/>
       <c r="G571" s="23" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -9384,16 +9514,16 @@
         <v>572</v>
       </c>
       <c r="C573" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D573" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E573" s="24" t="n">
         <v>44054</v>
       </c>
       <c r="G573" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -9408,16 +9538,16 @@
         <v>574</v>
       </c>
       <c r="C575" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D575" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E575" s="24" t="n">
         <v>44057</v>
       </c>
       <c r="G575" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -9432,16 +9562,16 @@
         <v>576</v>
       </c>
       <c r="C577" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D577" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E577" s="24" t="n">
         <v>44059</v>
       </c>
       <c r="G577" s="20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -9449,13 +9579,13 @@
         <v>577</v>
       </c>
       <c r="C578" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D578" s="12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G578" s="23" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="579" spans="1:1">
@@ -9471,13 +9601,13 @@
         <v>85</v>
       </c>
       <c r="D580" s="12" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E580" s="24" t="n">
         <v>44061</v>
       </c>
       <c r="G580" s="20" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -9493,10 +9623,10 @@
         <v>581</v>
       </c>
       <c r="C582" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D582" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E582" s="29" t="n">
         <v>44063</v>
@@ -9507,10 +9637,10 @@
         <v>582</v>
       </c>
       <c r="C583" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D583" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E583"/>
     </row>
@@ -9519,10 +9649,10 @@
         <v>583</v>
       </c>
       <c r="C584" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D584" s="12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E584" s="24" t="n">
         <v>44065</v>
@@ -9543,10 +9673,10 @@
         <v>586</v>
       </c>
       <c r="C587" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D587" s="12" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E587" s="24" t="n">
         <v>44068</v>
@@ -9560,7 +9690,7 @@
         <v>7</v>
       </c>
       <c r="D588" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -9568,10 +9698,10 @@
         <v>588</v>
       </c>
       <c r="C589" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="E589" s="24" t="n">
         <v>44069</v>
@@ -9756,7 +9886,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614501811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9765,14 +9895,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614501811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9794,7 +9924,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614501811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9803,14 +9933,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614501811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9832,7 +9962,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614501811" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9841,14 +9971,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614501811" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614501811" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/code/data/excels/raw_copy_expenses.xlsx
+++ b/app/code/data/excels/raw_copy_expenses.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614502180" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614502180" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614502180" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614502180"/>
+      <pm:revision xmlns:pm="smNativeData" day="1616078867" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1616078867" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1616078867" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1616078867"/>
     </ext>
   </extLst>
 </workbook>
@@ -1273,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614502180" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1328,7 +1328,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1359,8 +1359,19 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1616078867" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1376,7 +1387,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180"/>
+          <pm:border xmlns:pm="smNativeData" id="1616078867"/>
         </ext>
       </extLst>
     </border>
@@ -1395,7 +1406,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1416,7 +1427,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1438,7 +1449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1459,7 +1470,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1480,7 +1491,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1502,7 +1513,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1525,7 +1536,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1547,9 +1558,28 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614502180">
+          <pm:border xmlns:pm="smNativeData" id="1616078867">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1616078867"/>
         </ext>
       </extLst>
     </border>
@@ -1628,10 +1658,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614502180" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1616078867" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614502180" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1616078867" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1897,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K624"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G11"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="150" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
@@ -2118,7 +2148,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>25</v>
@@ -3263,7 +3293,7 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" t="n">
-        <v>13.9199999999999999</v>
+        <v>13.9200000000000017</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>103</v>
@@ -3547,7 +3577,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="n">
-        <v>10.3399999999999999</v>
+        <v>10.3400000000000016</v>
       </c>
       <c r="D114" s="13" t="s">
         <v>120</v>
@@ -5637,7 +5667,7 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3" t="n">
-        <v>11.4199999999999999</v>
+        <v>11.4200000000000017</v>
       </c>
       <c r="D267" s="13" t="s">
         <v>232</v>
@@ -7846,7 +7876,7 @@
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="3" t="n">
-        <v>114.109999999999999</v>
+        <v>114.110000000000014</v>
       </c>
       <c r="D432" s="13" t="s">
         <v>92</v>
@@ -9886,7 +9916,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9895,14 +9925,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9924,7 +9954,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9933,14 +9963,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9962,7 +9992,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614502180" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9971,14 +10001,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614502180" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614502180" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/app/code/data/excels/raw_copy_expenses.xlsx
+++ b/app/code/data/excels/raw_copy_expenses.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1616078867" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1616078867" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1616078867" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1616078867"/>
+      <pm:revision xmlns:pm="smNativeData" day="1627727789" val="980" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1627727789" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1627727789" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1627727789"/>
     </ext>
   </extLst>
 </workbook>
@@ -1273,7 +1273,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1627727789" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -1288,7 +1288,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1627727789" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1304,7 +1304,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1627727789" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -1319,7 +1319,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1616078867" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1627727789" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1365,7 +1365,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1616078867" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1627727789" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -1387,7 +1387,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867"/>
+          <pm:border xmlns:pm="smNativeData" id="1627727789"/>
         </ext>
       </extLst>
     </border>
@@ -1406,7 +1406,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1427,7 +1427,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1449,7 +1449,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1470,7 +1470,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1491,7 +1491,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1513,7 +1513,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
@@ -1536,7 +1536,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="top" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="30" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1558,7 +1558,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867">
+          <pm:border xmlns:pm="smNativeData" id="1627727789">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1579,7 +1579,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1616078867"/>
+          <pm:border xmlns:pm="smNativeData" id="1627727789"/>
         </ext>
       </extLst>
     </border>
@@ -1587,7 +1587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1595,9 +1595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1612,20 +1609,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1635,7 +1623,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1643,7 +1630,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1651,6 +1637,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1658,10 +1654,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1616078867" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1627727789" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1616078867" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1627727789" count="1">
         <pm:color name="Gris 20%" rgb="000000"/>
       </pm:colors>
     </ext>
@@ -1927,47 +1923,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K624"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="150" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="80" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.553571" defaultRowHeight="15.40"/>
   <cols>
     <col min="2" max="2" width="17.553571" customWidth="1"/>
     <col min="3" max="3" width="16.107143" customWidth="1"/>
-    <col min="4" max="4" width="51.330357" customWidth="1" style="12"/>
-    <col min="5" max="5" width="12.000000" customWidth="1" style="24"/>
+    <col min="4" max="4" width="49.330357" customWidth="1" style="9"/>
+    <col min="5" max="5" width="12.000000" customWidth="1" style="18"/>
     <col min="6" max="6" width="10.544643" customWidth="1"/>
-    <col min="7" max="7" width="36.330357" customWidth="1" style="20"/>
+    <col min="7" max="7" width="36.330357" customWidth="1" style="15"/>
     <col min="9" max="9" width="18.437500" customWidth="1"/>
     <col min="10" max="10" width="13.107143" customWidth="1"/>
     <col min="11" max="11" width="14.000000" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1975,16 +1971,16 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="27" t="n">
         <v>246.550000000000011</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="n">
+      <c r="E2" s="18" t="n">
         <v>43678</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1992,13 +1988,13 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="27" t="n">
         <v>545.230000000000018</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2006,71 +2002,71 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="24" t="n">
+      <c r="E4" s="18" t="n">
         <v>43681</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="27">
         <f>75+60</f>
         <v>135</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="24" t="n">
+      <c r="E5" s="18" t="n">
         <v>43683</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="E6" s="18" t="n">
         <v>43687</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="27" t="n">
         <v>50</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2078,16 +2074,16 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="24" t="n">
+      <c r="E8" s="18" t="n">
         <v>43692</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2095,17 +2091,17 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="28" t="n">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="24" t="n">
+      <c r="E9" s="18" t="n">
         <v>43694</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2117,13 +2113,13 @@
       <c r="C10" s="3" t="n">
         <v>6.5</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="24" t="n">
+      <c r="E10" s="18" t="n">
         <v>43699</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2135,10 +2131,10 @@
       <c r="C11" t="n">
         <v>117.5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2148,12 +2144,12 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" t="n">
-        <v>10.3400000000000016</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>10.3399999999999999</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2165,10 +2161,10 @@
       <c r="C13" t="n">
         <v>6.61000000000000032</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2180,10 +2176,10 @@
       <c r="C14" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2195,13 +2191,13 @@
       <c r="C15" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="24" t="n">
+      <c r="E15" s="18" t="n">
         <v>43700</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2213,10 +2209,10 @@
       <c r="C16" t="n">
         <v>183.789999999999992</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2228,10 +2224,10 @@
       <c r="C17" t="n">
         <v>102.590000000000003</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2243,10 +2239,10 @@
       <c r="C18" t="n">
         <v>17.1900000000000013</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2258,10 +2254,10 @@
       <c r="C19" t="n">
         <v>39.3599999999999994</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2273,10 +2269,10 @@
       <c r="C20" t="n">
         <v>68.9599999999999937</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2288,10 +2284,10 @@
       <c r="C21" t="n">
         <v>8.75</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2303,10 +2299,10 @@
       <c r="C22" t="n">
         <v>6.71999999999999975</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2318,10 +2314,10 @@
       <c r="C23" t="n">
         <v>18</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2333,10 +2329,10 @@
       <c r="C24" s="1" t="n">
         <v>8.25</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2348,13 +2344,13 @@
       <c r="C25" s="3" t="n">
         <v>20.6600000000000001</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="18" t="n">
         <v>43701</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2366,10 +2362,10 @@
       <c r="C26" t="n">
         <v>30.1700000000000017</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2381,10 +2377,10 @@
       <c r="C27" t="n">
         <v>18.370000000000001</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2396,10 +2392,10 @@
       <c r="C28" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2411,10 +2407,10 @@
       <c r="C29" t="n">
         <v>11.0999999999999996</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2426,10 +2422,10 @@
       <c r="C30" t="n">
         <v>60.2199999999999989</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2441,10 +2437,10 @@
       <c r="C31" s="1" t="n">
         <v>8.25</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2456,13 +2452,13 @@
       <c r="C32" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="24" t="n">
+      <c r="E32" s="18" t="n">
         <v>43702</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2474,10 +2470,10 @@
       <c r="C33" s="1" t="n">
         <v>49.1799999999999997</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2489,13 +2485,13 @@
       <c r="C34" s="3" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="24" t="n">
+      <c r="E34" s="18" t="n">
         <v>43703</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2507,10 +2503,10 @@
       <c r="C35" t="n">
         <v>14.25</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2522,10 +2518,10 @@
       <c r="C36" t="n">
         <v>22.4200000000000017</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2537,10 +2533,10 @@
       <c r="C37" t="n">
         <v>10.5800000000000001</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2552,10 +2548,10 @@
       <c r="C38" s="1" t="n">
         <v>197.740000000000009</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2567,13 +2563,13 @@
       <c r="C39" s="3" t="n">
         <v>25.25</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="24" t="n">
+      <c r="E39" s="18" t="n">
         <v>43704</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2585,10 +2581,10 @@
       <c r="C40" t="n">
         <v>6.33000000000000007</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2600,10 +2596,10 @@
       <c r="C41" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2615,10 +2611,10 @@
       <c r="C42" t="n">
         <v>45.9799999999999969</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2630,13 +2626,13 @@
       <c r="C43" s="3" t="n">
         <v>47.5300000000000011</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="24" t="n">
+      <c r="E43" s="18" t="n">
         <v>43705</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2648,10 +2644,10 @@
       <c r="C44" t="n">
         <v>357.860000000000014</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2663,10 +2659,10 @@
       <c r="C45" t="n">
         <v>41.8100000000000023</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2678,10 +2674,10 @@
       <c r="C46" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="20" t="s">
+      <c r="G46" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2693,13 +2689,13 @@
       <c r="C47" s="3" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="24" t="n">
+      <c r="E47" s="18" t="n">
         <v>43706</v>
       </c>
-      <c r="G47" s="20" t="s">
+      <c r="G47" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2711,7 +2707,7 @@
       <c r="C48" t="n">
         <v>18.2399999999999984</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2723,7 +2719,7 @@
       <c r="C49" t="n">
         <v>16.1999999999999993</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2735,7 +2731,7 @@
       <c r="C50" t="n">
         <v>3.43999999999999995</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2747,7 +2743,7 @@
       <c r="C51" t="n">
         <v>120.599999999999994</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2759,7 +2755,7 @@
       <c r="C52" t="n">
         <v>51.4399999999999977</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2771,7 +2767,7 @@
       <c r="C53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2783,10 +2779,10 @@
       <c r="C54" s="3" t="n">
         <v>11.0500000000000007</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="24" t="n">
+      <c r="E54" s="18" t="n">
         <v>43707</v>
       </c>
     </row>
@@ -2798,7 +2794,7 @@
       <c r="C55" t="n">
         <v>4.03000000000000025</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2810,7 +2806,7 @@
       <c r="C56" t="n">
         <v>6.20000000000000018</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2822,7 +2818,7 @@
       <c r="C57" s="1" t="n">
         <v>14.8300000000000001</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2834,10 +2830,10 @@
       <c r="C58" s="3" t="n">
         <v>42.1099999999999994</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="24" t="n">
+      <c r="E58" s="18" t="n">
         <v>43708</v>
       </c>
     </row>
@@ -2849,7 +2845,7 @@
       <c r="C59" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2858,8 +2854,8 @@
         <v>59</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="n">
@@ -2869,13 +2865,13 @@
       <c r="C61" t="n">
         <v>7</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="24" t="n">
+      <c r="E61" s="18" t="n">
         <v>43711</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2887,10 +2883,10 @@
       <c r="C62" t="n">
         <v>57.5700000000000003</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2900,7 +2896,7 @@
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="14"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="n">
@@ -2910,13 +2906,13 @@
       <c r="C64" s="3" t="n">
         <v>59.8999999999999986</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="24" t="n">
+      <c r="E64" s="18" t="n">
         <v>43713</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2926,7 +2922,7 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="14"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="n">
@@ -2936,13 +2932,13 @@
       <c r="C66" s="3" t="n">
         <v>147.060000000000002</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="24" t="n">
+      <c r="E66" s="18" t="n">
         <v>43714</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2954,10 +2950,10 @@
       <c r="C67" t="n">
         <v>10.4499999999999993</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2969,10 +2965,10 @@
       <c r="C68" t="n">
         <v>10.0099999999999998</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G68" s="20" t="s">
+      <c r="G68" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2984,7 +2980,7 @@
       <c r="C69" t="n">
         <v>168</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2994,7 +2990,7 @@
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="14"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="n">
@@ -3004,13 +3000,13 @@
       <c r="C71" s="3" t="n">
         <v>20.4699999999999989</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="24" t="n">
+      <c r="E71" s="18" t="n">
         <v>43715</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="G71" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3020,7 +3016,7 @@
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="14"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="n">
@@ -3030,13 +3026,13 @@
       <c r="C73" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="24" t="n">
+      <c r="E73" s="18" t="n">
         <v>43716</v>
       </c>
-      <c r="G73" s="20" t="s">
+      <c r="G73" s="15" t="s">
         <v>83</v>
       </c>
     </row>
@@ -3048,10 +3044,10 @@
       <c r="C74" t="n">
         <v>9</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G74" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3061,7 +3057,7 @@
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="14"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="n">
@@ -3071,13 +3067,13 @@
       <c r="C76" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="24" t="n">
+      <c r="E76" s="18" t="n">
         <v>43717</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3087,7 +3083,7 @@
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="14"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="n">
@@ -3097,10 +3093,10 @@
       <c r="C78" s="3" t="n">
         <v>9.25</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G78" s="20" t="s">
+      <c r="G78" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3110,7 +3106,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="14"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="n">
@@ -3120,10 +3116,10 @@
       <c r="C80" s="3" t="n">
         <v>55.8999999999999986</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="24" t="n">
+      <c r="E80" s="18" t="n">
         <v>43719</v>
       </c>
     </row>
@@ -3135,7 +3131,7 @@
       <c r="C81" t="n">
         <v>30</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3147,7 +3143,7 @@
       <c r="C82" t="n">
         <v>16.5</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3159,7 +3155,7 @@
       <c r="C83" t="n">
         <v>60</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3169,7 +3165,7 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="n">
@@ -3179,10 +3175,10 @@
       <c r="C85" s="3" t="n">
         <v>60.8299999999999983</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="24" t="n">
+      <c r="E85" s="18" t="n">
         <v>43720</v>
       </c>
     </row>
@@ -3192,7 +3188,7 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="n">
@@ -3202,13 +3198,13 @@
       <c r="C87" s="3" t="n">
         <v>31.0399999999999991</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E87" s="24" t="n">
+      <c r="E87" s="18" t="n">
         <v>43721</v>
       </c>
-      <c r="G87" s="20" t="s">
+      <c r="G87" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3220,10 +3216,10 @@
       <c r="C88" t="n">
         <v>60.3400000000000034</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G88" s="20" t="s">
+      <c r="G88" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3235,10 +3231,10 @@
       <c r="C89" t="n">
         <v>26.4200000000000017</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G89" s="20" t="s">
+      <c r="G89" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3250,10 +3246,10 @@
       <c r="C90" t="n">
         <v>14.9199999999999999</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="G90" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3265,10 +3261,10 @@
       <c r="C91" t="n">
         <v>42.9699999999999989</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G91" s="20" t="s">
+      <c r="G91" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3280,10 +3276,10 @@
       <c r="C92" t="n">
         <v>14.9199999999999999</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G92" s="20" t="s">
+      <c r="G92" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3293,12 +3289,12 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" t="n">
-        <v>13.9200000000000017</v>
-      </c>
-      <c r="D93" s="12" t="s">
+        <v>13.9199999999999999</v>
+      </c>
+      <c r="D93" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G93" s="20" t="s">
+      <c r="G93" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3308,7 +3304,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="14"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="n">
@@ -3318,13 +3314,13 @@
       <c r="C95" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="24" t="n">
+      <c r="E95" s="18" t="n">
         <v>43723</v>
       </c>
-      <c r="G95" s="20" t="s">
+      <c r="G95" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3336,10 +3332,10 @@
       <c r="C96" t="n">
         <v>23</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G96" s="20" t="s">
+      <c r="G96" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3349,7 +3345,7 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="14"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="n">
@@ -3359,13 +3355,13 @@
       <c r="C98" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E98" s="24" t="n">
+      <c r="E98" s="18" t="n">
         <v>43725</v>
       </c>
-      <c r="G98" s="20" t="s">
+      <c r="G98" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3377,10 +3373,10 @@
       <c r="C99" t="n">
         <v>32</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G99" s="20" t="s">
+      <c r="G99" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3390,7 +3386,7 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="14"/>
+      <c r="D100" s="11"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="n">
@@ -3400,13 +3396,13 @@
       <c r="C101" s="3" t="n">
         <v>8.96000000000000085</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="24" t="n">
+      <c r="E101" s="18" t="n">
         <v>43726</v>
       </c>
-      <c r="G101" s="20" t="s">
+      <c r="G101" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3416,7 +3412,7 @@
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="14"/>
+      <c r="D102" s="11"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="n">
@@ -3426,13 +3422,13 @@
       <c r="C103" s="3" t="n">
         <v>24.7399999999999984</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E103" s="24" t="n">
+      <c r="E103" s="18" t="n">
         <v>43727</v>
       </c>
-      <c r="G103" s="20" t="s">
+      <c r="G103" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3442,7 +3438,7 @@
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="14"/>
+      <c r="D104" s="11"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="n">
@@ -3452,13 +3448,13 @@
       <c r="C105" s="3" t="n">
         <v>35.25</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E105" s="24" t="n">
+      <c r="E105" s="18" t="n">
         <v>43728</v>
       </c>
-      <c r="G105" s="20" t="s">
+      <c r="G105" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3470,10 +3466,10 @@
       <c r="C106" t="n">
         <v>5.58999999999999986</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G106" s="20" t="s">
+      <c r="G106" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3485,10 +3481,10 @@
       <c r="C107" t="n">
         <v>11.5399999999999991</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G107" s="20" t="s">
+      <c r="G107" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3500,10 +3496,10 @@
       <c r="C108" t="n">
         <v>13.8000000000000007</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G108" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3515,10 +3511,10 @@
       <c r="C109" t="n">
         <v>25</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="G109" s="20" t="s">
+      <c r="G109" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3528,7 +3524,7 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="14"/>
+      <c r="D110" s="11"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="n">
@@ -3538,13 +3534,13 @@
       <c r="C111" s="3" t="n">
         <v>6.90000000000000036</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E111" s="24" t="n">
+      <c r="E111" s="18" t="n">
         <v>43729</v>
       </c>
-      <c r="G111" s="20" t="s">
+      <c r="G111" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3556,10 +3552,10 @@
       <c r="C112" t="n">
         <v>12.1500000000000004</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G112" s="20" t="s">
+      <c r="G112" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3569,7 +3565,7 @@
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="14"/>
+      <c r="D113" s="11"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="n">
@@ -3577,15 +3573,15 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="3" t="n">
-        <v>10.3400000000000016</v>
-      </c>
-      <c r="D114" s="13" t="s">
+        <v>10.3399999999999999</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E114" s="24" t="n">
+      <c r="E114" s="18" t="n">
         <v>43731</v>
       </c>
-      <c r="G114" s="20" t="s">
+      <c r="G114" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3597,10 +3593,10 @@
       <c r="C115" t="n">
         <v>28.629999999999999</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G115" s="20" t="s">
+      <c r="G115" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3612,10 +3608,10 @@
       <c r="C116" t="n">
         <v>28.7399999999999984</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G116" s="15" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3627,10 +3623,10 @@
       <c r="C117" t="n">
         <v>59.7100000000000009</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G117" s="15" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3642,10 +3638,10 @@
       <c r="C118" t="n">
         <v>27.879999999999999</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G118" s="20" t="s">
+      <c r="G118" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3662,13 +3658,13 @@
       <c r="B120" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E120" s="24" t="n">
+      <c r="E120" s="18" t="n">
         <v>43733</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G120" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3679,10 +3675,10 @@
       <c r="B121" t="n">
         <v>91</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G121" s="20" t="s">
+      <c r="G121" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3693,10 +3689,10 @@
       <c r="B122" t="n">
         <v>-600</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="15" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3707,10 +3703,10 @@
       <c r="B123" t="n">
         <v>-91</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G123" s="20" t="s">
+      <c r="G123" s="15" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3720,7 +3716,7 @@
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="16"/>
+      <c r="D124" s="25"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="n">
@@ -3730,13 +3726,13 @@
       <c r="C125" s="3" t="n">
         <v>35.0200000000000031</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E125" s="24" t="n">
+      <c r="E125" s="18" t="n">
         <v>43734</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G125" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3748,10 +3744,10 @@
       <c r="C126" t="n">
         <v>12.9499999999999993</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G126" s="20" t="s">
+      <c r="G126" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3763,10 +3759,10 @@
       <c r="C127" t="n">
         <v>23.6799999999999997</v>
       </c>
-      <c r="D127" s="16" t="s">
+      <c r="D127" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G127" s="20" t="s">
+      <c r="G127" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3778,11 +3774,11 @@
       <c r="C128" t="n">
         <v>3.04000000000000004</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F128" s="30"/>
-      <c r="G128" s="20" t="s">
+      <c r="F128" s="22"/>
+      <c r="G128" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3794,10 +3790,10 @@
       <c r="C129" t="n">
         <v>70.0900000000000034</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G129" s="20" t="s">
+      <c r="G129" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3807,7 +3803,7 @@
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="14"/>
+      <c r="D130" s="11"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="n">
@@ -3817,13 +3813,13 @@
       <c r="C131" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E131" s="24" t="n">
+      <c r="E131" s="18" t="n">
         <v>43735</v>
       </c>
-      <c r="G131" s="20" t="s">
+      <c r="G131" s="15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3833,7 +3829,7 @@
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="14"/>
+      <c r="D132" s="11"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="n">
@@ -3843,13 +3839,13 @@
       <c r="C133" s="3" t="n">
         <v>13.4700000000000006</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E133" s="24" t="n">
+      <c r="E133" s="18" t="n">
         <v>43737</v>
       </c>
-      <c r="G133" s="20" t="s">
+      <c r="G133" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3859,7 +3855,7 @@
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="14"/>
+      <c r="D134" s="11"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="n">
@@ -3869,13 +3865,13 @@
       <c r="C135" s="3" t="n">
         <v>41.3599999999999994</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E135" s="24" t="n">
+      <c r="E135" s="18" t="n">
         <v>43738</v>
       </c>
-      <c r="G135" s="20" t="s">
+      <c r="G135" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3887,10 +3883,10 @@
       <c r="C136" t="n">
         <v>14</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D136" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G136" s="20" t="s">
+      <c r="G136" s="15" t="s">
         <v>145</v>
       </c>
       <c r="I136" t="s">
@@ -3908,8 +3904,8 @@
         <v>137</v>
       </c>
       <c r="B138" s="6"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="15"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="12"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="n">
@@ -3919,13 +3915,13 @@
       <c r="C139" t="n">
         <v>6.38999999999999968</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E139" s="24" t="n">
+      <c r="E139" s="18" t="n">
         <v>43741</v>
       </c>
-      <c r="G139" s="20" t="s">
+      <c r="G139" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3937,10 +3933,10 @@
       <c r="C140" t="n">
         <v>160.689999999999998</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G140" s="20" t="s">
+      <c r="G140" s="15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3950,7 +3946,7 @@
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="14"/>
+      <c r="D141" s="11"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="n">
@@ -3960,13 +3956,13 @@
       <c r="C142" s="3" t="n">
         <v>53.240000000000002</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E142" s="24" t="n">
+      <c r="E142" s="18" t="n">
         <v>43742</v>
       </c>
-      <c r="G142" s="20" t="s">
+      <c r="G142" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3978,10 +3974,10 @@
       <c r="C143" t="n">
         <v>9</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D143" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G143" s="20" t="s">
+      <c r="G143" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3991,7 +3987,7 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="14"/>
+      <c r="D144" s="11"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="n">
@@ -4001,13 +3997,13 @@
       <c r="C145" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E145" s="24" t="n">
+      <c r="E145" s="18" t="n">
         <v>43743</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="15" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4019,10 +4015,10 @@
       <c r="C146" t="n">
         <v>42.2100000000000009</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4032,7 +4028,7 @@
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="14"/>
+      <c r="D147" s="11"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="n">
@@ -4042,13 +4038,13 @@
       <c r="C148" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D148" s="13" t="s">
+      <c r="D148" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E148" s="24" t="n">
+      <c r="E148" s="18" t="n">
         <v>43747</v>
       </c>
-      <c r="G148" s="20" t="s">
+      <c r="G148" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4058,7 +4054,7 @@
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="14"/>
+      <c r="D149" s="11"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="n">
@@ -4068,13 +4064,13 @@
       <c r="C150" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="D150" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E150" s="24" t="n">
+      <c r="E150" s="18" t="n">
         <v>43748</v>
       </c>
-      <c r="G150" s="20" t="s">
+      <c r="G150" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4085,10 +4081,10 @@
       <c r="B151" s="4" t="n">
         <v>222.300000000000011</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G151" s="20" t="s">
+      <c r="G151" s="15" t="s">
         <v>157</v>
       </c>
       <c r="I151" t="s">
@@ -4102,10 +4098,10 @@
       <c r="B152" s="4" t="n">
         <v>189.360000000000014</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G152" s="20" t="s">
+      <c r="G152" s="15" t="s">
         <v>159</v>
       </c>
       <c r="I152" t="s">
@@ -4119,10 +4115,10 @@
       <c r="B153" s="4" t="n">
         <v>4.71999999999999975</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G153" s="20" t="s">
+      <c r="G153" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4140,13 +4136,13 @@
       <c r="C155" s="3" t="n">
         <v>57.4799999999999969</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E155" s="24" t="n">
+      <c r="E155" s="18" t="n">
         <v>43749</v>
       </c>
-      <c r="G155" s="20" t="s">
+      <c r="G155" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4158,10 +4154,10 @@
       <c r="C156" t="n">
         <v>40.3100000000000023</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G156" s="20" t="s">
+      <c r="G156" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4172,10 +4168,10 @@
       <c r="B157" s="4" t="n">
         <v>10.8000000000000007</v>
       </c>
-      <c r="D157" s="12" t="s">
+      <c r="D157" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G157" s="20" t="s">
+      <c r="G157" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4186,10 +4182,10 @@
       <c r="B158" s="4" t="n">
         <v>7.11000000000000032</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G158" s="20" t="s">
+      <c r="G158" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4199,7 +4195,7 @@
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="14"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="n">
@@ -4209,13 +4205,13 @@
       <c r="C160" t="n">
         <v>14</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D160" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E160" s="24" t="n">
+      <c r="E160" s="18" t="n">
         <v>43750</v>
       </c>
-      <c r="G160" s="20" t="s">
+      <c r="G160" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4225,7 +4221,7 @@
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="14"/>
+      <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="n">
@@ -4235,13 +4231,13 @@
         <v>32.1099999999999994</v>
       </c>
       <c r="C162" s="3"/>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E162" s="24" t="n">
+      <c r="E162" s="18" t="n">
         <v>43751</v>
       </c>
-      <c r="G162" s="20" t="s">
+      <c r="G162" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4251,7 +4247,7 @@
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="14"/>
+      <c r="D163" s="11"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="n">
@@ -4261,13 +4257,13 @@
       <c r="C164" s="3" t="n">
         <v>29.9899999999999984</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E164" s="24" t="n">
+      <c r="E164" s="18" t="n">
         <v>43752</v>
       </c>
-      <c r="G164" s="20" t="s">
+      <c r="G164" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4278,10 +4274,10 @@
       <c r="B165" s="4" t="n">
         <v>530.75</v>
       </c>
-      <c r="D165" s="12" t="s">
+      <c r="D165" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="G165" s="20" t="s">
+      <c r="G165" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I165" t="s">
@@ -4302,13 +4298,13 @@
       <c r="C167" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E167" s="24" t="n">
+      <c r="E167" s="18" t="n">
         <v>43754</v>
       </c>
-      <c r="G167" s="20" t="s">
+      <c r="G167" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4320,10 +4316,10 @@
       <c r="C168" t="n">
         <v>20</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G168" s="20" t="s">
+      <c r="G168" s="15" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4341,13 +4337,13 @@
         <v>21.1900000000000013</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E170" s="24" t="n">
+      <c r="E170" s="18" t="n">
         <v>43756</v>
       </c>
-      <c r="G170" s="20" t="s">
+      <c r="G170" s="15" t="s">
         <v>104</v>
       </c>
       <c r="I170" t="s">
@@ -4361,10 +4357,10 @@
       <c r="B171" s="4" t="n">
         <v>11.1600000000000001</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G171" s="20" t="s">
+      <c r="G171" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I171" t="s">
@@ -4378,10 +4374,10 @@
       <c r="B172" s="4" t="n">
         <v>9.25999999999999979</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D172" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G172" s="20" t="s">
+      <c r="G172" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I172" t="s">
@@ -4395,10 +4391,10 @@
       <c r="B173" s="4" t="n">
         <v>5.41999999999999993</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="D173" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G173" s="20" t="s">
+      <c r="G173" s="15" t="s">
         <v>145</v>
       </c>
       <c r="I173" t="s">
@@ -4411,7 +4407,7 @@
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="14"/>
+      <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="n">
@@ -4420,13 +4416,13 @@
       <c r="B175" s="4" t="n">
         <v>38.2000000000000028</v>
       </c>
-      <c r="D175" s="12" t="s">
+      <c r="D175" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E175" s="24" t="n">
+      <c r="E175" s="18" t="n">
         <v>43757</v>
       </c>
-      <c r="G175" s="20" t="s">
+      <c r="G175" s="15" t="s">
         <v>173</v>
       </c>
       <c r="I175" t="s">
@@ -4440,10 +4436,10 @@
       <c r="B176" s="4" t="n">
         <v>67.5400000000000063</v>
       </c>
-      <c r="D176" s="12" t="s">
+      <c r="D176" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G176" s="20" t="s">
+      <c r="G176" s="15" t="s">
         <v>102</v>
       </c>
       <c r="I176" t="s">
@@ -4457,10 +4453,10 @@
       <c r="B177" s="4" t="n">
         <v>9.48000000000000043</v>
       </c>
-      <c r="D177" s="12" t="s">
+      <c r="D177" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G177" s="20" t="s">
+      <c r="G177" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I177" t="s">
@@ -4474,10 +4470,10 @@
       <c r="B178" s="4" t="n">
         <v>5.40000000000000036</v>
       </c>
-      <c r="D178" s="12" t="s">
+      <c r="D178" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="G178" s="20" t="s">
+      <c r="G178" s="15" t="s">
         <v>176</v>
       </c>
       <c r="I178" t="s">
@@ -4491,10 +4487,10 @@
       <c r="B179" s="4" t="n">
         <v>18.25</v>
       </c>
-      <c r="D179" s="12" t="s">
+      <c r="D179" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G179" s="20" t="s">
+      <c r="G179" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I179" t="s">
@@ -4507,7 +4503,7 @@
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="14"/>
+      <c r="D180" s="11"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="n">
@@ -4517,13 +4513,13 @@
         <v>2.70000000000000018</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="13" t="s">
+      <c r="D181" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E181" s="24" t="n">
+      <c r="E181" s="18" t="n">
         <v>43758</v>
       </c>
-      <c r="G181" s="20" t="s">
+      <c r="G181" s="15" t="s">
         <v>176</v>
       </c>
       <c r="I181" t="s">
@@ -4537,10 +4533,10 @@
       <c r="B182" s="4" t="n">
         <v>11.5399999999999991</v>
       </c>
-      <c r="D182" s="12" t="s">
+      <c r="D182" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G182" s="20" t="s">
+      <c r="G182" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I182" t="s">
@@ -4554,10 +4550,10 @@
       <c r="B183" s="4" t="n">
         <v>12.8000000000000007</v>
       </c>
-      <c r="D183" s="12" t="s">
+      <c r="D183" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G183" s="20" t="s">
+      <c r="G183" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I183" t="s">
@@ -4570,7 +4566,7 @@
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="14"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="n">
@@ -4580,13 +4576,13 @@
         <v>16.6999999999999993</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="13" t="s">
+      <c r="D185" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E185" s="24" t="n">
+      <c r="E185" s="18" t="n">
         <v>43759</v>
       </c>
-      <c r="G185" s="20" t="s">
+      <c r="G185" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I185" t="s">
@@ -4600,10 +4596,10 @@
       <c r="B186" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D186" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="20" t="s">
+      <c r="G186" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I186" t="s">
@@ -4616,14 +4612,14 @@
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="14"/>
+      <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="n">
         <v>187</v>
       </c>
       <c r="B188" s="4"/>
-      <c r="E188" s="24" t="n">
+      <c r="E188" s="18" t="n">
         <v>43760</v>
       </c>
     </row>
@@ -4635,10 +4631,10 @@
       <c r="C189" t="n">
         <v>43.4399999999999977</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D189" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G189" s="20" t="s">
+      <c r="G189" s="15" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4648,7 +4644,7 @@
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="14"/>
+      <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="n">
@@ -4658,13 +4654,13 @@
       <c r="C191" s="3" t="n">
         <v>27.5100000000000016</v>
       </c>
-      <c r="D191" s="13" t="s">
+      <c r="D191" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E191" s="24" t="n">
+      <c r="E191" s="18" t="n">
         <v>43761</v>
       </c>
-      <c r="G191" s="20" t="s">
+      <c r="G191" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4676,10 +4672,10 @@
       <c r="C192" t="n">
         <v>43.5200000000000031</v>
       </c>
-      <c r="D192" s="12" t="s">
+      <c r="D192" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G192" s="20" t="s">
+      <c r="G192" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4689,7 +4685,7 @@
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="14"/>
+      <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" t="n">
@@ -4699,13 +4695,13 @@
       <c r="C194" s="3" t="n">
         <v>4.79999999999999982</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="E194" s="24" t="n">
+      <c r="E194" s="18" t="n">
         <v>43763</v>
       </c>
-      <c r="G194" s="20" t="s">
+      <c r="G194" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4717,10 +4713,10 @@
       <c r="C195" t="n">
         <v>48.2700000000000031</v>
       </c>
-      <c r="D195" s="12" t="s">
+      <c r="D195" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G195" s="20" t="s">
+      <c r="G195" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4730,7 +4726,7 @@
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="14"/>
+      <c r="D196" s="11"/>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="n">
@@ -4744,13 +4740,13 @@
       <c r="B198" t="n">
         <v>8.67999999999999794</v>
       </c>
-      <c r="D198" s="12" t="s">
+      <c r="D198" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E198" s="24" t="n">
+      <c r="E198" s="18" t="n">
         <v>43765</v>
       </c>
-      <c r="G198" s="20" t="s">
+      <c r="G198" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4766,13 +4762,13 @@
       <c r="B200" t="n">
         <v>22</v>
       </c>
-      <c r="D200" s="12" t="s">
+      <c r="D200" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E200" s="24" t="n">
+      <c r="E200" s="18" t="n">
         <v>43766</v>
       </c>
-      <c r="G200" s="20" t="s">
+      <c r="G200" s="15" t="s">
         <v>153</v>
       </c>
       <c r="I200" t="s">
@@ -4793,7 +4789,7 @@
       <c r="A203" t="n">
         <v>202</v>
       </c>
-      <c r="E203" s="24" t="n">
+      <c r="E203" s="18" t="n">
         <v>43767</v>
       </c>
     </row>
@@ -4810,13 +4806,13 @@
         <v>20</v>
       </c>
       <c r="C205" s="3"/>
-      <c r="D205" s="13" t="s">
+      <c r="D205" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E205" s="24" t="n">
+      <c r="E205" s="18" t="n">
         <v>43768</v>
       </c>
-      <c r="G205" s="20" t="s">
+      <c r="G205" s="15" t="s">
         <v>149</v>
       </c>
       <c r="I205" t="s">
@@ -4829,7 +4825,7 @@
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="1"/>
-      <c r="D206" s="14"/>
+      <c r="D206" s="11"/>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="n">
@@ -4839,13 +4835,13 @@
         <v>85</v>
       </c>
       <c r="C207" s="3"/>
-      <c r="D207" s="13" t="s">
+      <c r="D207" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E207" s="24" t="n">
+      <c r="E207" s="18" t="n">
         <v>43769</v>
       </c>
-      <c r="G207" s="20" t="s">
+      <c r="G207" s="15" t="s">
         <v>149</v>
       </c>
       <c r="I207" t="s">
@@ -4858,7 +4854,7 @@
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="1"/>
-      <c r="D208" s="14"/>
+      <c r="D208" s="11"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="n">
@@ -4868,13 +4864,13 @@
         <v>41</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="13" t="s">
+      <c r="D209" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="E209" s="24" t="n">
+      <c r="E209" s="18" t="n">
         <v>43770</v>
       </c>
-      <c r="G209" s="20" t="s">
+      <c r="G209" s="15" t="s">
         <v>173</v>
       </c>
       <c r="I209" t="s">
@@ -4887,7 +4883,7 @@
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="1"/>
-      <c r="D210" s="14"/>
+      <c r="D210" s="11"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" t="n">
@@ -4897,13 +4893,13 @@
         <v>21.2199999999999989</v>
       </c>
       <c r="C211" s="3"/>
-      <c r="D211" s="13" t="s">
+      <c r="D211" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E211" s="24" t="n">
+      <c r="E211" s="18" t="n">
         <v>43773</v>
       </c>
-      <c r="G211" s="20" t="s">
+      <c r="G211" s="15" t="s">
         <v>98</v>
       </c>
       <c r="I211" t="s">
@@ -4916,7 +4912,7 @@
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="1"/>
-      <c r="D212" s="14"/>
+      <c r="D212" s="11"/>
     </row>
     <row r="213" spans="1:7">
       <c r="A213" t="n">
@@ -4926,13 +4922,13 @@
       <c r="C213" s="3" t="n">
         <v>30.2300000000000004</v>
       </c>
-      <c r="D213" s="13" t="s">
+      <c r="D213" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="E213" s="24" t="n">
+      <c r="E213" s="18" t="n">
         <v>43774</v>
       </c>
-      <c r="G213" s="20" t="s">
+      <c r="G213" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4943,10 +4939,10 @@
       <c r="B214" s="4" t="n">
         <v>8.96000000000000085</v>
       </c>
-      <c r="D214" s="12" t="s">
+      <c r="D214" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G214" s="20" t="s">
+      <c r="G214" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4956,7 +4952,7 @@
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="1"/>
-      <c r="D215" s="14"/>
+      <c r="D215" s="11"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" t="n">
@@ -4966,13 +4962,13 @@
       <c r="C216" s="3" t="n">
         <v>126.400000000000006</v>
       </c>
-      <c r="D216" s="13" t="s">
+      <c r="D216" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="E216" s="24" t="n">
+      <c r="E216" s="18" t="n">
         <v>43775</v>
       </c>
-      <c r="G216" s="20" t="s">
+      <c r="G216" s="15" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4984,10 +4980,10 @@
       <c r="C217" t="n">
         <v>13.2699999999999996</v>
       </c>
-      <c r="D217" s="12" t="s">
+      <c r="D217" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="G217" s="20" t="s">
+      <c r="G217" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4997,7 +4993,7 @@
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="1"/>
-      <c r="D218" s="14"/>
+      <c r="D218" s="11"/>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" t="n">
@@ -5007,13 +5003,13 @@
       <c r="C219" s="3" t="n">
         <v>79.1700000000000017</v>
       </c>
-      <c r="D219" s="13" t="s">
+      <c r="D219" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E219" s="24" t="n">
+      <c r="E219" s="18" t="n">
         <v>43777</v>
       </c>
-      <c r="G219" s="20" t="s">
+      <c r="G219" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5023,7 +5019,7 @@
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="1"/>
-      <c r="D220" s="14"/>
+      <c r="D220" s="11"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="n">
@@ -5033,13 +5029,13 @@
       <c r="C221" s="3" t="n">
         <v>44.0499999999999972</v>
       </c>
-      <c r="D221" s="13" t="s">
+      <c r="D221" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E221" s="24" t="n">
+      <c r="E221" s="18" t="n">
         <v>43778</v>
       </c>
-      <c r="G221" s="20" t="s">
+      <c r="G221" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5049,7 +5045,7 @@
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="1"/>
-      <c r="D222" s="14"/>
+      <c r="D222" s="11"/>
     </row>
     <row r="223" spans="1:7">
       <c r="A223" t="n">
@@ -5059,13 +5055,13 @@
       <c r="C223" s="3" t="n">
         <v>93.1299999999999955</v>
       </c>
-      <c r="D223" s="13" t="s">
+      <c r="D223" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E223" s="24" t="n">
+      <c r="E223" s="18" t="n">
         <v>43784</v>
       </c>
-      <c r="G223" s="20" t="s">
+      <c r="G223" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5077,10 +5073,10 @@
       <c r="C224" t="n">
         <v>53.9799999999999969</v>
       </c>
-      <c r="D224" s="12" t="s">
+      <c r="D224" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="G224" s="20" t="s">
+      <c r="G224" s="15" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5092,10 +5088,10 @@
       <c r="C225" t="n">
         <v>4.03000000000000025</v>
       </c>
-      <c r="D225" s="12" t="s">
+      <c r="D225" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G225" s="20" t="s">
+      <c r="G225" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5107,10 +5103,10 @@
       <c r="C226" t="n">
         <v>2.29999999999999982</v>
       </c>
-      <c r="D226" s="12" t="s">
+      <c r="D226" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="G226" s="20" t="s">
+      <c r="G226" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5120,7 +5116,7 @@
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="1"/>
-      <c r="D227" s="14"/>
+      <c r="D227" s="11"/>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" t="n">
@@ -5130,13 +5126,13 @@
       <c r="C228" s="3" t="n">
         <v>29.129999999999999</v>
       </c>
-      <c r="D228" s="13" t="s">
+      <c r="D228" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="E228" s="24" t="n">
+      <c r="E228" s="18" t="n">
         <v>43785</v>
       </c>
-      <c r="G228" s="20" t="s">
+      <c r="G228" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5148,10 +5144,10 @@
       <c r="C229" t="n">
         <v>61.1000000000000014</v>
       </c>
-      <c r="D229" s="12" t="s">
+      <c r="D229" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G229" s="20" t="s">
+      <c r="G229" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5161,7 +5157,7 @@
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="1"/>
-      <c r="D230" s="14"/>
+      <c r="D230" s="11"/>
     </row>
     <row r="231" spans="1:7">
       <c r="A231" t="n">
@@ -5171,13 +5167,13 @@
       <c r="C231" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="D231" s="13" t="s">
+      <c r="D231" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E231" s="24" t="n">
+      <c r="E231" s="18" t="n">
         <v>43786</v>
       </c>
-      <c r="G231" s="20" t="s">
+      <c r="G231" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5189,10 +5185,10 @@
       <c r="C232" t="n">
         <v>140</v>
       </c>
-      <c r="D232" s="12" t="s">
+      <c r="D232" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G232" s="20" t="s">
+      <c r="G232" s="15" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5204,10 +5200,10 @@
       <c r="C233" t="n">
         <v>33.3500000000000014</v>
       </c>
-      <c r="D233" s="12" t="s">
+      <c r="D233" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G233" s="20" t="s">
+      <c r="G233" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5217,7 +5213,7 @@
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="1"/>
-      <c r="D234" s="14"/>
+      <c r="D234" s="11"/>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" t="n">
@@ -5227,13 +5223,13 @@
       <c r="C235" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D235" s="13" t="s">
+      <c r="D235" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E235" s="24" t="n">
+      <c r="E235" s="18" t="n">
         <v>43791</v>
       </c>
-      <c r="G235" s="20" t="s">
+      <c r="G235" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I235" t="s">
@@ -5248,10 +5244,10 @@
       <c r="C236" t="n">
         <v>25.0100000000000016</v>
       </c>
-      <c r="D236" s="12" t="s">
+      <c r="D236" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G236" s="20" t="s">
+      <c r="G236" s="15" t="s">
         <v>98</v>
       </c>
       <c r="I236" t="s">
@@ -5266,10 +5262,10 @@
       <c r="C237" t="n">
         <v>-37</v>
       </c>
-      <c r="D237" s="12" t="s">
+      <c r="D237" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G237" s="20" t="s">
+      <c r="G237" s="15" t="s">
         <v>209</v>
       </c>
       <c r="I237" t="s">
@@ -5284,10 +5280,10 @@
       <c r="C238" t="n">
         <v>105</v>
       </c>
-      <c r="D238" s="12" t="s">
+      <c r="D238" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="G238" s="20" t="s">
+      <c r="G238" s="15" t="s">
         <v>157</v>
       </c>
       <c r="I238" t="s">
@@ -5300,7 +5296,7 @@
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="1"/>
-      <c r="D239" s="14"/>
+      <c r="D239" s="11"/>
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="n">
@@ -5310,13 +5306,13 @@
       <c r="C240" s="3" t="n">
         <v>80.6400000000000006</v>
       </c>
-      <c r="D240" s="13" t="s">
+      <c r="D240" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E240" s="24" t="n">
+      <c r="E240" s="18" t="n">
         <v>43797</v>
       </c>
-      <c r="G240" s="20" t="s">
+      <c r="G240" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5328,10 +5324,10 @@
       <c r="C241" t="n">
         <v>16</v>
       </c>
-      <c r="D241" s="12" t="s">
+      <c r="D241" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G241" s="20" t="s">
+      <c r="G241" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5342,10 +5338,10 @@
       <c r="B242" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="D242" s="12" t="s">
+      <c r="D242" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G242" s="20" t="s">
+      <c r="G242" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5357,10 +5353,10 @@
       <c r="C243" t="n">
         <v>24</v>
       </c>
-      <c r="D243" s="12" t="s">
+      <c r="D243" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G243" s="20" t="s">
+      <c r="G243" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5372,10 +5368,10 @@
       <c r="C244" t="n">
         <v>35</v>
       </c>
-      <c r="D244" s="12" t="s">
+      <c r="D244" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G244" s="20" t="s">
+      <c r="G244" s="15" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5385,7 +5381,7 @@
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="1"/>
-      <c r="D245" s="14"/>
+      <c r="D245" s="11"/>
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="n">
@@ -5395,13 +5391,13 @@
       <c r="C246" s="3" t="n">
         <v>17.25</v>
       </c>
-      <c r="D246" s="13" t="s">
+      <c r="D246" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E246" s="24" t="n">
+      <c r="E246" s="18" t="n">
         <v>43798</v>
       </c>
-      <c r="G246" s="20" t="s">
+      <c r="G246" s="15" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5413,10 +5409,10 @@
       <c r="C247" t="n">
         <v>29.1600000000000001</v>
       </c>
-      <c r="D247" s="12" t="s">
+      <c r="D247" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G247" s="20" t="s">
+      <c r="G247" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5431,8 +5427,8 @@
         <v>248</v>
       </c>
       <c r="B249" s="6"/>
-      <c r="C249" s="10"/>
-      <c r="D249" s="15"/>
+      <c r="C249" s="7"/>
+      <c r="D249" s="12"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="n">
@@ -5442,13 +5438,13 @@
       <c r="C250" t="n">
         <v>190.849999999999994</v>
       </c>
-      <c r="D250" s="12" t="s">
+      <c r="D250" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E250" s="24" t="n">
+      <c r="E250" s="18" t="n">
         <v>43800</v>
       </c>
-      <c r="G250" s="20" t="s">
+      <c r="G250" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5458,7 +5454,7 @@
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="1"/>
-      <c r="D251" s="14"/>
+      <c r="D251" s="11"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="n">
@@ -5468,13 +5464,13 @@
       <c r="C252" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D252" s="13" t="s">
+      <c r="D252" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E252" s="24" t="n">
+      <c r="E252" s="18" t="n">
         <v>43802</v>
       </c>
-      <c r="G252" s="20" t="s">
+      <c r="G252" s="15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5486,10 +5482,10 @@
       <c r="C253" t="n">
         <v>15</v>
       </c>
-      <c r="D253" s="12" t="s">
+      <c r="D253" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G253" s="20" t="s">
+      <c r="G253" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5499,7 +5495,7 @@
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="1"/>
-      <c r="D254" s="14"/>
+      <c r="D254" s="11"/>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="n">
@@ -5509,13 +5505,13 @@
       <c r="C255" s="3" t="n">
         <v>109.060000000000002</v>
       </c>
-      <c r="D255" s="13" t="s">
+      <c r="D255" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E255" s="24" t="n">
+      <c r="E255" s="18" t="n">
         <v>43804</v>
       </c>
-      <c r="G255" s="20" t="s">
+      <c r="G255" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5527,10 +5523,10 @@
       <c r="C256" t="n">
         <v>-30</v>
       </c>
-      <c r="D256" s="12" t="s">
+      <c r="D256" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G256" s="20" t="s">
+      <c r="G256" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -5542,10 +5538,10 @@
       <c r="C257" t="n">
         <v>124.489999999999995</v>
       </c>
-      <c r="D257" s="12" t="s">
+      <c r="D257" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G257" s="20" t="s">
+      <c r="G257" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5555,7 +5551,7 @@
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="1"/>
-      <c r="D258" s="14"/>
+      <c r="D258" s="11"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="n">
@@ -5565,13 +5561,13 @@
       <c r="C259" s="3" t="n">
         <v>95.0100000000000051</v>
       </c>
-      <c r="D259" s="13" t="s">
+      <c r="D259" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E259" s="24" t="n">
+      <c r="E259" s="18" t="n">
         <v>43808</v>
       </c>
-      <c r="G259" s="20" t="s">
+      <c r="G259" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5581,7 +5577,7 @@
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="1"/>
-      <c r="D260" s="14"/>
+      <c r="D260" s="11"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="n">
@@ -5591,13 +5587,13 @@
       <c r="C261" s="3" t="n">
         <v>13.25</v>
       </c>
-      <c r="D261" s="13" t="s">
+      <c r="D261" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E261" s="24" t="n">
+      <c r="E261" s="18" t="n">
         <v>43809</v>
       </c>
-      <c r="G261" s="20" t="s">
+      <c r="G261" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5615,13 +5611,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="3"/>
-      <c r="D263" s="13" t="s">
+      <c r="D263" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E263" s="24" t="n">
+      <c r="E263" s="18" t="n">
         <v>43811</v>
       </c>
-      <c r="G263" s="20" t="s">
+      <c r="G263" s="15" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5633,10 +5629,10 @@
       <c r="C264" t="n">
         <v>5</v>
       </c>
-      <c r="D264" s="12" t="s">
+      <c r="D264" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G264" s="20" t="s">
+      <c r="G264" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5648,10 +5644,10 @@
       <c r="C265" t="n">
         <v>20</v>
       </c>
-      <c r="D265" s="12" t="s">
+      <c r="D265" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="G265" s="20" t="s">
+      <c r="G265" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5667,15 +5663,15 @@
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="3" t="n">
-        <v>11.4200000000000017</v>
-      </c>
-      <c r="D267" s="13" t="s">
+        <v>11.4199999999999999</v>
+      </c>
+      <c r="D267" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E267" s="24" t="n">
+      <c r="E267" s="18" t="n">
         <v>43814</v>
       </c>
-      <c r="G267" s="20" t="s">
+      <c r="G267" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5687,10 +5683,10 @@
       <c r="C268" t="n">
         <v>11.5</v>
       </c>
-      <c r="D268" s="12" t="s">
+      <c r="D268" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G268" s="20" t="s">
+      <c r="G268" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5708,13 +5704,13 @@
       <c r="C270" s="3" t="n">
         <v>5.45999999999999996</v>
       </c>
-      <c r="D270" s="13" t="s">
+      <c r="D270" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E270" s="24" t="n">
+      <c r="E270" s="18" t="n">
         <v>43815</v>
       </c>
-      <c r="G270" s="20" t="s">
+      <c r="G270" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5729,7 +5725,7 @@
       <c r="D271" t="s">
         <v>235</v>
       </c>
-      <c r="G271" s="20" t="s">
+      <c r="G271" s="15" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5741,10 +5737,10 @@
       <c r="C272" t="n">
         <v>21.620000000000001</v>
       </c>
-      <c r="D272" s="12" t="s">
+      <c r="D272" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G272" s="20" t="s">
+      <c r="G272" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5756,10 +5752,10 @@
       <c r="C273" t="n">
         <v>-10</v>
       </c>
-      <c r="D273" s="12" t="s">
+      <c r="D273" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G273" s="20" t="s">
+      <c r="G273" s="15" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5777,13 +5773,13 @@
       <c r="C275" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D275" s="13" t="s">
+      <c r="D275" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="E275" s="24" t="n">
+      <c r="E275" s="18" t="n">
         <v>43816</v>
       </c>
-      <c r="G275" s="20" t="s">
+      <c r="G275" s="15" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5801,13 +5797,13 @@
       <c r="C277" s="3" t="n">
         <v>73.5900000000000034</v>
       </c>
-      <c r="D277" s="13" t="s">
+      <c r="D277" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E277" s="24" t="n">
+      <c r="E277" s="18" t="n">
         <v>43817</v>
       </c>
-      <c r="G277" s="20" t="s">
+      <c r="G277" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5825,13 +5821,13 @@
       <c r="C279" s="3" t="n">
         <v>25.75</v>
       </c>
-      <c r="D279" s="13" t="s">
+      <c r="D279" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E279" s="24" t="n">
+      <c r="E279" s="18" t="n">
         <v>43818</v>
       </c>
-      <c r="G279" s="20" t="s">
+      <c r="G279" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5843,10 +5839,10 @@
       <c r="C280" t="n">
         <v>-12</v>
       </c>
-      <c r="D280" s="12" t="s">
+      <c r="D280" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="G280" s="20" t="s">
+      <c r="G280" s="15" t="s">
         <v>244</v>
       </c>
     </row>
@@ -5858,10 +5854,10 @@
       <c r="C281" t="n">
         <v>227.629999999999995</v>
       </c>
-      <c r="D281" s="12" t="s">
+      <c r="D281" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G281" s="20" t="s">
+      <c r="G281" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5879,13 +5875,13 @@
       <c r="C283" s="3" t="n">
         <v>39.0700000000000003</v>
       </c>
-      <c r="D283" s="13" t="s">
+      <c r="D283" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E283" s="24" t="n">
+      <c r="E283" s="18" t="n">
         <v>43821</v>
       </c>
-      <c r="G283" s="20" t="s">
+      <c r="G283" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5897,10 +5893,10 @@
       <c r="C284" t="n">
         <v>39.6700000000000017</v>
       </c>
-      <c r="D284" s="12" t="s">
+      <c r="D284" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="G284" s="20" t="s">
+      <c r="G284" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5912,10 +5908,10 @@
       <c r="C285" t="n">
         <v>114.680000000000007</v>
       </c>
-      <c r="D285" s="12" t="s">
+      <c r="D285" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G285" s="20" t="s">
+      <c r="G285" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5927,10 +5923,10 @@
       <c r="C286" t="n">
         <v>-114</v>
       </c>
-      <c r="D286" s="12" t="s">
+      <c r="D286" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G286" s="20" t="s">
+      <c r="G286" s="15" t="s">
         <v>250</v>
       </c>
       <c r="H286" t="s">
@@ -5945,10 +5941,10 @@
       <c r="C287" t="n">
         <v>-39</v>
       </c>
-      <c r="D287" s="12" t="s">
+      <c r="D287" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G287" s="20" t="s">
+      <c r="G287" s="15" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5966,13 +5962,13 @@
       <c r="C289" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D289" s="13" t="s">
+      <c r="D289" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E289" s="24" t="n">
+      <c r="E289" s="18" t="n">
         <v>43824</v>
       </c>
-      <c r="G289" s="20" t="s">
+      <c r="G289" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5984,10 +5980,10 @@
       <c r="C290" t="n">
         <v>-185.849999999999994</v>
       </c>
-      <c r="D290" s="12" t="s">
+      <c r="D290" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G290" s="20" t="s">
+      <c r="G290" s="15" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5999,10 +5995,10 @@
       <c r="C291" t="n">
         <v>65.5400000000000063</v>
       </c>
-      <c r="D291" s="12" t="s">
+      <c r="D291" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="G291" s="20" t="s">
+      <c r="G291" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6012,7 +6008,7 @@
       </c>
       <c r="B292" s="5"/>
       <c r="C292" s="1"/>
-      <c r="D292" s="14"/>
+      <c r="D292" s="11"/>
     </row>
     <row r="293" spans="1:7">
       <c r="A293" t="n">
@@ -6022,13 +6018,13 @@
       <c r="C293" t="n">
         <v>12.75</v>
       </c>
-      <c r="D293" s="12" t="s">
+      <c r="D293" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E293" s="24" t="n">
+      <c r="E293" s="18" t="n">
         <v>43825</v>
       </c>
-      <c r="G293" s="20" t="s">
+      <c r="G293" s="15" t="s">
         <v>76</v>
       </c>
     </row>
@@ -6040,10 +6036,10 @@
       <c r="C294" t="n">
         <v>57.9200000000000017</v>
       </c>
-      <c r="D294" s="12" t="s">
+      <c r="D294" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G294" s="20" t="s">
+      <c r="G294" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6055,10 +6051,10 @@
       <c r="C295" t="n">
         <v>9</v>
       </c>
-      <c r="D295" s="12" t="s">
+      <c r="D295" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="G295" s="20" t="s">
+      <c r="G295" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6070,10 +6066,10 @@
       <c r="C296" t="n">
         <v>33.4699999999999989</v>
       </c>
-      <c r="D296" s="12" t="s">
+      <c r="D296" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G296" s="20" t="s">
+      <c r="G296" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6091,13 +6087,13 @@
       <c r="C298" s="3" t="n">
         <v>45.3800000000000026</v>
       </c>
-      <c r="D298" s="13" t="s">
+      <c r="D298" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E298" s="24" t="n">
+      <c r="E298" s="18" t="n">
         <v>43830</v>
       </c>
-      <c r="G298" s="20" t="s">
+      <c r="G298" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6108,10 +6104,10 @@
       <c r="B299" s="4" t="n">
         <v>-24</v>
       </c>
-      <c r="D299" s="12" t="s">
+      <c r="D299" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="G299" s="20" t="s">
+      <c r="G299" s="15" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6121,7 +6117,7 @@
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="14"/>
+      <c r="D300" s="11"/>
     </row>
     <row r="301" spans="1:7">
       <c r="A301" t="n">
@@ -6131,13 +6127,13 @@
       <c r="C301" t="n">
         <v>20</v>
       </c>
-      <c r="D301" s="12" t="s">
+      <c r="D301" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E301" s="24" t="n">
+      <c r="E301" s="18" t="n">
         <v>43831</v>
       </c>
-      <c r="G301" s="20" t="s">
+      <c r="G301" s="15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6147,8 +6143,8 @@
       </c>
       <c r="B302" s="5"/>
       <c r="C302" s="1"/>
-      <c r="D302" s="14"/>
-      <c r="G302" s="12"/>
+      <c r="D302" s="11"/>
+      <c r="G302" s="9"/>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" t="n">
@@ -6158,13 +6154,13 @@
       <c r="C303" t="n">
         <v>51.2899999999999991</v>
       </c>
-      <c r="D303" s="12" t="s">
+      <c r="D303" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E303" s="24" t="n">
+      <c r="E303" s="18" t="n">
         <v>43835</v>
       </c>
-      <c r="G303" s="12" t="s">
+      <c r="G303" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6182,13 +6178,13 @@
       <c r="C305" s="3" t="n">
         <v>22.2800000000000011</v>
       </c>
-      <c r="D305" s="13" t="s">
+      <c r="D305" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="E305" s="24" t="n">
+      <c r="E305" s="18" t="n">
         <v>43838</v>
       </c>
-      <c r="G305" s="21" t="s">
+      <c r="G305" s="25" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6197,7 +6193,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4"/>
-      <c r="G306" s="12"/>
+      <c r="G306" s="9"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" t="n">
@@ -6207,13 +6203,13 @@
       <c r="C307" s="3" t="n">
         <v>120.599999999999994</v>
       </c>
-      <c r="D307" s="13" t="s">
+      <c r="D307" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E307" s="24" t="n">
+      <c r="E307" s="18" t="n">
         <v>43839</v>
       </c>
-      <c r="G307" s="20" t="s">
+      <c r="G307" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6225,11 +6221,11 @@
       <c r="C308" t="n">
         <v>6.70000000000000018</v>
       </c>
-      <c r="D308" s="12" t="s">
+      <c r="D308" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E308" s="31"/>
-      <c r="G308" s="20" t="s">
+      <c r="E308" s="23"/>
+      <c r="G308" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6248,13 +6244,13 @@
       <c r="C310" s="3" t="n">
         <v>58.1300000000000026</v>
       </c>
-      <c r="D310" s="13" t="s">
+      <c r="D310" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E310" s="24" t="n">
+      <c r="E310" s="18" t="n">
         <v>43840</v>
       </c>
-      <c r="G310" s="20" t="s">
+      <c r="G310" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6272,13 +6268,13 @@
       <c r="C312" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="D312" s="13" t="s">
+      <c r="D312" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="E312" s="24" t="n">
+      <c r="E312" s="18" t="n">
         <v>43841</v>
       </c>
-      <c r="G312" s="20" t="s">
+      <c r="G312" s="15" t="s">
         <v>136</v>
       </c>
       <c r="H312" t="s">
@@ -6299,13 +6295,13 @@
       <c r="C314" s="3" t="n">
         <v>63.1400000000000006</v>
       </c>
-      <c r="D314" s="13" t="s">
+      <c r="D314" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E314" s="24" t="n">
+      <c r="E314" s="18" t="n">
         <v>43844</v>
       </c>
-      <c r="G314" s="20" t="s">
+      <c r="G314" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6323,13 +6319,13 @@
       <c r="C316" s="3" t="n">
         <v>7.20000000000000018</v>
       </c>
-      <c r="D316" s="13" t="s">
+      <c r="D316" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E316" s="24" t="n">
+      <c r="E316" s="18" t="n">
         <v>43845</v>
       </c>
-      <c r="G316" s="20" t="s">
+      <c r="G316" s="15" t="s">
         <v>73</v>
       </c>
       <c r="H316" t="s">
@@ -6344,10 +6340,10 @@
       <c r="C317" t="n">
         <v>54.8299999999999983</v>
       </c>
-      <c r="D317" s="12" t="s">
+      <c r="D317" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G317" s="20" t="s">
+      <c r="G317" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6365,13 +6361,13 @@
       <c r="C319" s="3" t="n">
         <v>547</v>
       </c>
-      <c r="D319" s="13" t="s">
+      <c r="D319" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="E319" s="24" t="n">
+      <c r="E319" s="18" t="n">
         <v>43846</v>
       </c>
-      <c r="G319" s="20" t="s">
+      <c r="G319" s="15" t="s">
         <v>11</v>
       </c>
       <c r="I319" t="s">
@@ -6386,10 +6382,10 @@
       <c r="C320" t="n">
         <v>6.09999999999999964</v>
       </c>
-      <c r="D320" s="12" t="s">
+      <c r="D320" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="G320" s="20" t="s">
+      <c r="G320" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6407,13 +6403,13 @@
       <c r="C322" s="3" t="n">
         <v>16.9400000000000013</v>
       </c>
-      <c r="D322" s="13" t="s">
+      <c r="D322" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E322" s="24" t="n">
+      <c r="E322" s="18" t="n">
         <v>43848</v>
       </c>
-      <c r="G322" s="20" t="s">
+      <c r="G322" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6431,13 +6427,13 @@
         <v>60</v>
       </c>
       <c r="C324" s="3"/>
-      <c r="D324" s="13" t="s">
+      <c r="D324" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="E324" s="24" t="n">
+      <c r="E324" s="18" t="n">
         <v>43850</v>
       </c>
-      <c r="G324" s="20" t="s">
+      <c r="G324" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6449,10 +6445,10 @@
       <c r="C325" t="n">
         <v>147</v>
       </c>
-      <c r="D325" s="12" t="s">
+      <c r="D325" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="G325" s="20" t="s">
+      <c r="G325" s="15" t="s">
         <v>275</v>
       </c>
     </row>
@@ -6470,13 +6466,13 @@
       <c r="C327" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D327" s="13" t="s">
+      <c r="D327" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E327" s="24" t="n">
+      <c r="E327" s="18" t="n">
         <v>43855</v>
       </c>
-      <c r="G327" s="20" t="s">
+      <c r="G327" s="15" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6488,10 +6484,10 @@
       <c r="C328" t="n">
         <v>20</v>
       </c>
-      <c r="D328" s="12" t="s">
+      <c r="D328" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G328" s="20" t="s">
+      <c r="G328" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6509,13 +6505,13 @@
         <v>20.9699999999999989</v>
       </c>
       <c r="C330" s="3"/>
-      <c r="D330" s="13" t="s">
+      <c r="D330" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E330" s="24" t="n">
+      <c r="E330" s="18" t="n">
         <v>43856</v>
       </c>
-      <c r="G330" s="20" t="s">
+      <c r="G330" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6527,10 +6523,10 @@
       <c r="C331" t="n">
         <v>88.9599999999999937</v>
       </c>
-      <c r="D331" s="12" t="s">
+      <c r="D331" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G331" s="20" t="s">
+      <c r="G331" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6542,10 +6538,10 @@
       <c r="C332" t="n">
         <v>174.69999999999996</v>
       </c>
-      <c r="D332" s="12" t="s">
+      <c r="D332" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G332" s="20" t="s">
+      <c r="G332" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6563,13 +6559,13 @@
       <c r="C334" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D334" s="13" t="s">
+      <c r="D334" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E334" s="24" t="n">
+      <c r="E334" s="18" t="n">
         <v>43859</v>
       </c>
-      <c r="G334" s="20" t="s">
+      <c r="G334" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6587,13 +6583,13 @@
       <c r="C336" s="3" t="n">
         <v>9.25</v>
       </c>
-      <c r="D336" s="13" t="s">
+      <c r="D336" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E336" s="24" t="n">
+      <c r="E336" s="18" t="n">
         <v>43860</v>
       </c>
-      <c r="G336" s="20" t="s">
+      <c r="G336" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6605,10 +6601,10 @@
       <c r="C337" t="n">
         <v>3.79000000000000004</v>
       </c>
-      <c r="D337" s="12" t="s">
+      <c r="D337" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G337" s="20" t="s">
+      <c r="G337" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6626,10 +6622,10 @@
       <c r="C339" s="3" t="n">
         <v>9.47000000000000064</v>
       </c>
-      <c r="D339" s="13" t="s">
+      <c r="D339" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E339" s="24" t="n">
+      <c r="E339" s="18" t="n">
         <v>43863</v>
       </c>
     </row>
@@ -6641,7 +6637,7 @@
       <c r="C340" t="n">
         <v>13.7899999999999991</v>
       </c>
-      <c r="D340" s="12" t="s">
+      <c r="D340" s="9" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6659,10 +6655,10 @@
       <c r="C342" s="3" t="n">
         <v>11.75</v>
       </c>
-      <c r="D342" s="13" t="s">
+      <c r="D342" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E342" s="24" t="n">
+      <c r="E342" s="18" t="n">
         <v>43864</v>
       </c>
     </row>
@@ -6680,10 +6676,10 @@
       <c r="C344" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D344" s="13" t="s">
+      <c r="D344" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E344" s="24" t="n">
+      <c r="E344" s="18" t="n">
         <v>43865</v>
       </c>
     </row>
@@ -6701,13 +6697,13 @@
         <v>50</v>
       </c>
       <c r="C346" s="3"/>
-      <c r="D346" s="13" t="s">
+      <c r="D346" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="E346" s="24" t="n">
+      <c r="E346" s="18" t="n">
         <v>43866</v>
       </c>
-      <c r="G346" s="20" t="s">
+      <c r="G346" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6725,13 +6721,13 @@
       <c r="C348" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="D348" s="13" t="s">
+      <c r="D348" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E348" s="24" t="n">
+      <c r="E348" s="18" t="n">
         <v>43867</v>
       </c>
-      <c r="G348" s="20" t="s">
+      <c r="G348" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I348" t="s">
@@ -6745,10 +6741,10 @@
       <c r="B349" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="D349" s="12" t="s">
+      <c r="D349" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="G349" s="20" t="s">
+      <c r="G349" s="15" t="s">
         <v>159</v>
       </c>
       <c r="I349" t="s">
@@ -6762,10 +6758,10 @@
       <c r="B350" s="4" t="n">
         <v>9.58999999999999986</v>
       </c>
-      <c r="D350" s="12" t="s">
+      <c r="D350" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G350" s="20" t="s">
+      <c r="G350" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I350" t="s">
@@ -6786,13 +6782,13 @@
         <v>17.2100000000000009</v>
       </c>
       <c r="C352" s="3"/>
-      <c r="D352" s="13" t="s">
+      <c r="D352" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E352" s="24" t="n">
+      <c r="E352" s="18" t="n">
         <v>43868</v>
       </c>
-      <c r="G352" s="20" t="s">
+      <c r="G352" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I352" t="s">
@@ -6806,10 +6802,10 @@
       <c r="B353" s="4" t="n">
         <v>9.69999999999999929</v>
       </c>
-      <c r="D353" s="12" t="s">
+      <c r="D353" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G353" s="20" t="s">
+      <c r="G353" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I353" t="s">
@@ -6830,13 +6826,13 @@
         <v>17.370000000000001</v>
       </c>
       <c r="C355" s="3"/>
-      <c r="D355" s="13" t="s">
+      <c r="D355" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E355" s="24" t="n">
+      <c r="E355" s="18" t="n">
         <v>43869</v>
       </c>
-      <c r="G355" s="20" t="s">
+      <c r="G355" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I355" t="s">
@@ -6857,13 +6853,13 @@
         <v>5</v>
       </c>
       <c r="C357" s="3"/>
-      <c r="D357" s="13" t="s">
+      <c r="D357" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="E357" s="24" t="n">
+      <c r="E357" s="18" t="n">
         <v>43870</v>
       </c>
-      <c r="G357" s="20" t="s">
+      <c r="G357" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I357" t="s">
@@ -6877,10 +6873,10 @@
       <c r="B358" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="D358" s="12" t="s">
+      <c r="D358" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G358" s="20" t="s">
+      <c r="G358" s="15" t="s">
         <v>100</v>
       </c>
       <c r="I358" t="s">
@@ -6901,13 +6897,13 @@
         <v>10</v>
       </c>
       <c r="C360" s="3"/>
-      <c r="D360" s="13" t="s">
+      <c r="D360" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E360" s="24" t="n">
+      <c r="E360" s="18" t="n">
         <v>43871</v>
       </c>
-      <c r="G360" s="20" t="s">
+      <c r="G360" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I360" t="s">
@@ -6928,13 +6924,13 @@
       <c r="C362" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D362" s="13" t="s">
+      <c r="D362" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E362" s="24" t="n">
+      <c r="E362" s="18" t="n">
         <v>43873</v>
       </c>
-      <c r="G362" s="20" t="s">
+      <c r="G362" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6952,13 +6948,13 @@
       <c r="C364" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D364" s="13" t="s">
+      <c r="D364" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E364" s="24" t="n">
+      <c r="E364" s="18" t="n">
         <v>43874</v>
       </c>
-      <c r="G364" s="20" t="s">
+      <c r="G364" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6976,13 +6972,13 @@
       <c r="C366" s="3" t="n">
         <v>102.959999999999994</v>
       </c>
-      <c r="D366" s="13" t="s">
+      <c r="D366" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E366" s="24" t="n">
+      <c r="E366" s="18" t="n">
         <v>43875</v>
       </c>
-      <c r="G366" s="20" t="s">
+      <c r="G366" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7000,13 +6996,13 @@
         <v>30</v>
       </c>
       <c r="C368" s="3"/>
-      <c r="D368" s="13" t="s">
+      <c r="D368" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E368" s="24" t="n">
+      <c r="E368" s="18" t="n">
         <v>43876</v>
       </c>
-      <c r="G368" s="20" t="s">
+      <c r="G368" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7018,10 +7014,10 @@
       <c r="C369" t="n">
         <v>116</v>
       </c>
-      <c r="D369" s="12" t="s">
+      <c r="D369" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="G369" s="20" t="s">
+      <c r="G369" s="15" t="s">
         <v>295</v>
       </c>
     </row>
@@ -7039,13 +7035,13 @@
       <c r="C371" s="3" t="n">
         <v>32.8400000000000034</v>
       </c>
-      <c r="D371" s="13" t="s">
+      <c r="D371" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E371" s="24" t="n">
+      <c r="E371" s="18" t="n">
         <v>43878</v>
       </c>
-      <c r="G371" s="20" t="s">
+      <c r="G371" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7063,13 +7059,13 @@
       <c r="C373" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D373" s="13" t="s">
+      <c r="D373" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E373" s="24" t="n">
+      <c r="E373" s="18" t="n">
         <v>43880</v>
       </c>
-      <c r="G373" s="20" t="s">
+      <c r="G373" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7087,13 +7083,13 @@
       <c r="C375" s="3" t="n">
         <v>14.2200000000000006</v>
       </c>
-      <c r="D375" s="13" t="s">
+      <c r="D375" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="E375" s="24" t="n">
+      <c r="E375" s="18" t="n">
         <v>43887</v>
       </c>
-      <c r="G375" s="20" t="s">
+      <c r="G375" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7105,10 +7101,10 @@
       <c r="C376" t="n">
         <v>59.5499999999999972</v>
       </c>
-      <c r="D376" s="12" t="s">
+      <c r="D376" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G376" s="20" t="s">
+      <c r="G376" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7126,13 +7122,13 @@
       <c r="C378" s="3" t="n">
         <v>56.1799999999999997</v>
       </c>
-      <c r="D378" s="13" t="s">
+      <c r="D378" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E378" s="24" t="n">
+      <c r="E378" s="18" t="n">
         <v>43888</v>
       </c>
-      <c r="G378" s="20" t="s">
+      <c r="G378" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7150,13 +7146,13 @@
       <c r="C380" s="3" t="n">
         <v>25.129999999999999</v>
       </c>
-      <c r="D380" s="13" t="s">
+      <c r="D380" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="E380" s="24" t="n">
+      <c r="E380" s="18" t="n">
         <v>43890</v>
       </c>
-      <c r="G380" s="20" t="s">
+      <c r="G380" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7174,13 +7170,13 @@
       <c r="C382" s="3" t="n">
         <v>1080</v>
       </c>
-      <c r="D382" s="13" t="s">
+      <c r="D382" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="E382" s="24" t="n">
+      <c r="E382" s="18" t="n">
         <v>43891</v>
       </c>
-      <c r="G382" s="20" t="s">
+      <c r="G382" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7198,13 +7194,13 @@
       <c r="C384" s="3" t="n">
         <v>60.259999999999998</v>
       </c>
-      <c r="D384" s="13" t="s">
+      <c r="D384" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E384" s="24" t="n">
+      <c r="E384" s="18" t="n">
         <v>43892</v>
       </c>
-      <c r="G384" s="20" t="s">
+      <c r="G384" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7216,10 +7212,10 @@
       <c r="C385" t="n">
         <v>41.8999999999999986</v>
       </c>
-      <c r="D385" s="12" t="s">
+      <c r="D385" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G385" s="20" t="s">
+      <c r="G385" s="15" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7231,10 +7227,10 @@
       <c r="C386" t="n">
         <v>40</v>
       </c>
-      <c r="D386" s="12" t="s">
+      <c r="D386" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="G386" s="20" t="s">
+      <c r="G386" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -7246,10 +7242,10 @@
       <c r="C387" t="n">
         <v>1.5</v>
       </c>
-      <c r="D387" s="12" t="s">
+      <c r="D387" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G387" s="20" t="s">
+      <c r="G387" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7264,16 +7260,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="2"/>
-      <c r="C389" s="13" t="n">
+      <c r="C389" s="10" t="n">
         <v>48.2999999999999972</v>
       </c>
-      <c r="D389" s="13" t="s">
+      <c r="D389" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E389" s="24" t="n">
+      <c r="E389" s="18" t="n">
         <v>43894</v>
       </c>
-      <c r="G389" s="20" t="s">
+      <c r="G389" s="15" t="s">
         <v>153</v>
       </c>
       <c r="I389" t="s">
@@ -7288,10 +7284,10 @@
       <c r="C390" t="n">
         <v>44</v>
       </c>
-      <c r="D390" s="12" t="s">
+      <c r="D390" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G390" s="20" t="s">
+      <c r="G390" s="15" t="s">
         <v>153</v>
       </c>
       <c r="I390" t="s">
@@ -7305,10 +7301,10 @@
       <c r="C391" t="n">
         <v>-48</v>
       </c>
-      <c r="D391" s="12" t="s">
+      <c r="D391" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G391" s="20" t="s">
+      <c r="G391" s="15" t="s">
         <v>307</v>
       </c>
       <c r="I391" t="s">
@@ -7323,10 +7319,10 @@
       <c r="C392" t="n">
         <v>-44</v>
       </c>
-      <c r="D392" s="12" t="s">
+      <c r="D392" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G392" s="20" t="s">
+      <c r="G392" s="15" t="s">
         <v>309</v>
       </c>
       <c r="I392" t="s">
@@ -7347,13 +7343,13 @@
       <c r="C394" s="3" t="n">
         <v>19.5</v>
       </c>
-      <c r="D394" s="13" t="s">
+      <c r="D394" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E394" s="24" t="n">
+      <c r="E394" s="18" t="n">
         <v>43895</v>
       </c>
-      <c r="G394" s="20" t="s">
+      <c r="G394" s="15" t="s">
         <v>159</v>
       </c>
       <c r="I394" t="s">
@@ -7368,7 +7364,7 @@
       <c r="C395" t="n">
         <v>176.719999999999999</v>
       </c>
-      <c r="D395" s="12" t="s">
+      <c r="D395" s="9" t="s">
         <v>311</v>
       </c>
       <c r="I395" t="s">
@@ -7383,10 +7379,10 @@
       <c r="C396" t="n">
         <v>-176.719999999999999</v>
       </c>
-      <c r="D396" s="12" t="s">
+      <c r="D396" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G396" s="20" t="s">
+      <c r="G396" s="15" t="s">
         <v>313</v>
       </c>
       <c r="I396" t="s">
@@ -7401,13 +7397,13 @@
       <c r="C397" s="3" t="n">
         <v>15.2300000000000004</v>
       </c>
-      <c r="D397" s="13" t="s">
+      <c r="D397" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="E397" s="24" t="n">
+      <c r="E397" s="18" t="n">
         <v>43896</v>
       </c>
-      <c r="G397" s="20" t="s">
+      <c r="G397" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I397" t="s">
@@ -7422,10 +7418,10 @@
       <c r="C398" t="n">
         <v>6.66000000000000014</v>
       </c>
-      <c r="D398" s="12" t="s">
+      <c r="D398" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="G398" s="20" t="s">
+      <c r="G398" s="15" t="s">
         <v>100</v>
       </c>
       <c r="I398" t="s">
@@ -7446,13 +7442,13 @@
       <c r="C400" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D400" s="13" t="s">
+      <c r="D400" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E400" s="24" t="n">
+      <c r="E400" s="18" t="n">
         <v>43897</v>
       </c>
-      <c r="G400" s="20" t="s">
+      <c r="G400" s="15" t="s">
         <v>100</v>
       </c>
       <c r="I400" t="s">
@@ -7473,13 +7469,13 @@
       <c r="C402" s="3" t="n">
         <v>82.7900000000000063</v>
       </c>
-      <c r="D402" s="13" t="s">
+      <c r="D402" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="E402" s="24" t="n">
+      <c r="E402" s="18" t="n">
         <v>43898</v>
       </c>
-      <c r="G402" s="20" t="s">
+      <c r="G402" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I402" t="s">
@@ -7500,13 +7496,13 @@
       <c r="C404" s="3" t="n">
         <v>32.8299999999999983</v>
       </c>
-      <c r="D404" s="13" t="s">
+      <c r="D404" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="E404" s="24" t="n">
+      <c r="E404" s="18" t="n">
         <v>43900</v>
       </c>
-      <c r="G404" s="20" t="s">
+      <c r="G404" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7518,10 +7514,10 @@
       <c r="C405" t="n">
         <v>41.8400000000000034</v>
       </c>
-      <c r="D405" s="12" t="s">
+      <c r="D405" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G405" s="20" t="s">
+      <c r="G405" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7539,13 +7535,13 @@
       <c r="C407" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D407" s="13" t="s">
+      <c r="D407" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E407" s="24" t="n">
+      <c r="E407" s="18" t="n">
         <v>43901</v>
       </c>
-      <c r="G407" s="20" t="s">
+      <c r="G407" s="15" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7557,10 +7553,10 @@
       <c r="C408" t="n">
         <v>15.4000000000000004</v>
       </c>
-      <c r="D408" s="12" t="s">
+      <c r="D408" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G408" s="20" t="s">
+      <c r="G408" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7572,10 +7568,10 @@
       <c r="C409" t="n">
         <v>14.8699999999999992</v>
       </c>
-      <c r="D409" s="12" t="s">
+      <c r="D409" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G409" s="20" t="s">
+      <c r="G409" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7593,13 +7589,13 @@
         <v>60.1700000000000017</v>
       </c>
       <c r="C411" s="3"/>
-      <c r="D411" s="13" t="s">
+      <c r="D411" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E411" s="24" t="n">
+      <c r="E411" s="18" t="n">
         <v>43903</v>
       </c>
-      <c r="G411" s="20" t="s">
+      <c r="G411" s="15" t="s">
         <v>102</v>
       </c>
       <c r="I411" t="s">
@@ -7620,13 +7616,13 @@
         <v>3.70999999999999996</v>
       </c>
       <c r="C413" s="3"/>
-      <c r="D413" s="13" t="s">
+      <c r="D413" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="E413" s="24" t="n">
+      <c r="E413" s="18" t="n">
         <v>43904</v>
       </c>
-      <c r="G413" s="20" t="s">
+      <c r="G413" s="15" t="s">
         <v>100</v>
       </c>
       <c r="I413" t="s">
@@ -7640,10 +7636,10 @@
       <c r="B414" s="4" t="n">
         <v>10.5099999999999998</v>
       </c>
-      <c r="D414" s="12" t="s">
+      <c r="D414" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G414" s="20" t="s">
+      <c r="G414" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I414" t="s">
@@ -7657,10 +7653,10 @@
       <c r="B415" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D415" s="12" t="s">
+      <c r="D415" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="G415" s="20" t="s">
+      <c r="G415" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I415" t="s">
@@ -7681,13 +7677,13 @@
         <v>18.25</v>
       </c>
       <c r="C417" s="3"/>
-      <c r="D417" s="13" t="s">
+      <c r="D417" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E417" s="24" t="n">
+      <c r="E417" s="18" t="n">
         <v>43905</v>
       </c>
-      <c r="G417" s="20" t="s">
+      <c r="G417" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I417" t="s">
@@ -7701,10 +7697,10 @@
       <c r="B418" s="4" t="n">
         <v>-2.5</v>
       </c>
-      <c r="D418" s="12" t="s">
+      <c r="D418" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G418" s="20" t="s">
+      <c r="G418" s="15" t="s">
         <v>328</v>
       </c>
       <c r="I418" t="s">
@@ -7718,10 +7714,10 @@
       <c r="B419" s="4" t="n">
         <v>10.8000000000000007</v>
       </c>
-      <c r="D419" s="12" t="s">
+      <c r="D419" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G419" s="20" t="s">
+      <c r="G419" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I419" t="s">
@@ -7742,13 +7738,13 @@
         <v>11.6799999999999997</v>
       </c>
       <c r="C421" s="3"/>
-      <c r="D421" s="13" t="s">
+      <c r="D421" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="E421" s="24" t="n">
+      <c r="E421" s="18" t="n">
         <v>43906</v>
       </c>
-      <c r="G421" s="20" t="s">
+      <c r="G421" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I421" t="s">
@@ -7761,7 +7757,7 @@
       </c>
       <c r="B422" s="5"/>
       <c r="C422" s="1"/>
-      <c r="D422" s="14"/>
+      <c r="D422" s="11"/>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="n">
@@ -7776,13 +7772,13 @@
         <v>30.3000000000000007</v>
       </c>
       <c r="C424" s="3"/>
-      <c r="D424" s="13" t="s">
+      <c r="D424" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="E424" s="24" t="n">
+      <c r="E424" s="18" t="n">
         <v>43907</v>
       </c>
-      <c r="G424" s="20" t="s">
+      <c r="G424" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I424" t="s">
@@ -7796,10 +7792,10 @@
       <c r="B425" s="4" t="n">
         <v>-20.1999999999999993</v>
       </c>
-      <c r="D425" s="12" t="s">
+      <c r="D425" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G425" s="20" t="s">
+      <c r="G425" s="15" t="s">
         <v>333</v>
       </c>
       <c r="I425" t="s">
@@ -7812,7 +7808,7 @@
       </c>
       <c r="B426" s="5"/>
       <c r="C426" s="1"/>
-      <c r="D426" s="14"/>
+      <c r="D426" s="11"/>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="n">
@@ -7827,13 +7823,13 @@
         <v>15.8100000000000005</v>
       </c>
       <c r="C428" s="3"/>
-      <c r="D428" s="13" t="s">
+      <c r="D428" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="E428" s="24" t="n">
+      <c r="E428" s="18" t="n">
         <v>43908</v>
       </c>
-      <c r="G428" s="20" t="s">
+      <c r="G428" s="15" t="s">
         <v>86</v>
       </c>
       <c r="I428" t="s">
@@ -7854,13 +7850,13 @@
         <v>7</v>
       </c>
       <c r="C430" s="3"/>
-      <c r="D430" s="13" t="s">
+      <c r="D430" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E430" s="24" t="n">
+      <c r="E430" s="18" t="n">
         <v>43910</v>
       </c>
-      <c r="G430" s="20" t="s">
+      <c r="G430" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7876,15 +7872,15 @@
       </c>
       <c r="B432" s="2"/>
       <c r="C432" s="3" t="n">
-        <v>114.110000000000014</v>
-      </c>
-      <c r="D432" s="13" t="s">
+        <v>114.109999999999999</v>
+      </c>
+      <c r="D432" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E432" s="24" t="n">
+      <c r="E432" s="18" t="n">
         <v>43912</v>
       </c>
-      <c r="G432" s="20" t="s">
+      <c r="G432" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7894,7 +7890,7 @@
       </c>
       <c r="B433" s="5"/>
       <c r="C433" s="1"/>
-      <c r="D433" s="14"/>
+      <c r="D433" s="11"/>
     </row>
     <row r="434" spans="1:7">
       <c r="A434" t="n">
@@ -7903,13 +7899,13 @@
       <c r="B434" s="4" t="n">
         <v>106.920000000000002</v>
       </c>
-      <c r="D434" s="12" t="s">
+      <c r="D434" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E434" s="24" t="n">
+      <c r="E434" s="18" t="n">
         <v>43913</v>
       </c>
-      <c r="G434" s="20" t="s">
+      <c r="G434" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7920,10 +7916,10 @@
       <c r="B435" s="4" t="n">
         <v>142.710000000000008</v>
       </c>
-      <c r="D435" s="12" t="s">
+      <c r="D435" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="G435" s="20" t="s">
+      <c r="G435" s="15" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7941,13 +7937,13 @@
       <c r="C437" s="3" t="n">
         <v>35.4200000000000017</v>
       </c>
-      <c r="D437" s="13" t="s">
+      <c r="D437" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E437" s="24" t="n">
+      <c r="E437" s="18" t="n">
         <v>43923</v>
       </c>
-      <c r="G437" s="20" t="s">
+      <c r="G437" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7965,13 +7961,13 @@
       <c r="C439" s="3" t="n">
         <v>121.599999999999994</v>
       </c>
-      <c r="D439" s="13" t="s">
+      <c r="D439" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E439" s="24" t="n">
+      <c r="E439" s="18" t="n">
         <v>43924</v>
       </c>
-      <c r="G439" s="20" t="s">
+      <c r="G439" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7989,13 +7985,13 @@
       <c r="C441" s="3" t="n">
         <v>111.670000000000002</v>
       </c>
-      <c r="D441" s="13" t="s">
+      <c r="D441" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E441" s="24" t="n">
+      <c r="E441" s="18" t="n">
         <v>43935</v>
       </c>
-      <c r="G441" s="20" t="s">
+      <c r="G441" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8013,13 +8009,13 @@
         <v>10</v>
       </c>
       <c r="C443" s="3"/>
-      <c r="D443" s="13" t="s">
+      <c r="D443" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E443" s="24" t="n">
+      <c r="E443" s="18" t="n">
         <v>43938</v>
       </c>
-      <c r="G443" s="20" t="s">
+      <c r="G443" s="15" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8037,13 +8033,13 @@
       <c r="C445" s="3" t="n">
         <v>47.3100000000000023</v>
       </c>
-      <c r="D445" s="13" t="s">
+      <c r="D445" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E445" s="24" t="n">
+      <c r="E445" s="18" t="n">
         <v>43939</v>
       </c>
-      <c r="G445" s="20" t="s">
+      <c r="G445" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8061,13 +8057,13 @@
       <c r="C447" s="3" t="n">
         <v>65.3499999999999943</v>
       </c>
-      <c r="D447" s="13" t="s">
+      <c r="D447" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E447" s="24" t="n">
+      <c r="E447" s="18" t="n">
         <v>43948</v>
       </c>
-      <c r="G447" s="20" t="s">
+      <c r="G447" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8079,10 +8075,10 @@
       <c r="C448" t="n">
         <v>44.0799999999999983</v>
       </c>
-      <c r="D448" s="12" t="s">
+      <c r="D448" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G448" s="20" t="s">
+      <c r="G448" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8092,7 +8088,7 @@
       </c>
       <c r="B449" s="5"/>
       <c r="C449" s="1"/>
-      <c r="D449" s="14"/>
+      <c r="D449" s="11"/>
     </row>
     <row r="450" spans="1:7">
       <c r="A450" t="n">
@@ -8101,13 +8097,13 @@
       <c r="C450" t="n">
         <v>75.6599999999999824</v>
       </c>
-      <c r="D450" s="12" t="s">
+      <c r="D450" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E450" s="24" t="n">
+      <c r="E450" s="18" t="n">
         <v>43958</v>
       </c>
-      <c r="G450" s="20" t="s">
+      <c r="G450" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8123,13 +8119,13 @@
       <c r="C452" t="n">
         <v>185</v>
       </c>
-      <c r="D452" s="12" t="s">
+      <c r="D452" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E452" s="24" t="n">
+      <c r="E452" s="18" t="n">
         <v>43960</v>
       </c>
-      <c r="G452" s="20" t="s">
+      <c r="G452" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8145,13 +8141,13 @@
       <c r="C454" t="n">
         <v>51.5399999999999991</v>
       </c>
-      <c r="D454" s="12" t="s">
+      <c r="D454" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E454" s="24" t="n">
+      <c r="E454" s="18" t="n">
         <v>43964</v>
       </c>
-      <c r="G454" s="20" t="s">
+      <c r="G454" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8167,13 +8163,13 @@
       <c r="C456" t="n">
         <v>38.490000000000002</v>
       </c>
-      <c r="D456" s="12" t="s">
+      <c r="D456" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E456" s="24" t="n">
+      <c r="E456" s="18" t="n">
         <v>43966</v>
       </c>
-      <c r="G456" s="20" t="s">
+      <c r="G456" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8184,10 +8180,10 @@
       <c r="C457" t="n">
         <v>10</v>
       </c>
-      <c r="D457" s="13" t="s">
+      <c r="D457" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G457" s="20" t="s">
+      <c r="G457" s="15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -8203,13 +8199,13 @@
       <c r="B459" t="n">
         <v>12.5</v>
       </c>
-      <c r="D459" s="12" t="s">
+      <c r="D459" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E459" s="24" t="n">
+      <c r="E459" s="18" t="n">
         <v>43967</v>
       </c>
-      <c r="G459" s="20" t="s">
+      <c r="G459" s="15" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8225,13 +8221,13 @@
       <c r="C461" t="n">
         <v>68.519999999999996</v>
       </c>
-      <c r="D461" s="13" t="s">
+      <c r="D461" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E461" s="24" t="n">
+      <c r="E461" s="18" t="n">
         <v>43971</v>
       </c>
-      <c r="G461" s="20" t="s">
+      <c r="G461" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8247,13 +8243,13 @@
       <c r="C463" t="n">
         <v>117.810000000000002</v>
       </c>
-      <c r="D463" s="12" t="s">
+      <c r="D463" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E463" s="24" t="n">
+      <c r="E463" s="18" t="n">
         <v>43973</v>
       </c>
-      <c r="G463" s="20" t="s">
+      <c r="G463" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8269,13 +8265,13 @@
       <c r="C465" t="n">
         <v>1.25</v>
       </c>
-      <c r="D465" s="12" t="s">
+      <c r="D465" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E465" s="24" t="n">
+      <c r="E465" s="18" t="n">
         <v>43979</v>
       </c>
-      <c r="G465" s="20" t="s">
+      <c r="G465" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -8286,10 +8282,10 @@
       <c r="C466" t="n">
         <v>76.5100000000000051</v>
       </c>
-      <c r="D466" s="12" t="s">
+      <c r="D466" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="G466" s="20" t="s">
+      <c r="G466" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8300,10 +8296,10 @@
       <c r="C467" t="n">
         <v>30.3000000000000007</v>
       </c>
-      <c r="D467" s="12" t="s">
+      <c r="D467" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G467" s="20" t="s">
+      <c r="G467" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8319,13 +8315,13 @@
       <c r="C469" t="n">
         <v>55.0399999999999991</v>
       </c>
-      <c r="D469" s="13" t="s">
+      <c r="D469" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E469" s="24" t="n">
+      <c r="E469" s="18" t="n">
         <v>43984</v>
       </c>
-      <c r="G469" s="20" t="s">
+      <c r="G469" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8341,13 +8337,13 @@
       <c r="C471" t="n">
         <v>5</v>
       </c>
-      <c r="D471" s="12" t="s">
+      <c r="D471" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E471" s="24" t="n">
+      <c r="E471" s="18" t="n">
         <v>43985</v>
       </c>
-      <c r="G471" s="20" t="s">
+      <c r="G471" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8358,10 +8354,10 @@
       <c r="C472" t="n">
         <v>100.709999999999994</v>
       </c>
-      <c r="D472" s="12" t="s">
+      <c r="D472" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G472" s="20" t="s">
+      <c r="G472" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8372,10 +8368,10 @@
       <c r="C473" t="n">
         <v>7.90000000000000036</v>
       </c>
-      <c r="D473" s="12" t="s">
+      <c r="D473" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G473" s="20" t="s">
+      <c r="G473" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8391,13 +8387,13 @@
       <c r="C475" t="n">
         <v>90</v>
       </c>
-      <c r="D475" s="12" t="s">
+      <c r="D475" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E475" s="24" t="n">
+      <c r="E475" s="18" t="n">
         <v>43986</v>
       </c>
-      <c r="G475" s="20" t="s">
+      <c r="G475" s="15" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8413,13 +8409,13 @@
       <c r="C477" t="n">
         <v>360</v>
       </c>
-      <c r="D477" s="12" t="s">
+      <c r="D477" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E477" s="24" t="n">
+      <c r="E477" s="18" t="n">
         <v>43987</v>
       </c>
-      <c r="G477" s="20" t="s">
+      <c r="G477" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8435,10 +8431,10 @@
       <c r="C479" t="n">
         <v>83.4699999999999989</v>
       </c>
-      <c r="D479" s="12" t="s">
+      <c r="D479" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E479" s="24" t="n">
+      <c r="E479" s="18" t="n">
         <v>43990</v>
       </c>
     </row>
@@ -8454,13 +8450,13 @@
       <c r="C481" t="n">
         <v>220</v>
       </c>
-      <c r="D481" s="12" t="s">
+      <c r="D481" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E481" s="24" t="n">
+      <c r="E481" s="18" t="n">
         <v>43992</v>
       </c>
-      <c r="G481" s="20" t="s">
+      <c r="G481" s="15" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8476,10 +8472,10 @@
       <c r="C483" t="n">
         <v>20</v>
       </c>
-      <c r="D483" s="12" t="s">
+      <c r="D483" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E483" s="24" t="n">
+      <c r="E483" s="18" t="n">
         <v>43994</v>
       </c>
     </row>
@@ -8490,10 +8486,10 @@
       <c r="C484" t="n">
         <v>7.59999999999999876</v>
       </c>
-      <c r="D484" s="12" t="s">
+      <c r="D484" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G484" s="20" t="s">
+      <c r="G484" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8509,10 +8505,10 @@
       <c r="C486" t="n">
         <v>94.6899999999999977</v>
       </c>
-      <c r="D486" s="12" t="s">
+      <c r="D486" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E486" s="24" t="n">
+      <c r="E486" s="18" t="n">
         <v>43995</v>
       </c>
     </row>
@@ -8528,10 +8524,10 @@
       <c r="C488" t="n">
         <v>20</v>
       </c>
-      <c r="D488" s="13" t="s">
+      <c r="D488" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E488" s="24" t="n">
+      <c r="E488" s="18" t="n">
         <v>43996</v>
       </c>
     </row>
@@ -8547,13 +8543,13 @@
       <c r="C490" t="n">
         <v>33.2800000000000011</v>
       </c>
-      <c r="D490" s="12" t="s">
+      <c r="D490" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E490" s="24" t="n">
+      <c r="E490" s="18" t="n">
         <v>43997</v>
       </c>
-      <c r="G490" s="20" t="s">
+      <c r="G490" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8569,13 +8565,13 @@
       <c r="C492" t="n">
         <v>24.6000000000000014</v>
       </c>
-      <c r="D492" s="12" t="s">
+      <c r="D492" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="E492" s="24" t="n">
+      <c r="E492" s="18" t="n">
         <v>43998</v>
       </c>
-      <c r="G492" s="20" t="s">
+      <c r="G492" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8586,10 +8582,10 @@
       <c r="C493" t="n">
         <v>41.3900000000000006</v>
       </c>
-      <c r="D493" s="12" t="s">
+      <c r="D493" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G493" s="20" t="s">
+      <c r="G493" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8605,13 +8601,13 @@
       <c r="C495" t="n">
         <v>25.129999999999999</v>
       </c>
-      <c r="D495" s="12" t="s">
+      <c r="D495" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E495" s="24" t="n">
+      <c r="E495" s="18" t="n">
         <v>43999</v>
       </c>
-      <c r="G495" s="20" t="s">
+      <c r="G495" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8627,10 +8623,10 @@
       <c r="C497" t="n">
         <v>74.3599999999999994</v>
       </c>
-      <c r="D497" s="13" t="s">
+      <c r="D497" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E497" s="24" t="n">
+      <c r="E497" s="18" t="n">
         <v>44000</v>
       </c>
     </row>
@@ -8646,13 +8642,13 @@
       <c r="C499" t="n">
         <v>23.4100000000000001</v>
       </c>
-      <c r="D499" s="12" t="s">
+      <c r="D499" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E499" s="24" t="n">
+      <c r="E499" s="18" t="n">
         <v>44004</v>
       </c>
-      <c r="G499" s="20" t="s">
+      <c r="G499" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8663,10 +8659,10 @@
       <c r="C500" t="n">
         <v>10.1999999999999993</v>
       </c>
-      <c r="D500" s="12" t="s">
+      <c r="D500" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G500" s="20" t="s">
+      <c r="G500" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8682,10 +8678,10 @@
       <c r="C502" t="n">
         <v>37.0900000000000034</v>
       </c>
-      <c r="D502" s="13" t="s">
+      <c r="D502" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E502" s="24" t="n">
+      <c r="E502" s="18" t="n">
         <v>44008</v>
       </c>
     </row>
@@ -8696,10 +8692,10 @@
       <c r="C503" t="n">
         <v>95.019999999999996</v>
       </c>
-      <c r="D503" s="12" t="s">
+      <c r="D503" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="G503" s="20" t="s">
+      <c r="G503" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8715,13 +8711,13 @@
       <c r="C505" t="n">
         <v>20.7399999999999984</v>
       </c>
-      <c r="D505" s="12" t="s">
+      <c r="D505" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E505" s="24" t="n">
+      <c r="E505" s="18" t="n">
         <v>44013</v>
       </c>
-      <c r="G505" s="20" t="s">
+      <c r="G505" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8737,13 +8733,13 @@
       <c r="C507" t="n">
         <v>9</v>
       </c>
-      <c r="D507" s="12" t="s">
+      <c r="D507" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E507" s="24" t="n">
+      <c r="E507" s="18" t="n">
         <v>44015</v>
       </c>
-      <c r="G507" s="20" t="s">
+      <c r="G507" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8759,13 +8755,13 @@
       <c r="C509" t="n">
         <v>7.88999999999999879</v>
       </c>
-      <c r="D509" s="12" t="s">
+      <c r="D509" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E509" s="24" t="n">
+      <c r="E509" s="18" t="n">
         <v>44016</v>
       </c>
-      <c r="G509" s="20" t="s">
+      <c r="G509" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8776,7 +8772,7 @@
       <c r="C510" t="n">
         <v>49.7800000000000011</v>
       </c>
-      <c r="D510" s="12" t="s">
+      <c r="D510" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8792,13 +8788,13 @@
       <c r="C512" t="n">
         <v>42.5200000000000031</v>
       </c>
-      <c r="D512" s="12" t="s">
+      <c r="D512" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E512" s="24" t="n">
+      <c r="E512" s="18" t="n">
         <v>44019</v>
       </c>
-      <c r="G512" s="20" t="s">
+      <c r="G512" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -8809,10 +8805,10 @@
       <c r="C513" t="n">
         <v>49.0300000000000011</v>
       </c>
-      <c r="D513" s="12" t="s">
+      <c r="D513" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G513" s="20" t="s">
+      <c r="G513" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8828,13 +8824,13 @@
       <c r="C515" t="n">
         <v>23.2100000000000009</v>
       </c>
-      <c r="D515" s="12" t="s">
+      <c r="D515" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="E515" s="24" t="n">
+      <c r="E515" s="18" t="n">
         <v>44020</v>
       </c>
-      <c r="G515" s="20" t="s">
+      <c r="G515" s="15" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8845,10 +8841,10 @@
       <c r="C516" t="n">
         <v>67.0300000000000011</v>
       </c>
-      <c r="D516" s="12" t="s">
+      <c r="D516" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G516" s="20" t="s">
+      <c r="G516" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8859,10 +8855,10 @@
       <c r="C517" t="n">
         <v>110</v>
       </c>
-      <c r="D517" s="12" t="s">
+      <c r="D517" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G517" s="20" t="s">
+      <c r="G517" s="15" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8878,10 +8874,10 @@
       <c r="C519" t="n">
         <v>1120</v>
       </c>
-      <c r="D519" s="12" t="s">
+      <c r="D519" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E519" s="24" t="n">
+      <c r="E519" s="18" t="n">
         <v>44022</v>
       </c>
     </row>
@@ -8892,10 +8888,10 @@
       <c r="C520" t="n">
         <v>24.8000000000000007</v>
       </c>
-      <c r="D520" s="12" t="s">
+      <c r="D520" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="G520" s="20" t="s">
+      <c r="G520" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8906,10 +8902,10 @@
       <c r="C521" t="n">
         <v>48.6899999999999977</v>
       </c>
-      <c r="D521" s="12" t="s">
+      <c r="D521" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="G521" s="20" t="s">
+      <c r="G521" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8920,10 +8916,10 @@
       <c r="C522" t="n">
         <v>8.40000000000000036</v>
       </c>
-      <c r="D522" s="12" t="s">
+      <c r="D522" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="G522" s="20" t="s">
+      <c r="G522" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8934,10 +8930,10 @@
       <c r="C523" t="n">
         <v>40.2299999999999969</v>
       </c>
-      <c r="D523" s="12" t="s">
+      <c r="D523" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="G523" s="20" t="s">
+      <c r="G523" s="15" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8953,13 +8949,13 @@
       <c r="C525" t="n">
         <v>14.1199999999999992</v>
       </c>
-      <c r="D525" s="12" t="s">
+      <c r="D525" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E525" s="24" t="n">
+      <c r="E525" s="18" t="n">
         <v>44026</v>
       </c>
-      <c r="G525" s="20" t="s">
+      <c r="G525" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8975,13 +8971,13 @@
       <c r="C527" t="n">
         <v>28.3599999999999994</v>
       </c>
-      <c r="D527" s="12" t="s">
+      <c r="D527" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="E527" s="24" t="n">
+      <c r="E527" s="18" t="n">
         <v>44027</v>
       </c>
-      <c r="G527" s="20" t="s">
+      <c r="G527" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8997,13 +8993,13 @@
       <c r="C529" t="n">
         <v>43.6700000000000017</v>
       </c>
-      <c r="D529" s="12" t="s">
+      <c r="D529" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="E529" s="24" t="n">
+      <c r="E529" s="18" t="n">
         <v>44028</v>
       </c>
-      <c r="G529" s="20" t="s">
+      <c r="G529" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9014,10 +9010,10 @@
       <c r="C530" t="n">
         <v>48.8500000000000014</v>
       </c>
-      <c r="D530" s="12" t="s">
+      <c r="D530" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="G530" s="20" t="s">
+      <c r="G530" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9028,10 +9024,10 @@
       <c r="C531" t="n">
         <v>37.75</v>
       </c>
-      <c r="D531" s="12" t="s">
+      <c r="D531" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G531" s="20" t="s">
+      <c r="G531" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9047,13 +9043,13 @@
       <c r="C533" t="n">
         <v>28.7300000000000004</v>
       </c>
-      <c r="D533" s="12" t="s">
+      <c r="D533" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E533" s="24" t="n">
+      <c r="E533" s="18" t="n">
         <v>44031</v>
       </c>
-      <c r="G533" s="20" t="s">
+      <c r="G533" s="15" t="s">
         <v>373</v>
       </c>
     </row>
@@ -9064,10 +9060,10 @@
       <c r="C534" t="n">
         <v>34.4799999999999969</v>
       </c>
-      <c r="D534" s="12" t="s">
+      <c r="D534" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="G534" s="20" t="s">
+      <c r="G534" s="15" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9078,10 +9074,10 @@
       <c r="C535" t="n">
         <v>17.25</v>
       </c>
-      <c r="D535" s="12" t="s">
+      <c r="D535" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="G535" s="20" t="s">
+      <c r="G535" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9097,13 +9093,13 @@
       <c r="C537" t="n">
         <v>270.399999999999977</v>
       </c>
-      <c r="D537" s="12" t="s">
+      <c r="D537" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E537" s="24" t="n">
+      <c r="E537" s="18" t="n">
         <v>44032</v>
       </c>
-      <c r="G537" s="20" t="s">
+      <c r="G537" s="15" t="s">
         <v>162</v>
       </c>
     </row>
@@ -9114,7 +9110,7 @@
       <c r="C538" t="n">
         <v>44.6499999999999986</v>
       </c>
-      <c r="D538" s="12" t="s">
+      <c r="D538" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9125,10 +9121,10 @@
       <c r="C539" t="n">
         <v>11</v>
       </c>
-      <c r="D539" s="12" t="s">
+      <c r="D539" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="G539" s="20" t="s">
+      <c r="G539" s="15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9144,13 +9140,13 @@
       <c r="C541" t="n">
         <v>56.4200000000000017</v>
       </c>
-      <c r="D541" s="12" t="s">
+      <c r="D541" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E541" s="24" t="n">
+      <c r="E541" s="18" t="n">
         <v>44033</v>
       </c>
-      <c r="G541" s="20" t="s">
+      <c r="G541" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9161,7 +9157,7 @@
       <c r="C542" t="n">
         <v>20.5399999999999991</v>
       </c>
-      <c r="D542" s="12" t="s">
+      <c r="D542" s="9" t="s">
         <v>379</v>
       </c>
     </row>
@@ -9177,13 +9173,13 @@
       <c r="C544" t="n">
         <v>33.7000000000000028</v>
       </c>
-      <c r="D544" s="12" t="s">
+      <c r="D544" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E544" s="24" t="n">
+      <c r="E544" s="18" t="n">
         <v>44034</v>
       </c>
-      <c r="G544" s="20" t="s">
+      <c r="G544" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9199,10 +9195,10 @@
       <c r="C546" t="n">
         <v>30.3599999999999994</v>
       </c>
-      <c r="D546" s="12" t="s">
+      <c r="D546" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E546" s="24" t="n">
+      <c r="E546" s="18" t="n">
         <v>44036</v>
       </c>
     </row>
@@ -9218,13 +9214,13 @@
       <c r="C548" t="n">
         <v>6.83999999999999986</v>
       </c>
-      <c r="D548" s="12" t="s">
+      <c r="D548" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E548" s="24" t="n">
+      <c r="E548" s="18" t="n">
         <v>44037</v>
       </c>
-      <c r="G548" s="20" t="s">
+      <c r="G548" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9240,13 +9236,13 @@
       <c r="C550" t="n">
         <v>1560</v>
       </c>
-      <c r="D550" s="12" t="s">
+      <c r="D550" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E550" s="24" t="n">
+      <c r="E550" s="18" t="n">
         <v>44040</v>
       </c>
-      <c r="G550" s="20" t="s">
+      <c r="G550" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9262,13 +9258,13 @@
       <c r="C552" t="n">
         <v>19.0500000000000007</v>
       </c>
-      <c r="D552" s="12" t="s">
+      <c r="D552" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E552" s="24" t="n">
+      <c r="E552" s="18" t="n">
         <v>44041</v>
       </c>
-      <c r="G552" s="20" t="s">
+      <c r="G552" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9279,10 +9275,10 @@
       <c r="C553" t="n">
         <v>17.7699999999999996</v>
       </c>
-      <c r="D553" s="12" t="s">
+      <c r="D553" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G553" s="20" t="s">
+      <c r="G553" s="15" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9293,10 +9289,10 @@
       <c r="C554" t="n">
         <v>26.6900000000000013</v>
       </c>
-      <c r="D554" s="12" t="s">
+      <c r="D554" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G554" s="20" t="s">
+      <c r="G554" s="15" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9307,10 +9303,10 @@
       <c r="C555" t="n">
         <v>18</v>
       </c>
-      <c r="D555" s="12" t="s">
+      <c r="D555" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="G555" s="20" t="s">
+      <c r="G555" s="15" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9321,10 +9317,10 @@
       <c r="C556" t="n">
         <v>38.25</v>
       </c>
-      <c r="D556" s="12" t="s">
+      <c r="D556" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="G556" s="20" t="s">
+      <c r="G556" s="15" t="s">
         <v>338</v>
       </c>
     </row>
@@ -9335,10 +9331,10 @@
       <c r="C557" t="n">
         <v>1575</v>
       </c>
-      <c r="D557" s="12" t="s">
+      <c r="D557" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="G557" s="20" t="s">
+      <c r="G557" s="15" t="s">
         <v>362</v>
       </c>
       <c r="H557" t="s">
@@ -9357,13 +9353,13 @@
       <c r="C559" t="n">
         <v>45.9799999999999969</v>
       </c>
-      <c r="D559" s="12" t="s">
+      <c r="D559" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E559" s="24" t="n">
+      <c r="E559" s="18" t="n">
         <v>44042</v>
       </c>
-      <c r="G559" s="20" t="s">
+      <c r="G559" s="15" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9374,10 +9370,10 @@
       <c r="C560" t="n">
         <v>92.019999999999996</v>
       </c>
-      <c r="D560" s="12" t="s">
+      <c r="D560" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="G560" s="20" t="s">
+      <c r="G560" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9388,10 +9384,10 @@
       <c r="C561" t="n">
         <v>100</v>
       </c>
-      <c r="D561" s="12" t="s">
+      <c r="D561" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G561" s="20" t="s">
+      <c r="G561" s="15" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9404,17 +9400,17 @@
       <c r="A563" t="n">
         <v>562</v>
       </c>
-      <c r="C563" s="22" t="s">
+      <c r="C563" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="D563" s="23" t="s">
+      <c r="D563" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="E563" s="28" t="n">
+      <c r="E563" s="21" t="n">
         <v>44046</v>
       </c>
-      <c r="F563" s="23"/>
-      <c r="G563" s="23" t="s">
+      <c r="F563" s="17"/>
+      <c r="G563" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9422,15 +9418,15 @@
       <c r="A564" t="n">
         <v>563</v>
       </c>
-      <c r="C564" s="22" t="s">
+      <c r="C564" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D564" s="23" t="s">
+      <c r="D564" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="E564" s="27"/>
-      <c r="F564" s="23"/>
-      <c r="G564" s="23" t="s">
+      <c r="E564" s="20"/>
+      <c r="F564" s="17"/>
+      <c r="G564" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9438,41 +9434,41 @@
       <c r="A565" t="n">
         <v>564</v>
       </c>
-      <c r="C565" s="22" t="n">
+      <c r="C565" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D565" s="23" t="s">
+      <c r="D565" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E565" s="27"/>
-      <c r="F565" s="23"/>
-      <c r="G565" s="23"/>
+      <c r="E565" s="20"/>
+      <c r="F565" s="17"/>
+      <c r="G565" s="17"/>
     </row>
     <row r="566" spans="1:7">
       <c r="A566" t="n">
         <v>565</v>
       </c>
-      <c r="C566" s="23"/>
-      <c r="D566" s="23"/>
-      <c r="E566" s="27"/>
-      <c r="F566" s="23"/>
-      <c r="G566" s="23"/>
+      <c r="C566" s="17"/>
+      <c r="D566" s="17"/>
+      <c r="E566" s="20"/>
+      <c r="F566" s="17"/>
+      <c r="G566" s="17"/>
     </row>
     <row r="567" spans="1:7">
       <c r="A567" t="n">
         <v>566</v>
       </c>
-      <c r="C567" s="22" t="n">
+      <c r="C567" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D567" s="23" t="s">
+      <c r="D567" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="E567" s="26" t="n">
+      <c r="E567" s="19" t="n">
         <v>44050</v>
       </c>
-      <c r="F567" s="23"/>
-      <c r="G567" s="23" t="s">
+      <c r="F567" s="17"/>
+      <c r="G567" s="17" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9480,27 +9476,27 @@
       <c r="A568" t="n">
         <v>567</v>
       </c>
-      <c r="C568" s="23"/>
-      <c r="D568" s="23"/>
-      <c r="E568" s="27"/>
-      <c r="F568" s="23"/>
-      <c r="G568" s="23"/>
+      <c r="C568" s="17"/>
+      <c r="D568" s="17"/>
+      <c r="E568" s="20"/>
+      <c r="F568" s="17"/>
+      <c r="G568" s="17"/>
     </row>
     <row r="569" spans="1:7">
       <c r="A569" t="n">
         <v>568</v>
       </c>
-      <c r="C569" s="22" t="s">
+      <c r="C569" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="D569" s="23" t="s">
+      <c r="D569" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E569" s="26" t="n">
+      <c r="E569" s="19" t="n">
         <v>44051</v>
       </c>
-      <c r="F569" s="23"/>
-      <c r="G569" s="23" t="s">
+      <c r="F569" s="17"/>
+      <c r="G569" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9508,27 +9504,27 @@
       <c r="A570" t="n">
         <v>569</v>
       </c>
-      <c r="C570" s="23"/>
-      <c r="D570" s="23"/>
-      <c r="E570" s="27"/>
-      <c r="F570" s="23"/>
-      <c r="G570" s="23"/>
+      <c r="C570" s="17"/>
+      <c r="D570" s="17"/>
+      <c r="E570" s="20"/>
+      <c r="F570" s="17"/>
+      <c r="G570" s="17"/>
     </row>
     <row r="571" spans="1:7">
       <c r="A571" t="n">
         <v>570</v>
       </c>
-      <c r="C571" s="22" t="n">
+      <c r="C571" s="16" t="n">
         <v>300</v>
       </c>
-      <c r="D571" s="23" t="s">
+      <c r="D571" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E571" s="26" t="n">
+      <c r="E571" s="19" t="n">
         <v>44052</v>
       </c>
-      <c r="F571" s="23"/>
-      <c r="G571" s="23" t="s">
+      <c r="F571" s="17"/>
+      <c r="G571" s="17" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9549,10 +9545,10 @@
       <c r="D573" t="s">
         <v>211</v>
       </c>
-      <c r="E573" s="24" t="n">
+      <c r="E573" s="18" t="n">
         <v>44054</v>
       </c>
-      <c r="G573" s="23" t="s">
+      <c r="G573" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9573,10 +9569,10 @@
       <c r="D575" t="s">
         <v>211</v>
       </c>
-      <c r="E575" s="24" t="n">
+      <c r="E575" s="18" t="n">
         <v>44057</v>
       </c>
-      <c r="G575" s="23" t="s">
+      <c r="G575" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9594,13 +9590,13 @@
       <c r="C577" t="s">
         <v>396</v>
       </c>
-      <c r="D577" s="12" t="s">
+      <c r="D577" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="E577" s="24" t="n">
+      <c r="E577" s="18" t="n">
         <v>44059</v>
       </c>
-      <c r="G577" s="20" t="s">
+      <c r="G577" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9611,10 +9607,10 @@
       <c r="C578" t="s">
         <v>398</v>
       </c>
-      <c r="D578" s="12" t="s">
+      <c r="D578" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G578" s="23" t="s">
+      <c r="G578" s="17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9630,13 +9626,13 @@
       <c r="C580" t="n">
         <v>85</v>
       </c>
-      <c r="D580" s="12" t="s">
+      <c r="D580" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E580" s="24" t="n">
+      <c r="E580" s="18" t="n">
         <v>44061</v>
       </c>
-      <c r="G580" s="20" t="s">
+      <c r="G580" s="15" t="s">
         <v>364</v>
       </c>
     </row>
@@ -9645,7 +9641,7 @@
         <v>580</v>
       </c>
       <c r="D581"/>
-      <c r="E581"/>
+      <c r="E581" s="29"/>
       <c r="G581"/>
     </row>
     <row r="582" spans="1:5">
@@ -9658,7 +9654,7 @@
       <c r="D582" t="s">
         <v>211</v>
       </c>
-      <c r="E582" s="29" t="n">
+      <c r="E582" s="18" t="n">
         <v>44063</v>
       </c>
     </row>
@@ -9672,7 +9668,7 @@
       <c r="D583" t="s">
         <v>92</v>
       </c>
-      <c r="E583"/>
+      <c r="E583" s="29"/>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" t="n">
@@ -9681,10 +9677,10 @@
       <c r="C584" t="s">
         <v>402</v>
       </c>
-      <c r="D584" s="12" t="s">
+      <c r="D584" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E584" s="24" t="n">
+      <c r="E584" s="18" t="n">
         <v>44065</v>
       </c>
     </row>
@@ -9705,10 +9701,10 @@
       <c r="C587" t="s">
         <v>403</v>
       </c>
-      <c r="D587" s="12" t="s">
+      <c r="D587" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E587" s="24" t="n">
+      <c r="E587" s="18" t="n">
         <v>44068</v>
       </c>
     </row>
@@ -9719,7 +9715,7 @@
       <c r="C588" t="n">
         <v>7</v>
       </c>
-      <c r="D588" s="12" t="s">
+      <c r="D588" s="9" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9730,10 +9726,10 @@
       <c r="C589" t="s">
         <v>405</v>
       </c>
-      <c r="D589" s="12" t="s">
+      <c r="D589" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="E589" s="24" t="n">
+      <c r="E589" s="18" t="n">
         <v>44069</v>
       </c>
     </row>
@@ -9916,7 +9912,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1627727789" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9925,14 +9921,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1627727789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1627727789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1627727789" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9954,7 +9950,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1627727789" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9963,14 +9959,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1627727789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1627727789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1627727789" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9992,7 +9988,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1616078867" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1627727789" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10001,14 +9997,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1616078867" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1627727789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1627727789" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1616078867" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1627727789" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
